--- a/TP_Outils_Maths.xlsx
+++ b/TP_Outils_Maths.xlsx
@@ -303,7 +303,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="37">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -449,10 +449,6 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="9" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -641,7 +637,7 @@
   </sheetPr>
   <dimension ref="A1:CR90"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="60" zoomScaleNormal="60" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="O5" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="O1" activeCellId="0" sqref="O1"/>
@@ -10391,7 +10387,7 @@
   </sheetPr>
   <dimension ref="A1:CR90"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="60" zoomScaleNormal="60" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B8" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
@@ -20114,21 +20110,19 @@
   </sheetPr>
   <dimension ref="A1:CN90"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="60" zoomScaleNormal="60" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B8" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="S26" activeCellId="0" sqref="S26"/>
+      <selection pane="bottomLeft" activeCell="A8" activeCellId="0" sqref="A8"/>
+      <selection pane="bottomRight" activeCell="BM84" activeCellId="0" sqref="BM84"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="3.79"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="71" min="2" style="26" width="5.96"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="72" min="72" style="26" width="5.34"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="90" min="73" style="26" width="3.79"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="92" min="92" style="1" width="5.8"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="3.54"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="90" min="2" style="26" width="5.69"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="92" min="92" style="1" width="5.57"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -27794,13 +27788,21 @@
       <c r="BQ72" s="27"/>
       <c r="BR72" s="27"/>
       <c r="BS72" s="27"/>
-      <c r="BT72" s="29"/>
-      <c r="BU72" s="27"/>
-      <c r="BV72" s="27"/>
-      <c r="BW72" s="27"/>
-      <c r="BX72" s="27"/>
-      <c r="BY72" s="27"/>
-      <c r="BZ72" s="27"/>
+      <c r="BT72" s="27" t="n">
+        <f aca="false">-3/2</f>
+        <v>-1.5</v>
+      </c>
+      <c r="BU72" s="27" t="n">
+        <v>2</v>
+      </c>
+      <c r="BV72" s="28" t="n">
+        <f aca="false">-1/2</f>
+        <v>-0.5</v>
+      </c>
+      <c r="BW72" s="29"/>
+      <c r="BX72" s="29"/>
+      <c r="BY72" s="29"/>
+      <c r="BZ72" s="29"/>
       <c r="CA72" s="27"/>
       <c r="CB72" s="27"/>
       <c r="CC72" s="27"/>
@@ -27888,14 +27890,22 @@
       <c r="BQ73" s="27"/>
       <c r="BR73" s="27"/>
       <c r="BS73" s="27"/>
-      <c r="BT73" s="27"/>
-      <c r="BU73" s="27"/>
-      <c r="BV73" s="27"/>
-      <c r="BW73" s="27"/>
-      <c r="BX73" s="27"/>
-      <c r="BY73" s="27"/>
-      <c r="BZ73" s="27"/>
-      <c r="CA73" s="27"/>
+      <c r="BT73" s="28" t="n">
+        <f aca="false">-1/2</f>
+        <v>-0.5</v>
+      </c>
+      <c r="BU73" s="30" t="n">
+        <v>0</v>
+      </c>
+      <c r="BV73" s="31" t="n">
+        <f aca="false">1/2</f>
+        <v>0.5</v>
+      </c>
+      <c r="BW73" s="29"/>
+      <c r="BX73" s="29"/>
+      <c r="BY73" s="29"/>
+      <c r="BZ73" s="29"/>
+      <c r="CA73" s="29"/>
       <c r="CB73" s="27"/>
       <c r="CC73" s="27"/>
       <c r="CD73" s="29"/>
@@ -27982,11 +27992,25 @@
       <c r="BQ74" s="29"/>
       <c r="BR74" s="29"/>
       <c r="BS74" s="29"/>
-      <c r="BT74" s="29"/>
-      <c r="BU74" s="27"/>
-      <c r="BV74" s="27"/>
-      <c r="BW74" s="27"/>
-      <c r="BX74" s="29"/>
+      <c r="BT74" s="32" t="n">
+        <f aca="false">1/12</f>
+        <v>0.0833333333333333</v>
+      </c>
+      <c r="BU74" s="33" t="n">
+        <f aca="false">-2/3</f>
+        <v>-0.666666666666667</v>
+      </c>
+      <c r="BV74" s="30" t="n">
+        <v>0</v>
+      </c>
+      <c r="BW74" s="34" t="n">
+        <f aca="false">2/3</f>
+        <v>0.666666666666667</v>
+      </c>
+      <c r="BX74" s="35" t="n">
+        <f aca="false">-1/12</f>
+        <v>-0.0833333333333333</v>
+      </c>
       <c r="BY74" s="29"/>
       <c r="BZ74" s="29"/>
       <c r="CA74" s="29"/>
@@ -28077,11 +28101,25 @@
       <c r="BR75" s="29"/>
       <c r="BS75" s="29"/>
       <c r="BT75" s="29"/>
-      <c r="BU75" s="29"/>
-      <c r="BV75" s="27"/>
-      <c r="BW75" s="27"/>
-      <c r="BX75" s="27"/>
-      <c r="BY75" s="29"/>
+      <c r="BU75" s="32" t="n">
+        <f aca="false">1/12</f>
+        <v>0.0833333333333333</v>
+      </c>
+      <c r="BV75" s="33" t="n">
+        <f aca="false">-2/3</f>
+        <v>-0.666666666666667</v>
+      </c>
+      <c r="BW75" s="30" t="n">
+        <v>0</v>
+      </c>
+      <c r="BX75" s="34" t="n">
+        <f aca="false">2/3</f>
+        <v>0.666666666666667</v>
+      </c>
+      <c r="BY75" s="35" t="n">
+        <f aca="false">-1/12</f>
+        <v>-0.0833333333333333</v>
+      </c>
       <c r="BZ75" s="29"/>
       <c r="CA75" s="29"/>
       <c r="CB75" s="29"/>
@@ -28172,11 +28210,25 @@
       <c r="BS76" s="29"/>
       <c r="BT76" s="29"/>
       <c r="BU76" s="29"/>
-      <c r="BV76" s="29"/>
-      <c r="BW76" s="27"/>
-      <c r="BX76" s="27"/>
-      <c r="BY76" s="27"/>
-      <c r="BZ76" s="29"/>
+      <c r="BV76" s="32" t="n">
+        <f aca="false">1/12</f>
+        <v>0.0833333333333333</v>
+      </c>
+      <c r="BW76" s="33" t="n">
+        <f aca="false">-2/3</f>
+        <v>-0.666666666666667</v>
+      </c>
+      <c r="BX76" s="30" t="n">
+        <v>0</v>
+      </c>
+      <c r="BY76" s="34" t="n">
+        <f aca="false">2/3</f>
+        <v>0.666666666666667</v>
+      </c>
+      <c r="BZ76" s="35" t="n">
+        <f aca="false">-1/12</f>
+        <v>-0.0833333333333333</v>
+      </c>
       <c r="CA76" s="29"/>
       <c r="CB76" s="29"/>
       <c r="CC76" s="29"/>
@@ -28267,11 +28319,25 @@
       <c r="BT77" s="29"/>
       <c r="BU77" s="29"/>
       <c r="BV77" s="29"/>
-      <c r="BW77" s="29"/>
-      <c r="BX77" s="27"/>
-      <c r="BY77" s="27"/>
-      <c r="BZ77" s="27"/>
-      <c r="CA77" s="29"/>
+      <c r="BW77" s="32" t="n">
+        <f aca="false">1/12</f>
+        <v>0.0833333333333333</v>
+      </c>
+      <c r="BX77" s="33" t="n">
+        <f aca="false">-2/3</f>
+        <v>-0.666666666666667</v>
+      </c>
+      <c r="BY77" s="35" t="n">
+        <f aca="false">-1/12</f>
+        <v>-0.0833333333333333</v>
+      </c>
+      <c r="BZ77" s="34" t="n">
+        <f aca="false">2/3</f>
+        <v>0.666666666666667</v>
+      </c>
+      <c r="CA77" s="30" t="n">
+        <v>0</v>
+      </c>
       <c r="CB77" s="29"/>
       <c r="CC77" s="29"/>
       <c r="CD77" s="29"/>
@@ -28363,8 +28429,10 @@
       <c r="BV78" s="29"/>
       <c r="BW78" s="29"/>
       <c r="BX78" s="29"/>
-      <c r="BY78" s="27"/>
-      <c r="BZ78" s="27"/>
+      <c r="BY78" s="29"/>
+      <c r="BZ78" s="36" t="n">
+        <v>1</v>
+      </c>
       <c r="CA78" s="29"/>
       <c r="CB78" s="29"/>
       <c r="CC78" s="29"/>
@@ -28457,13 +28525,22 @@
       <c r="BX79" s="29"/>
       <c r="BY79" s="29"/>
       <c r="BZ79" s="29"/>
-      <c r="CA79" s="37"/>
-      <c r="CB79" s="27"/>
-      <c r="CC79" s="29"/>
+      <c r="CA79" s="27" t="n">
+        <f aca="false">-3/2</f>
+        <v>-1.5</v>
+      </c>
+      <c r="CB79" s="27" t="n">
+        <v>2</v>
+      </c>
+      <c r="CC79" s="28" t="n">
+        <f aca="false">-1/2</f>
+        <v>-0.5</v>
+      </c>
       <c r="CD79" s="29"/>
       <c r="CE79" s="29"/>
       <c r="CF79" s="29"/>
-      <c r="CG79" s="27"/>
+      <c r="CG79" s="29"/>
+      <c r="CH79" s="27"/>
       <c r="CI79" s="29"/>
       <c r="CJ79" s="29"/>
       <c r="CK79" s="29"/>
@@ -28549,14 +28626,22 @@
       <c r="BX80" s="29"/>
       <c r="BY80" s="29"/>
       <c r="BZ80" s="29"/>
-      <c r="CA80" s="27"/>
-      <c r="CB80" s="27"/>
-      <c r="CC80" s="27"/>
+      <c r="CA80" s="28" t="n">
+        <f aca="false">-1/2</f>
+        <v>-0.5</v>
+      </c>
+      <c r="CB80" s="30" t="n">
+        <v>0</v>
+      </c>
+      <c r="CC80" s="31" t="n">
+        <f aca="false">1/2</f>
+        <v>0.5</v>
+      </c>
       <c r="CD80" s="29"/>
       <c r="CE80" s="29"/>
       <c r="CF80" s="29"/>
       <c r="CG80" s="29"/>
-      <c r="CH80" s="27"/>
+      <c r="CH80" s="29"/>
       <c r="CI80" s="29"/>
       <c r="CJ80" s="29"/>
       <c r="CK80" s="29"/>
@@ -28642,11 +28727,25 @@
       <c r="BX81" s="29"/>
       <c r="BY81" s="29"/>
       <c r="BZ81" s="29"/>
-      <c r="CA81" s="29"/>
-      <c r="CB81" s="27"/>
-      <c r="CC81" s="27"/>
-      <c r="CD81" s="27"/>
-      <c r="CE81" s="29"/>
+      <c r="CA81" s="32" t="n">
+        <f aca="false">1/12</f>
+        <v>0.0833333333333333</v>
+      </c>
+      <c r="CB81" s="33" t="n">
+        <f aca="false">-2/3</f>
+        <v>-0.666666666666667</v>
+      </c>
+      <c r="CC81" s="30" t="n">
+        <v>0</v>
+      </c>
+      <c r="CD81" s="34" t="n">
+        <f aca="false">2/3</f>
+        <v>0.666666666666667</v>
+      </c>
+      <c r="CE81" s="35" t="n">
+        <f aca="false">-1/12</f>
+        <v>-0.0833333333333333</v>
+      </c>
       <c r="CF81" s="29"/>
       <c r="CG81" s="29"/>
       <c r="CH81" s="29"/>
@@ -28736,11 +28835,25 @@
       <c r="BY82" s="29"/>
       <c r="BZ82" s="29"/>
       <c r="CA82" s="29"/>
-      <c r="CB82" s="29"/>
-      <c r="CC82" s="27"/>
-      <c r="CD82" s="27"/>
-      <c r="CE82" s="27"/>
-      <c r="CF82" s="29"/>
+      <c r="CB82" s="32" t="n">
+        <f aca="false">1/12</f>
+        <v>0.0833333333333333</v>
+      </c>
+      <c r="CC82" s="33" t="n">
+        <f aca="false">-2/3</f>
+        <v>-0.666666666666667</v>
+      </c>
+      <c r="CD82" s="30" t="n">
+        <v>0</v>
+      </c>
+      <c r="CE82" s="34" t="n">
+        <f aca="false">2/3</f>
+        <v>0.666666666666667</v>
+      </c>
+      <c r="CF82" s="35" t="n">
+        <f aca="false">-1/12</f>
+        <v>-0.0833333333333333</v>
+      </c>
       <c r="CG82" s="29"/>
       <c r="CH82" s="29"/>
       <c r="CI82" s="29"/>
@@ -28830,11 +28943,25 @@
       <c r="BZ83" s="29"/>
       <c r="CA83" s="29"/>
       <c r="CB83" s="29"/>
-      <c r="CC83" s="29"/>
-      <c r="CD83" s="27"/>
-      <c r="CE83" s="27"/>
-      <c r="CF83" s="27"/>
-      <c r="CG83" s="29"/>
+      <c r="CC83" s="32" t="n">
+        <f aca="false">1/12</f>
+        <v>0.0833333333333333</v>
+      </c>
+      <c r="CD83" s="33" t="n">
+        <f aca="false">-2/3</f>
+        <v>-0.666666666666667</v>
+      </c>
+      <c r="CE83" s="35" t="n">
+        <f aca="false">-1/12</f>
+        <v>-0.0833333333333333</v>
+      </c>
+      <c r="CF83" s="34" t="n">
+        <f aca="false">2/3</f>
+        <v>0.666666666666667</v>
+      </c>
+      <c r="CG83" s="30" t="n">
+        <v>0</v>
+      </c>
       <c r="CH83" s="29"/>
       <c r="CI83" s="29"/>
       <c r="CJ83" s="29"/>
@@ -28926,10 +29053,12 @@
       <c r="CB84" s="29"/>
       <c r="CC84" s="29"/>
       <c r="CD84" s="29"/>
-      <c r="CE84" s="27"/>
-      <c r="CF84" s="27"/>
+      <c r="CE84" s="29"/>
+      <c r="CF84" s="36" t="n">
+        <v>1</v>
+      </c>
       <c r="CG84" s="29"/>
-      <c r="CH84" s="29"/>
+      <c r="CH84" s="0"/>
       <c r="CI84" s="29"/>
       <c r="CJ84" s="29"/>
       <c r="CL84" s="27"/>
@@ -29011,9 +29140,27 @@
       <c r="BT85" s="29"/>
       <c r="BU85" s="29"/>
       <c r="BV85" s="29"/>
-      <c r="CA85" s="27"/>
-      <c r="CG85" s="37"/>
-      <c r="CH85" s="27"/>
+      <c r="CA85" s="29"/>
+      <c r="CB85" s="29"/>
+      <c r="CC85" s="29"/>
+      <c r="CD85" s="0"/>
+      <c r="CE85" s="0"/>
+      <c r="CF85" s="0"/>
+      <c r="CG85" s="27" t="n">
+        <f aca="false">-3/2</f>
+        <v>-1.5</v>
+      </c>
+      <c r="CH85" s="27" t="n">
+        <v>2</v>
+      </c>
+      <c r="CI85" s="28" t="n">
+        <f aca="false">-1/2</f>
+        <v>-0.5</v>
+      </c>
+      <c r="CJ85" s="29"/>
+      <c r="CK85" s="29"/>
+      <c r="CL85" s="29"/>
+      <c r="CM85" s="29"/>
     </row>
     <row r="86" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A86" s="4" t="n">
@@ -29098,12 +29245,21 @@
       <c r="CD86" s="29"/>
       <c r="CE86" s="29"/>
       <c r="CF86" s="29"/>
-      <c r="CG86" s="27"/>
-      <c r="CH86" s="27"/>
-      <c r="CI86" s="27"/>
+      <c r="CG86" s="28" t="n">
+        <f aca="false">-1/2</f>
+        <v>-0.5</v>
+      </c>
+      <c r="CH86" s="30" t="n">
+        <v>0</v>
+      </c>
+      <c r="CI86" s="31" t="n">
+        <f aca="false">1/2</f>
+        <v>0.5</v>
+      </c>
       <c r="CJ86" s="29"/>
       <c r="CK86" s="29"/>
       <c r="CL86" s="29"/>
+      <c r="CM86" s="29"/>
     </row>
     <row r="87" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A87" s="4" t="n">
@@ -29188,12 +29344,27 @@
       <c r="CD87" s="29"/>
       <c r="CE87" s="29"/>
       <c r="CF87" s="29"/>
-      <c r="CG87" s="29"/>
-      <c r="CH87" s="27"/>
-      <c r="CI87" s="27"/>
-      <c r="CJ87" s="27"/>
-      <c r="CK87" s="29"/>
+      <c r="CG87" s="32" t="n">
+        <f aca="false">1/12</f>
+        <v>0.0833333333333333</v>
+      </c>
+      <c r="CH87" s="33" t="n">
+        <f aca="false">-2/3</f>
+        <v>-0.666666666666667</v>
+      </c>
+      <c r="CI87" s="30" t="n">
+        <v>0</v>
+      </c>
+      <c r="CJ87" s="34" t="n">
+        <f aca="false">2/3</f>
+        <v>0.666666666666667</v>
+      </c>
+      <c r="CK87" s="35" t="n">
+        <f aca="false">-1/12</f>
+        <v>-0.0833333333333333</v>
+      </c>
       <c r="CL87" s="29"/>
+      <c r="CM87" s="29"/>
     </row>
     <row r="88" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A88" s="4" t="n">
@@ -29279,11 +29450,26 @@
       <c r="CE88" s="29"/>
       <c r="CF88" s="29"/>
       <c r="CG88" s="29"/>
-      <c r="CH88" s="29"/>
-      <c r="CI88" s="27"/>
-      <c r="CJ88" s="27"/>
-      <c r="CK88" s="27"/>
-      <c r="CL88" s="29"/>
+      <c r="CH88" s="32" t="n">
+        <f aca="false">1/12</f>
+        <v>0.0833333333333333</v>
+      </c>
+      <c r="CI88" s="33" t="n">
+        <f aca="false">-2/3</f>
+        <v>-0.666666666666667</v>
+      </c>
+      <c r="CJ88" s="30" t="n">
+        <v>0</v>
+      </c>
+      <c r="CK88" s="34" t="n">
+        <f aca="false">2/3</f>
+        <v>0.666666666666667</v>
+      </c>
+      <c r="CL88" s="35" t="n">
+        <f aca="false">-1/12</f>
+        <v>-0.0833333333333333</v>
+      </c>
+      <c r="CM88" s="29"/>
     </row>
     <row r="89" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A89" s="4" t="n">
@@ -29370,10 +29556,23 @@
       <c r="CF89" s="29"/>
       <c r="CG89" s="29"/>
       <c r="CH89" s="29"/>
-      <c r="CI89" s="29"/>
-      <c r="CJ89" s="27"/>
-      <c r="CK89" s="27"/>
-      <c r="CL89" s="27"/>
+      <c r="CI89" s="32" t="n">
+        <f aca="false">1/12</f>
+        <v>0.0833333333333333</v>
+      </c>
+      <c r="CJ89" s="33" t="n">
+        <f aca="false">-2/3</f>
+        <v>-0.666666666666667</v>
+      </c>
+      <c r="CK89" s="35" t="n">
+        <f aca="false">-1/12</f>
+        <v>-0.0833333333333333</v>
+      </c>
+      <c r="CL89" s="34" t="n">
+        <f aca="false">2/3</f>
+        <v>0.666666666666667</v>
+      </c>
+      <c r="CM89" s="29"/>
     </row>
     <row r="90" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A90" s="4" t="n">
@@ -29462,8 +29661,11 @@
       <c r="CH90" s="29"/>
       <c r="CI90" s="29"/>
       <c r="CJ90" s="29"/>
-      <c r="CK90" s="27"/>
-      <c r="CL90" s="27"/>
+      <c r="CK90" s="29"/>
+      <c r="CL90" s="36" t="n">
+        <v>1</v>
+      </c>
+      <c r="CM90" s="29"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -29483,7 +29685,7 @@
   </sheetPr>
   <dimension ref="A1:CR90"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="60" zoomScaleNormal="60" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B79" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>

--- a/TP_Outils_Maths.xlsx
+++ b/TP_Outils_Maths.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Thermal" sheetId="1" state="visible" r:id="rId3"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="524" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="515" uniqueCount="31">
   <si>
     <t xml:space="preserve">RHS</t>
   </si>
@@ -20110,12 +20110,12 @@
   </sheetPr>
   <dimension ref="A1:CN90"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="60" zoomScaleNormal="60" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B8" activePane="bottomRight" state="frozen"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="60" zoomScaleNormal="60" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="A8" activeCellId="0" sqref="A8"/>
-      <selection pane="bottomRight" activeCell="BM84" activeCellId="0" sqref="BM84"/>
+      <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="I8" activeCellId="0" sqref="I8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -21041,7 +21041,7 @@
       <c r="F8" s="29"/>
       <c r="G8" s="29"/>
       <c r="H8" s="36" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I8" s="29"/>
       <c r="J8" s="29"/>
@@ -21780,7 +21780,7 @@
       <c r="M15" s="29"/>
       <c r="N15" s="29"/>
       <c r="O15" s="36" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P15" s="29"/>
       <c r="Q15" s="29"/>
@@ -21875,7 +21875,7 @@
       <c r="L16" s="29"/>
       <c r="M16" s="29"/>
       <c r="N16" s="29"/>
-      <c r="O16" s="0"/>
+      <c r="O16" s="1"/>
       <c r="P16" s="27" t="n">
         <f aca="false">-3/2</f>
         <v>-1.5</v>
@@ -22519,7 +22519,7 @@
       <c r="T22" s="29"/>
       <c r="U22" s="29"/>
       <c r="V22" s="36" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W22" s="29"/>
       <c r="X22" s="29"/>
@@ -23258,7 +23258,7 @@
       <c r="AA29" s="29"/>
       <c r="AB29" s="29"/>
       <c r="AC29" s="36" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD29" s="29"/>
       <c r="AE29" s="29"/>
@@ -23997,7 +23997,7 @@
       <c r="AH36" s="29"/>
       <c r="AI36" s="29"/>
       <c r="AJ36" s="36" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK36" s="29"/>
       <c r="AL36" s="29"/>
@@ -24736,7 +24736,7 @@
       <c r="AO43" s="29"/>
       <c r="AP43" s="29"/>
       <c r="AQ43" s="36" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AR43" s="29"/>
       <c r="AS43" s="29"/>
@@ -25475,7 +25475,7 @@
       <c r="AV50" s="29"/>
       <c r="AW50" s="29"/>
       <c r="AX50" s="36" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AY50" s="29"/>
       <c r="AZ50" s="29"/>
@@ -26214,7 +26214,7 @@
       <c r="BC57" s="29"/>
       <c r="BD57" s="29"/>
       <c r="BE57" s="36" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BF57" s="29"/>
       <c r="BG57" s="29"/>
@@ -26953,7 +26953,7 @@
       <c r="BJ64" s="29"/>
       <c r="BK64" s="29"/>
       <c r="BL64" s="36" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BM64" s="29"/>
       <c r="BN64" s="29"/>
@@ -27692,7 +27692,7 @@
       <c r="BQ71" s="29"/>
       <c r="BR71" s="29"/>
       <c r="BS71" s="36" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BT71" s="29"/>
       <c r="BU71" s="29"/>
@@ -28431,7 +28431,7 @@
       <c r="BX78" s="29"/>
       <c r="BY78" s="29"/>
       <c r="BZ78" s="36" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CA78" s="29"/>
       <c r="CB78" s="29"/>
@@ -29055,10 +29055,10 @@
       <c r="CD84" s="29"/>
       <c r="CE84" s="29"/>
       <c r="CF84" s="36" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CG84" s="29"/>
-      <c r="CH84" s="0"/>
+      <c r="CH84" s="1"/>
       <c r="CI84" s="29"/>
       <c r="CJ84" s="29"/>
       <c r="CL84" s="27"/>
@@ -29143,9 +29143,9 @@
       <c r="CA85" s="29"/>
       <c r="CB85" s="29"/>
       <c r="CC85" s="29"/>
-      <c r="CD85" s="0"/>
-      <c r="CE85" s="0"/>
-      <c r="CF85" s="0"/>
+      <c r="CD85" s="1"/>
+      <c r="CE85" s="1"/>
+      <c r="CF85" s="1"/>
       <c r="CG85" s="27" t="n">
         <f aca="false">-3/2</f>
         <v>-1.5</v>
@@ -29663,7 +29663,7 @@
       <c r="CJ90" s="29"/>
       <c r="CK90" s="29"/>
       <c r="CL90" s="36" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CM90" s="29"/>
     </row>
@@ -29683,27 +29683,20 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:CR90"/>
+  <dimension ref="A1:CO90"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="60" zoomScaleNormal="60" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B79" activePane="bottomRight" state="frozen"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="60" zoomScaleNormal="60" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="AW23" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="A79" activeCellId="0" sqref="A79"/>
-      <selection pane="bottomRight" activeCell="A90" activeCellId="0" sqref="A90"/>
+      <selection pane="topRight" activeCell="AW1" activeCellId="0" sqref="AW1"/>
+      <selection pane="bottomLeft" activeCell="A23" activeCellId="0" sqref="A23"/>
+      <selection pane="bottomRight" activeCell="CR59" activeCellId="0" sqref="CR59"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="5.109375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="3.49"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="2" style="1" width="2.48"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="10" style="1" width="3.1"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="1" width="3.49"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="1" width="3.42"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="90" min="14" style="1" width="3.49"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="92" min="92" style="2" width="5.34"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="94" min="94" style="1" width="14.07"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="96" min="96" style="1" width="5.58"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="90" min="1" style="1" width="5.11"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="93" min="93" style="1" width="5.11"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -29975,27 +29968,23 @@
       <c r="CL1" s="4" t="n">
         <v>88</v>
       </c>
-      <c r="CN1" s="5" t="s">
-        <v>0</v>
-      </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="4" t="n">
         <v>0</v>
       </c>
-      <c r="B2" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="C2" s="7" t="n">
-        <v>0</v>
-      </c>
+      <c r="B2" s="36" t="n">
+        <f aca="false">11/6</f>
+        <v>1.83333333333333</v>
+      </c>
+      <c r="C2" s="3"/>
       <c r="D2" s="3"/>
       <c r="E2" s="3"/>
       <c r="F2" s="3"/>
       <c r="G2" s="3"/>
       <c r="H2" s="3"/>
-      <c r="I2" s="7" t="n">
-        <v>0</v>
+      <c r="I2" s="3" t="n">
+        <v>-3</v>
       </c>
       <c r="J2" s="3"/>
       <c r="K2" s="3"/>
@@ -30003,14 +29992,20 @@
       <c r="M2" s="3"/>
       <c r="N2" s="3"/>
       <c r="O2" s="3"/>
-      <c r="P2" s="3"/>
+      <c r="P2" s="3" t="n">
+        <f aca="false">3/2</f>
+        <v>1.5</v>
+      </c>
       <c r="Q2" s="3"/>
       <c r="R2" s="3"/>
       <c r="S2" s="3"/>
       <c r="T2" s="3"/>
       <c r="U2" s="3"/>
       <c r="V2" s="3"/>
-      <c r="W2" s="3"/>
+      <c r="W2" s="3" t="n">
+        <f aca="false">-1/3</f>
+        <v>-0.333333333333333</v>
+      </c>
       <c r="X2" s="3"/>
       <c r="Y2" s="3"/>
       <c r="Z2" s="3"/>
@@ -30078,30 +30073,24 @@
       <c r="CJ2" s="3"/>
       <c r="CK2" s="3"/>
       <c r="CL2" s="3"/>
-      <c r="CN2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="CP2" s="8"/>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="4" t="n">
         <v>1</v>
       </c>
-      <c r="B3" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="C3" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="D3" s="9" t="n">
-        <v>0</v>
-      </c>
+      <c r="B3" s="3"/>
+      <c r="C3" s="36" t="n">
+        <f aca="false">11/6</f>
+        <v>1.83333333333333</v>
+      </c>
+      <c r="D3" s="3"/>
       <c r="E3" s="3"/>
       <c r="F3" s="3"/>
       <c r="G3" s="3"/>
       <c r="H3" s="3"/>
-      <c r="J3" s="7" t="n">
-        <v>0</v>
+      <c r="I3" s="3"/>
+      <c r="J3" s="3" t="n">
+        <v>-3</v>
       </c>
       <c r="K3" s="3"/>
       <c r="L3" s="3"/>
@@ -30109,14 +30098,20 @@
       <c r="N3" s="3"/>
       <c r="O3" s="3"/>
       <c r="P3" s="3"/>
-      <c r="Q3" s="3"/>
+      <c r="Q3" s="3" t="n">
+        <f aca="false">3/2</f>
+        <v>1.5</v>
+      </c>
       <c r="R3" s="3"/>
       <c r="S3" s="3"/>
       <c r="T3" s="3"/>
       <c r="U3" s="3"/>
       <c r="V3" s="3"/>
       <c r="W3" s="3"/>
-      <c r="X3" s="3"/>
+      <c r="X3" s="3" t="n">
+        <f aca="false">-1/3</f>
+        <v>-0.333333333333333</v>
+      </c>
       <c r="Y3" s="3"/>
       <c r="Z3" s="3"/>
       <c r="AA3" s="3"/>
@@ -30183,34 +30178,25 @@
       <c r="CJ3" s="3"/>
       <c r="CK3" s="3"/>
       <c r="CL3" s="3"/>
-      <c r="CN3" s="25" t="n">
-        <v>0</v>
-      </c>
-      <c r="CP3" s="11"/>
-      <c r="CR3" s="1" t="s">
-        <v>8</v>
-      </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="4" t="n">
         <v>2</v>
       </c>
       <c r="B4" s="3"/>
-      <c r="C4" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="D4" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="E4" s="9" t="n">
-        <v>0</v>
-      </c>
+      <c r="C4" s="3"/>
+      <c r="D4" s="36" t="n">
+        <f aca="false">11/6</f>
+        <v>1.83333333333333</v>
+      </c>
+      <c r="E4" s="3"/>
       <c r="F4" s="3"/>
       <c r="G4" s="3"/>
       <c r="H4" s="3"/>
       <c r="I4" s="3"/>
-      <c r="K4" s="7" t="n">
-        <v>0</v>
+      <c r="J4" s="3"/>
+      <c r="K4" s="3" t="n">
+        <v>-3</v>
       </c>
       <c r="L4" s="3"/>
       <c r="M4" s="3"/>
@@ -30218,14 +30204,20 @@
       <c r="O4" s="3"/>
       <c r="P4" s="3"/>
       <c r="Q4" s="3"/>
-      <c r="R4" s="3"/>
+      <c r="R4" s="3" t="n">
+        <f aca="false">3/2</f>
+        <v>1.5</v>
+      </c>
       <c r="S4" s="3"/>
       <c r="T4" s="3"/>
       <c r="U4" s="3"/>
       <c r="V4" s="3"/>
       <c r="W4" s="3"/>
       <c r="X4" s="3"/>
-      <c r="Y4" s="3"/>
+      <c r="Y4" s="3" t="n">
+        <f aca="false">-1/3</f>
+        <v>-0.333333333333333</v>
+      </c>
       <c r="Z4" s="3"/>
       <c r="AA4" s="3"/>
       <c r="AB4" s="3"/>
@@ -30291,9 +30283,6 @@
       <c r="CJ4" s="3"/>
       <c r="CK4" s="3"/>
       <c r="CL4" s="3"/>
-      <c r="CN4" s="2" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="4" t="n">
@@ -30301,21 +30290,19 @@
       </c>
       <c r="B5" s="3"/>
       <c r="C5" s="3"/>
-      <c r="D5" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="E5" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="F5" s="9" t="n">
-        <v>0</v>
-      </c>
+      <c r="D5" s="3"/>
+      <c r="E5" s="36" t="n">
+        <f aca="false">11/6</f>
+        <v>1.83333333333333</v>
+      </c>
+      <c r="F5" s="3"/>
       <c r="G5" s="3"/>
       <c r="H5" s="3"/>
       <c r="I5" s="3"/>
       <c r="J5" s="3"/>
-      <c r="L5" s="7" t="n">
-        <v>0</v>
+      <c r="K5" s="3"/>
+      <c r="L5" s="3" t="n">
+        <v>-3</v>
       </c>
       <c r="M5" s="3"/>
       <c r="N5" s="3"/>
@@ -30323,14 +30310,20 @@
       <c r="P5" s="3"/>
       <c r="Q5" s="3"/>
       <c r="R5" s="3"/>
-      <c r="S5" s="3"/>
+      <c r="S5" s="3" t="n">
+        <f aca="false">3/2</f>
+        <v>1.5</v>
+      </c>
       <c r="T5" s="3"/>
       <c r="U5" s="3"/>
       <c r="V5" s="3"/>
       <c r="W5" s="3"/>
       <c r="X5" s="3"/>
       <c r="Y5" s="3"/>
-      <c r="Z5" s="3"/>
+      <c r="Z5" s="3" t="n">
+        <f aca="false">-1/3</f>
+        <v>-0.333333333333333</v>
+      </c>
       <c r="AA5" s="3"/>
       <c r="AB5" s="3"/>
       <c r="AC5" s="3"/>
@@ -30395,9 +30388,6 @@
       <c r="CJ5" s="3"/>
       <c r="CK5" s="3"/>
       <c r="CL5" s="3"/>
-      <c r="CN5" s="25" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="4" t="n">
@@ -30406,21 +30396,19 @@
       <c r="B6" s="3"/>
       <c r="C6" s="3"/>
       <c r="D6" s="3"/>
-      <c r="E6" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="F6" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="G6" s="9" t="n">
-        <v>0</v>
-      </c>
+      <c r="E6" s="3"/>
+      <c r="F6" s="36" t="n">
+        <f aca="false">11/6</f>
+        <v>1.83333333333333</v>
+      </c>
+      <c r="G6" s="3"/>
       <c r="H6" s="3"/>
       <c r="I6" s="3"/>
       <c r="J6" s="3"/>
       <c r="K6" s="3"/>
-      <c r="M6" s="7" t="n">
-        <v>0</v>
+      <c r="L6" s="3"/>
+      <c r="M6" s="3" t="n">
+        <v>-3</v>
       </c>
       <c r="N6" s="3"/>
       <c r="O6" s="3"/>
@@ -30428,14 +30416,20 @@
       <c r="Q6" s="3"/>
       <c r="R6" s="3"/>
       <c r="S6" s="3"/>
-      <c r="T6" s="3"/>
+      <c r="T6" s="3" t="n">
+        <f aca="false">3/2</f>
+        <v>1.5</v>
+      </c>
       <c r="U6" s="3"/>
       <c r="V6" s="3"/>
       <c r="W6" s="3"/>
       <c r="X6" s="3"/>
       <c r="Y6" s="3"/>
       <c r="Z6" s="3"/>
-      <c r="AA6" s="3"/>
+      <c r="AA6" s="3" t="n">
+        <f aca="false">-1/3</f>
+        <v>-0.333333333333333</v>
+      </c>
       <c r="AB6" s="3"/>
       <c r="AC6" s="3"/>
       <c r="AD6" s="3"/>
@@ -30499,9 +30493,6 @@
       <c r="CJ6" s="3"/>
       <c r="CK6" s="3"/>
       <c r="CL6" s="3"/>
-      <c r="CN6" s="2" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="4" t="n">
@@ -30511,21 +30502,19 @@
       <c r="C7" s="3"/>
       <c r="D7" s="3"/>
       <c r="E7" s="3"/>
-      <c r="F7" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="G7" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="H7" s="9" t="n">
-        <v>0</v>
-      </c>
+      <c r="F7" s="3"/>
+      <c r="G7" s="36" t="n">
+        <f aca="false">11/6</f>
+        <v>1.83333333333333</v>
+      </c>
+      <c r="H7" s="3"/>
       <c r="I7" s="3"/>
       <c r="J7" s="3"/>
       <c r="K7" s="3"/>
       <c r="L7" s="3"/>
-      <c r="N7" s="7" t="n">
-        <v>0</v>
+      <c r="M7" s="3"/>
+      <c r="N7" s="3" t="n">
+        <v>-3</v>
       </c>
       <c r="O7" s="3"/>
       <c r="P7" s="3"/>
@@ -30533,14 +30522,20 @@
       <c r="R7" s="3"/>
       <c r="S7" s="3"/>
       <c r="T7" s="3"/>
-      <c r="U7" s="3"/>
+      <c r="U7" s="3" t="n">
+        <f aca="false">3/2</f>
+        <v>1.5</v>
+      </c>
       <c r="V7" s="3"/>
       <c r="W7" s="3"/>
       <c r="X7" s="3"/>
       <c r="Y7" s="3"/>
       <c r="Z7" s="3"/>
       <c r="AA7" s="3"/>
-      <c r="AB7" s="3"/>
+      <c r="AB7" s="3" t="n">
+        <f aca="false">-1/3</f>
+        <v>-0.333333333333333</v>
+      </c>
       <c r="AC7" s="3"/>
       <c r="AD7" s="3"/>
       <c r="AE7" s="3"/>
@@ -30603,9 +30598,6 @@
       <c r="CJ7" s="3"/>
       <c r="CK7" s="3"/>
       <c r="CL7" s="3"/>
-      <c r="CN7" s="25" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="4" t="n">
@@ -30616,11 +30608,10 @@
       <c r="D8" s="3"/>
       <c r="E8" s="3"/>
       <c r="F8" s="3"/>
-      <c r="G8" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="H8" s="6" t="n">
-        <v>1</v>
+      <c r="G8" s="3"/>
+      <c r="H8" s="36" t="n">
+        <f aca="false">11/6</f>
+        <v>1.83333333333333</v>
       </c>
       <c r="I8" s="3"/>
       <c r="J8" s="3"/>
@@ -30628,8 +30619,8 @@
       <c r="L8" s="3"/>
       <c r="M8" s="3"/>
       <c r="N8" s="3"/>
-      <c r="O8" s="7" t="n">
-        <v>0</v>
+      <c r="O8" s="3" t="n">
+        <v>-3</v>
       </c>
       <c r="P8" s="3"/>
       <c r="Q8" s="3"/>
@@ -30637,14 +30628,20 @@
       <c r="S8" s="3"/>
       <c r="T8" s="3"/>
       <c r="U8" s="3"/>
-      <c r="V8" s="3"/>
+      <c r="V8" s="3" t="n">
+        <f aca="false">3/2</f>
+        <v>1.5</v>
+      </c>
       <c r="W8" s="3"/>
       <c r="X8" s="3"/>
       <c r="Y8" s="3"/>
       <c r="Z8" s="3"/>
       <c r="AA8" s="3"/>
       <c r="AB8" s="3"/>
-      <c r="AC8" s="3"/>
+      <c r="AC8" s="3" t="n">
+        <f aca="false">-1/3</f>
+        <v>-0.333333333333333</v>
+      </c>
       <c r="AD8" s="3"/>
       <c r="AE8" s="3"/>
       <c r="AF8" s="3"/>
@@ -30706,36 +30703,28 @@
       <c r="CJ8" s="3"/>
       <c r="CK8" s="3"/>
       <c r="CL8" s="3"/>
-      <c r="CN8" s="2" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="4" t="n">
         <v>7</v>
       </c>
-      <c r="B9" s="9" t="n">
-        <v>0</v>
+      <c r="B9" s="31" t="n">
+        <f aca="false">1/2</f>
+        <v>0.5</v>
       </c>
       <c r="C9" s="3"/>
       <c r="D9" s="3"/>
       <c r="E9" s="3"/>
       <c r="F9" s="3"/>
-      <c r="G9" s="3"/>
-      <c r="H9" s="3"/>
-      <c r="I9" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="J9" s="7" t="n">
+      <c r="I9" s="30" t="n">
         <v>0</v>
       </c>
-      <c r="K9" s="3"/>
-      <c r="L9" s="3"/>
       <c r="M9" s="3"/>
       <c r="N9" s="3"/>
       <c r="O9" s="3"/>
-      <c r="P9" s="9" t="n">
-        <v>0</v>
+      <c r="P9" s="28" t="n">
+        <f aca="false">-1/2</f>
+        <v>-0.5</v>
       </c>
       <c r="Q9" s="3"/>
       <c r="R9" s="3"/>
@@ -30811,39 +30800,29 @@
       <c r="CJ9" s="3"/>
       <c r="CK9" s="3"/>
       <c r="CL9" s="3"/>
-      <c r="CN9" s="25" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="4" t="n">
         <v>8</v>
       </c>
       <c r="B10" s="3"/>
-      <c r="C10" s="9" t="n">
-        <v>1</v>
+      <c r="C10" s="31" t="n">
+        <f aca="false">1/2</f>
+        <v>0.5</v>
       </c>
       <c r="D10" s="3"/>
       <c r="E10" s="3"/>
       <c r="F10" s="3"/>
       <c r="G10" s="3"/>
-      <c r="H10" s="3"/>
-      <c r="I10" s="9" t="n">
-        <v>1</v>
-      </c>
-      <c r="J10" s="6" t="n">
-        <v>-4</v>
-      </c>
-      <c r="K10" s="9" t="n">
-        <v>1</v>
-      </c>
-      <c r="L10" s="3"/>
-      <c r="M10" s="3"/>
+      <c r="J10" s="30" t="n">
+        <v>0</v>
+      </c>
       <c r="N10" s="3"/>
       <c r="O10" s="3"/>
       <c r="P10" s="3"/>
-      <c r="Q10" s="9" t="n">
-        <v>1</v>
+      <c r="Q10" s="28" t="n">
+        <f aca="false">-1/2</f>
+        <v>-0.5</v>
       </c>
       <c r="R10" s="3"/>
       <c r="S10" s="3"/>
@@ -30918,9 +30897,6 @@
       <c r="CJ10" s="3"/>
       <c r="CK10" s="3"/>
       <c r="CL10" s="3"/>
-      <c r="CN10" s="2" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="4" t="n">
@@ -30928,30 +30904,23 @@
       </c>
       <c r="B11" s="3"/>
       <c r="C11" s="3"/>
-      <c r="D11" s="9" t="n">
-        <v>1</v>
+      <c r="D11" s="31" t="n">
+        <f aca="false">1/2</f>
+        <v>0.5</v>
       </c>
       <c r="E11" s="3"/>
       <c r="F11" s="3"/>
       <c r="G11" s="3"/>
       <c r="H11" s="3"/>
-      <c r="I11" s="3"/>
-      <c r="J11" s="9" t="n">
-        <v>1</v>
-      </c>
-      <c r="K11" s="6" t="n">
-        <v>-4</v>
-      </c>
-      <c r="L11" s="9" t="n">
-        <v>1</v>
-      </c>
-      <c r="M11" s="3"/>
-      <c r="N11" s="3"/>
+      <c r="K11" s="30" t="n">
+        <v>0</v>
+      </c>
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
-      <c r="R11" s="9" t="n">
-        <v>1</v>
+      <c r="R11" s="28" t="n">
+        <f aca="false">-1/2</f>
+        <v>-0.5</v>
       </c>
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
@@ -31025,9 +30994,6 @@
       <c r="CJ11" s="3"/>
       <c r="CK11" s="3"/>
       <c r="CL11" s="3"/>
-      <c r="CN11" s="25" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="4" t="n">
@@ -31036,30 +31002,23 @@
       <c r="B12" s="3"/>
       <c r="C12" s="3"/>
       <c r="D12" s="3"/>
-      <c r="E12" s="9" t="n">
-        <v>1</v>
+      <c r="E12" s="31" t="n">
+        <f aca="false">1/2</f>
+        <v>0.5</v>
       </c>
       <c r="F12" s="3"/>
       <c r="G12" s="3"/>
       <c r="H12" s="3"/>
       <c r="I12" s="3"/>
-      <c r="J12" s="3"/>
-      <c r="K12" s="9" t="n">
-        <v>1</v>
-      </c>
-      <c r="L12" s="6" t="n">
-        <v>-4</v>
-      </c>
-      <c r="M12" s="9" t="n">
-        <v>1</v>
-      </c>
-      <c r="N12" s="3"/>
-      <c r="O12" s="3"/>
+      <c r="L12" s="30" t="n">
+        <v>0</v>
+      </c>
       <c r="P12" s="3"/>
       <c r="Q12" s="3"/>
       <c r="R12" s="3"/>
-      <c r="S12" s="9" t="n">
-        <v>1</v>
+      <c r="S12" s="28" t="n">
+        <f aca="false">-1/2</f>
+        <v>-0.5</v>
       </c>
       <c r="T12" s="3"/>
       <c r="U12" s="3"/>
@@ -31132,9 +31091,6 @@
       <c r="CJ12" s="3"/>
       <c r="CK12" s="3"/>
       <c r="CL12" s="3"/>
-      <c r="CN12" s="2" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="4" t="n">
@@ -31144,30 +31100,23 @@
       <c r="C13" s="3"/>
       <c r="D13" s="3"/>
       <c r="E13" s="3"/>
-      <c r="F13" s="9" t="n">
-        <v>1</v>
+      <c r="F13" s="31" t="n">
+        <f aca="false">1/2</f>
+        <v>0.5</v>
       </c>
       <c r="G13" s="3"/>
       <c r="H13" s="3"/>
       <c r="I13" s="3"/>
       <c r="J13" s="3"/>
-      <c r="K13" s="3"/>
-      <c r="L13" s="9" t="n">
-        <v>1</v>
-      </c>
-      <c r="M13" s="6" t="n">
-        <v>-4</v>
-      </c>
-      <c r="N13" s="9" t="n">
-        <v>1</v>
-      </c>
-      <c r="O13" s="3"/>
-      <c r="P13" s="3"/>
+      <c r="M13" s="30" t="n">
+        <v>0</v>
+      </c>
       <c r="Q13" s="3"/>
       <c r="R13" s="3"/>
       <c r="S13" s="3"/>
-      <c r="T13" s="9" t="n">
-        <v>1</v>
+      <c r="T13" s="28" t="n">
+        <f aca="false">-1/2</f>
+        <v>-0.5</v>
       </c>
       <c r="U13" s="3"/>
       <c r="V13" s="3"/>
@@ -31239,9 +31188,6 @@
       <c r="CJ13" s="3"/>
       <c r="CK13" s="3"/>
       <c r="CL13" s="3"/>
-      <c r="CN13" s="25" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="4" t="n">
@@ -31252,30 +31198,23 @@
       <c r="D14" s="3"/>
       <c r="E14" s="3"/>
       <c r="F14" s="3"/>
-      <c r="G14" s="9" t="n">
-        <v>1</v>
+      <c r="G14" s="31" t="n">
+        <f aca="false">1/2</f>
+        <v>0.5</v>
       </c>
       <c r="H14" s="3"/>
       <c r="I14" s="3"/>
       <c r="J14" s="3"/>
       <c r="K14" s="3"/>
-      <c r="L14" s="3"/>
-      <c r="M14" s="9" t="n">
-        <v>1</v>
-      </c>
-      <c r="N14" s="6" t="n">
-        <v>-4</v>
-      </c>
-      <c r="O14" s="9" t="n">
-        <v>1</v>
-      </c>
-      <c r="P14" s="3"/>
-      <c r="Q14" s="3"/>
+      <c r="N14" s="30" t="n">
+        <v>0</v>
+      </c>
       <c r="R14" s="3"/>
       <c r="S14" s="3"/>
       <c r="T14" s="3"/>
-      <c r="U14" s="9" t="n">
-        <v>1</v>
+      <c r="U14" s="28" t="n">
+        <f aca="false">-1/2</f>
+        <v>-0.5</v>
       </c>
       <c r="V14" s="3"/>
       <c r="W14" s="3"/>
@@ -31346,9 +31285,6 @@
       <c r="CJ14" s="3"/>
       <c r="CK14" s="3"/>
       <c r="CL14" s="3"/>
-      <c r="CN14" s="2" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="4" t="n">
@@ -31360,28 +31296,23 @@
       <c r="E15" s="3"/>
       <c r="F15" s="3"/>
       <c r="G15" s="3"/>
-      <c r="H15" s="9" t="n">
-        <v>1</v>
+      <c r="H15" s="31" t="n">
+        <f aca="false">1/2</f>
+        <v>0.5</v>
       </c>
       <c r="I15" s="3"/>
       <c r="J15" s="3"/>
       <c r="K15" s="3"/>
       <c r="L15" s="3"/>
-      <c r="M15" s="3"/>
-      <c r="N15" s="7" t="n">
-        <v>2</v>
-      </c>
-      <c r="O15" s="6" t="n">
-        <v>-4</v>
-      </c>
-      <c r="P15" s="3"/>
-      <c r="Q15" s="3"/>
-      <c r="R15" s="3"/>
+      <c r="O15" s="30" t="n">
+        <v>0</v>
+      </c>
       <c r="S15" s="3"/>
       <c r="T15" s="3"/>
       <c r="U15" s="3"/>
-      <c r="V15" s="9" t="n">
-        <v>1</v>
+      <c r="V15" s="28" t="n">
+        <f aca="false">-1/2</f>
+        <v>-0.5</v>
       </c>
       <c r="W15" s="3"/>
       <c r="X15" s="3"/>
@@ -31451,52 +31382,48 @@
       <c r="CJ15" s="3"/>
       <c r="CK15" s="3"/>
       <c r="CL15" s="3"/>
-      <c r="CN15" s="25" t="n">
-        <v>0</v>
-      </c>
-      <c r="CP15" s="6"/>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="4" t="n">
         <v>14</v>
       </c>
-      <c r="B16" s="3"/>
+      <c r="B16" s="35" t="n">
+        <f aca="false">-1/12</f>
+        <v>-0.0833333333333333</v>
+      </c>
       <c r="C16" s="3"/>
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
       <c r="G16" s="3"/>
-      <c r="H16" s="3"/>
-      <c r="I16" s="9" t="n">
-        <v>0</v>
+      <c r="I16" s="34" t="n">
+        <f aca="false">2/3</f>
+        <v>0.666666666666667</v>
       </c>
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
-      <c r="N16" s="3"/>
-      <c r="O16" s="3"/>
-      <c r="P16" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q16" s="7" t="n">
+      <c r="P16" s="30" t="n">
         <v>0</v>
       </c>
-      <c r="R16" s="3"/>
       <c r="S16" s="3"/>
       <c r="T16" s="3"/>
       <c r="U16" s="3"/>
       <c r="V16" s="3"/>
-      <c r="W16" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="X16" s="3"/>
+      <c r="W16" s="33" t="n">
+        <f aca="false">-2/3</f>
+        <v>-0.666666666666667</v>
+      </c>
       <c r="Y16" s="3"/>
       <c r="Z16" s="3"/>
       <c r="AA16" s="3"/>
       <c r="AB16" s="3"/>
       <c r="AC16" s="3"/>
-      <c r="AD16" s="3"/>
+      <c r="AD16" s="32" t="n">
+        <f aca="false">1/12</f>
+        <v>0.0833333333333333</v>
+      </c>
       <c r="AE16" s="3"/>
       <c r="AF16" s="3"/>
       <c r="AG16" s="3"/>
@@ -31557,54 +31484,49 @@
       <c r="CJ16" s="3"/>
       <c r="CK16" s="3"/>
       <c r="CL16" s="3"/>
-      <c r="CN16" s="2" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="4" t="n">
         <v>15</v>
       </c>
       <c r="B17" s="3"/>
-      <c r="C17" s="3"/>
+      <c r="C17" s="35" t="n">
+        <f aca="false">-1/12</f>
+        <v>-0.0833333333333333</v>
+      </c>
       <c r="D17" s="3"/>
       <c r="E17" s="3"/>
       <c r="F17" s="3"/>
       <c r="G17" s="3"/>
       <c r="H17" s="3"/>
-      <c r="I17" s="3"/>
-      <c r="J17" s="9" t="n">
-        <v>1</v>
+      <c r="J17" s="34" t="n">
+        <f aca="false">2/3</f>
+        <v>0.666666666666667</v>
       </c>
       <c r="K17" s="3"/>
       <c r="L17" s="3"/>
       <c r="M17" s="3"/>
       <c r="N17" s="3"/>
-      <c r="O17" s="3"/>
-      <c r="P17" s="9" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q17" s="6" t="n">
-        <v>-4</v>
-      </c>
-      <c r="R17" s="9" t="n">
-        <v>1</v>
-      </c>
-      <c r="S17" s="3"/>
+      <c r="Q17" s="30" t="n">
+        <v>0</v>
+      </c>
       <c r="T17" s="3"/>
       <c r="U17" s="3"/>
       <c r="V17" s="3"/>
       <c r="W17" s="3"/>
-      <c r="X17" s="9" t="n">
-        <v>1</v>
-      </c>
-      <c r="Y17" s="3"/>
+      <c r="X17" s="33" t="n">
+        <f aca="false">-2/3</f>
+        <v>-0.666666666666667</v>
+      </c>
       <c r="Z17" s="3"/>
       <c r="AA17" s="3"/>
       <c r="AB17" s="3"/>
       <c r="AC17" s="3"/>
       <c r="AD17" s="3"/>
-      <c r="AE17" s="3"/>
+      <c r="AE17" s="32" t="n">
+        <f aca="false">1/12</f>
+        <v>0.0833333333333333</v>
+      </c>
       <c r="AF17" s="3"/>
       <c r="AG17" s="3"/>
       <c r="AH17" s="3"/>
@@ -31664,9 +31586,6 @@
       <c r="CJ17" s="3"/>
       <c r="CK17" s="3"/>
       <c r="CL17" s="3"/>
-      <c r="CN17" s="25" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="4" t="n">
@@ -31674,45 +31593,43 @@
       </c>
       <c r="B18" s="3"/>
       <c r="C18" s="3"/>
-      <c r="D18" s="3"/>
+      <c r="D18" s="35" t="n">
+        <f aca="false">-1/12</f>
+        <v>-0.0833333333333333</v>
+      </c>
       <c r="E18" s="3"/>
       <c r="F18" s="3"/>
       <c r="G18" s="3"/>
       <c r="H18" s="3"/>
       <c r="I18" s="3"/>
-      <c r="J18" s="3"/>
-      <c r="K18" s="9" t="n">
-        <v>1</v>
+      <c r="K18" s="34" t="n">
+        <f aca="false">2/3</f>
+        <v>0.666666666666667</v>
       </c>
       <c r="L18" s="3"/>
       <c r="M18" s="3"/>
       <c r="N18" s="3"/>
       <c r="O18" s="3"/>
-      <c r="P18" s="3"/>
-      <c r="Q18" s="9" t="n">
-        <v>1</v>
-      </c>
-      <c r="R18" s="6" t="n">
-        <v>-4</v>
-      </c>
-      <c r="S18" s="9" t="n">
-        <v>1</v>
-      </c>
-      <c r="T18" s="3"/>
+      <c r="R18" s="30" t="n">
+        <v>0</v>
+      </c>
       <c r="U18" s="3"/>
       <c r="V18" s="3"/>
       <c r="W18" s="3"/>
       <c r="X18" s="3"/>
-      <c r="Y18" s="9" t="n">
-        <v>1</v>
-      </c>
-      <c r="Z18" s="3"/>
+      <c r="Y18" s="33" t="n">
+        <f aca="false">-2/3</f>
+        <v>-0.666666666666667</v>
+      </c>
       <c r="AA18" s="3"/>
       <c r="AB18" s="3"/>
       <c r="AC18" s="3"/>
       <c r="AD18" s="3"/>
       <c r="AE18" s="3"/>
-      <c r="AF18" s="3"/>
+      <c r="AF18" s="32" t="n">
+        <f aca="false">1/12</f>
+        <v>0.0833333333333333</v>
+      </c>
       <c r="AG18" s="3"/>
       <c r="AH18" s="3"/>
       <c r="AI18" s="3"/>
@@ -31771,9 +31688,6 @@
       <c r="CJ18" s="3"/>
       <c r="CK18" s="3"/>
       <c r="CL18" s="3"/>
-      <c r="CN18" s="2" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="4" t="n">
@@ -31782,45 +31696,43 @@
       <c r="B19" s="3"/>
       <c r="C19" s="3"/>
       <c r="D19" s="3"/>
-      <c r="E19" s="3"/>
+      <c r="E19" s="35" t="n">
+        <f aca="false">-1/12</f>
+        <v>-0.0833333333333333</v>
+      </c>
       <c r="F19" s="3"/>
       <c r="G19" s="3"/>
       <c r="H19" s="3"/>
       <c r="I19" s="3"/>
       <c r="J19" s="3"/>
-      <c r="K19" s="3"/>
-      <c r="L19" s="9" t="n">
-        <v>1</v>
+      <c r="L19" s="34" t="n">
+        <f aca="false">2/3</f>
+        <v>0.666666666666667</v>
       </c>
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
-      <c r="Q19" s="3"/>
-      <c r="R19" s="9" t="n">
-        <v>1</v>
-      </c>
-      <c r="S19" s="6" t="n">
-        <v>-4</v>
-      </c>
-      <c r="T19" s="9" t="n">
-        <v>1</v>
-      </c>
-      <c r="U19" s="3"/>
+      <c r="S19" s="30" t="n">
+        <v>0</v>
+      </c>
       <c r="V19" s="3"/>
       <c r="W19" s="3"/>
       <c r="X19" s="3"/>
       <c r="Y19" s="3"/>
-      <c r="Z19" s="9" t="n">
-        <v>1</v>
-      </c>
-      <c r="AA19" s="3"/>
+      <c r="Z19" s="33" t="n">
+        <f aca="false">-2/3</f>
+        <v>-0.666666666666667</v>
+      </c>
       <c r="AB19" s="3"/>
       <c r="AC19" s="3"/>
       <c r="AD19" s="3"/>
       <c r="AE19" s="3"/>
       <c r="AF19" s="3"/>
-      <c r="AG19" s="3"/>
+      <c r="AG19" s="32" t="n">
+        <f aca="false">1/12</f>
+        <v>0.0833333333333333</v>
+      </c>
       <c r="AH19" s="3"/>
       <c r="AI19" s="3"/>
       <c r="AJ19" s="3"/>
@@ -31878,9 +31790,6 @@
       <c r="CJ19" s="3"/>
       <c r="CK19" s="3"/>
       <c r="CL19" s="3"/>
-      <c r="CN19" s="25" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="4" t="n">
@@ -31890,45 +31799,43 @@
       <c r="C20" s="3"/>
       <c r="D20" s="3"/>
       <c r="E20" s="3"/>
-      <c r="F20" s="3"/>
+      <c r="F20" s="35" t="n">
+        <f aca="false">-1/12</f>
+        <v>-0.0833333333333333</v>
+      </c>
       <c r="G20" s="3"/>
       <c r="H20" s="3"/>
       <c r="I20" s="3"/>
       <c r="J20" s="3"/>
       <c r="K20" s="3"/>
-      <c r="L20" s="3"/>
-      <c r="M20" s="9" t="n">
-        <v>1</v>
+      <c r="M20" s="34" t="n">
+        <f aca="false">2/3</f>
+        <v>0.666666666666667</v>
       </c>
       <c r="N20" s="3"/>
       <c r="O20" s="3"/>
       <c r="P20" s="3"/>
       <c r="Q20" s="3"/>
-      <c r="R20" s="3"/>
-      <c r="S20" s="9" t="n">
-        <v>1</v>
-      </c>
-      <c r="T20" s="6" t="n">
-        <v>-4</v>
-      </c>
-      <c r="U20" s="9" t="n">
-        <v>1</v>
-      </c>
-      <c r="V20" s="3"/>
+      <c r="T20" s="30" t="n">
+        <v>0</v>
+      </c>
       <c r="W20" s="3"/>
       <c r="X20" s="3"/>
       <c r="Y20" s="3"/>
       <c r="Z20" s="3"/>
-      <c r="AA20" s="9" t="n">
-        <v>1</v>
-      </c>
-      <c r="AB20" s="3"/>
+      <c r="AA20" s="33" t="n">
+        <f aca="false">-2/3</f>
+        <v>-0.666666666666667</v>
+      </c>
       <c r="AC20" s="3"/>
       <c r="AD20" s="3"/>
       <c r="AE20" s="3"/>
       <c r="AF20" s="3"/>
       <c r="AG20" s="3"/>
-      <c r="AH20" s="3"/>
+      <c r="AH20" s="32" t="n">
+        <f aca="false">1/12</f>
+        <v>0.0833333333333333</v>
+      </c>
       <c r="AI20" s="3"/>
       <c r="AJ20" s="3"/>
       <c r="AK20" s="3"/>
@@ -31985,9 +31892,6 @@
       <c r="CJ20" s="3"/>
       <c r="CK20" s="3"/>
       <c r="CL20" s="3"/>
-      <c r="CN20" s="2" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="4" t="n">
@@ -31998,45 +31902,43 @@
       <c r="D21" s="3"/>
       <c r="E21" s="3"/>
       <c r="F21" s="3"/>
-      <c r="G21" s="3"/>
+      <c r="G21" s="35" t="n">
+        <f aca="false">-1/12</f>
+        <v>-0.0833333333333333</v>
+      </c>
       <c r="H21" s="3"/>
       <c r="I21" s="3"/>
       <c r="J21" s="3"/>
       <c r="K21" s="3"/>
       <c r="L21" s="3"/>
-      <c r="M21" s="3"/>
-      <c r="N21" s="9" t="n">
-        <v>1</v>
+      <c r="N21" s="34" t="n">
+        <f aca="false">2/3</f>
+        <v>0.666666666666667</v>
       </c>
       <c r="O21" s="3"/>
       <c r="P21" s="3"/>
       <c r="Q21" s="3"/>
       <c r="R21" s="3"/>
-      <c r="S21" s="3"/>
-      <c r="T21" s="9" t="n">
-        <v>1</v>
-      </c>
-      <c r="U21" s="6" t="n">
-        <v>-4</v>
-      </c>
-      <c r="V21" s="9" t="n">
-        <v>1</v>
-      </c>
-      <c r="W21" s="3"/>
+      <c r="U21" s="30" t="n">
+        <v>0</v>
+      </c>
       <c r="X21" s="3"/>
       <c r="Y21" s="3"/>
       <c r="Z21" s="3"/>
       <c r="AA21" s="3"/>
-      <c r="AB21" s="9" t="n">
-        <v>1</v>
-      </c>
-      <c r="AC21" s="3"/>
+      <c r="AB21" s="33" t="n">
+        <f aca="false">-2/3</f>
+        <v>-0.666666666666667</v>
+      </c>
       <c r="AD21" s="3"/>
       <c r="AE21" s="3"/>
       <c r="AF21" s="3"/>
       <c r="AG21" s="3"/>
       <c r="AH21" s="3"/>
-      <c r="AI21" s="3"/>
+      <c r="AI21" s="32" t="n">
+        <f aca="false">1/12</f>
+        <v>0.0833333333333333</v>
+      </c>
       <c r="AJ21" s="3"/>
       <c r="AK21" s="3"/>
       <c r="AL21" s="3"/>
@@ -32092,9 +31994,6 @@
       <c r="CJ21" s="3"/>
       <c r="CK21" s="3"/>
       <c r="CL21" s="3"/>
-      <c r="CN21" s="25" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="4" t="n">
@@ -32106,43 +32005,43 @@
       <c r="E22" s="3"/>
       <c r="F22" s="3"/>
       <c r="G22" s="3"/>
-      <c r="H22" s="3"/>
+      <c r="H22" s="35" t="n">
+        <f aca="false">-1/12</f>
+        <v>-0.0833333333333333</v>
+      </c>
       <c r="I22" s="3"/>
       <c r="J22" s="3"/>
       <c r="K22" s="3"/>
       <c r="L22" s="3"/>
       <c r="M22" s="3"/>
-      <c r="N22" s="3"/>
-      <c r="O22" s="9" t="n">
-        <v>1</v>
+      <c r="O22" s="34" t="n">
+        <f aca="false">2/3</f>
+        <v>0.666666666666667</v>
       </c>
       <c r="P22" s="3"/>
       <c r="Q22" s="3"/>
       <c r="R22" s="3"/>
       <c r="S22" s="3"/>
-      <c r="T22" s="3"/>
-      <c r="U22" s="7" t="n">
-        <v>2</v>
-      </c>
-      <c r="V22" s="6" t="n">
-        <v>-4</v>
-      </c>
-      <c r="W22" s="3"/>
-      <c r="X22" s="3"/>
+      <c r="V22" s="30" t="n">
+        <v>0</v>
+      </c>
       <c r="Y22" s="3"/>
       <c r="Z22" s="3"/>
       <c r="AA22" s="3"/>
       <c r="AB22" s="3"/>
-      <c r="AC22" s="9" t="n">
-        <v>1</v>
-      </c>
-      <c r="AD22" s="3"/>
+      <c r="AC22" s="33" t="n">
+        <f aca="false">-2/3</f>
+        <v>-0.666666666666667</v>
+      </c>
       <c r="AE22" s="3"/>
       <c r="AF22" s="3"/>
       <c r="AG22" s="3"/>
       <c r="AH22" s="3"/>
       <c r="AI22" s="3"/>
-      <c r="AJ22" s="3"/>
+      <c r="AJ22" s="32" t="n">
+        <f aca="false">1/12</f>
+        <v>0.0833333333333333</v>
+      </c>
       <c r="AK22" s="3"/>
       <c r="AL22" s="3"/>
       <c r="AM22" s="3"/>
@@ -32197,9 +32096,6 @@
       <c r="CJ22" s="3"/>
       <c r="CK22" s="3"/>
       <c r="CL22" s="3"/>
-      <c r="CN22" s="2" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="4" t="n">
@@ -32212,43 +32108,43 @@
       <c r="F23" s="3"/>
       <c r="G23" s="3"/>
       <c r="H23" s="3"/>
-      <c r="I23" s="3"/>
+      <c r="I23" s="35" t="n">
+        <f aca="false">-1/12</f>
+        <v>-0.0833333333333333</v>
+      </c>
       <c r="J23" s="3"/>
       <c r="K23" s="3"/>
       <c r="L23" s="3"/>
       <c r="M23" s="3"/>
       <c r="N23" s="3"/>
-      <c r="O23" s="3"/>
-      <c r="P23" s="9" t="n">
-        <v>0</v>
+      <c r="P23" s="34" t="n">
+        <f aca="false">2/3</f>
+        <v>0.666666666666667</v>
       </c>
       <c r="Q23" s="3"/>
       <c r="R23" s="3"/>
       <c r="S23" s="3"/>
       <c r="T23" s="3"/>
-      <c r="U23" s="3"/>
-      <c r="V23" s="3"/>
-      <c r="W23" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="X23" s="7" t="n">
+      <c r="W23" s="30" t="n">
         <v>0</v>
       </c>
-      <c r="Y23" s="3"/>
       <c r="Z23" s="3"/>
       <c r="AA23" s="3"/>
       <c r="AB23" s="3"/>
       <c r="AC23" s="3"/>
-      <c r="AD23" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE23" s="3"/>
+      <c r="AD23" s="33" t="n">
+        <f aca="false">-2/3</f>
+        <v>-0.666666666666667</v>
+      </c>
       <c r="AF23" s="3"/>
       <c r="AG23" s="3"/>
       <c r="AH23" s="3"/>
       <c r="AI23" s="3"/>
       <c r="AJ23" s="3"/>
-      <c r="AK23" s="3"/>
+      <c r="AK23" s="32" t="n">
+        <f aca="false">1/12</f>
+        <v>0.0833333333333333</v>
+      </c>
       <c r="AL23" s="3"/>
       <c r="AM23" s="3"/>
       <c r="AN23" s="3"/>
@@ -32302,9 +32198,6 @@
       <c r="CJ23" s="3"/>
       <c r="CK23" s="3"/>
       <c r="CL23" s="3"/>
-      <c r="CN23" s="25" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="4" t="n">
@@ -32318,45 +32211,43 @@
       <c r="G24" s="3"/>
       <c r="H24" s="3"/>
       <c r="I24" s="3"/>
-      <c r="J24" s="3"/>
+      <c r="J24" s="35" t="n">
+        <f aca="false">-1/12</f>
+        <v>-0.0833333333333333</v>
+      </c>
       <c r="K24" s="3"/>
       <c r="L24" s="3"/>
       <c r="M24" s="3"/>
       <c r="N24" s="3"/>
       <c r="O24" s="3"/>
-      <c r="P24" s="3"/>
-      <c r="Q24" s="9" t="n">
-        <v>1</v>
+      <c r="Q24" s="34" t="n">
+        <f aca="false">2/3</f>
+        <v>0.666666666666667</v>
       </c>
       <c r="R24" s="3"/>
       <c r="S24" s="3"/>
       <c r="T24" s="3"/>
       <c r="U24" s="3"/>
-      <c r="V24" s="3"/>
-      <c r="W24" s="9" t="n">
-        <v>1</v>
-      </c>
-      <c r="X24" s="6" t="n">
-        <v>-4</v>
-      </c>
-      <c r="Y24" s="9" t="n">
-        <v>1</v>
-      </c>
-      <c r="Z24" s="3"/>
+      <c r="X24" s="30" t="n">
+        <v>0</v>
+      </c>
       <c r="AA24" s="3"/>
       <c r="AB24" s="3"/>
       <c r="AC24" s="3"/>
       <c r="AD24" s="3"/>
-      <c r="AE24" s="9" t="n">
-        <v>1</v>
-      </c>
-      <c r="AF24" s="3"/>
+      <c r="AE24" s="33" t="n">
+        <f aca="false">-2/3</f>
+        <v>-0.666666666666667</v>
+      </c>
       <c r="AG24" s="3"/>
       <c r="AH24" s="3"/>
       <c r="AI24" s="3"/>
       <c r="AJ24" s="3"/>
       <c r="AK24" s="3"/>
-      <c r="AL24" s="3"/>
+      <c r="AL24" s="32" t="n">
+        <f aca="false">1/12</f>
+        <v>0.0833333333333333</v>
+      </c>
       <c r="AM24" s="3"/>
       <c r="AN24" s="3"/>
       <c r="AO24" s="3"/>
@@ -32409,9 +32300,6 @@
       <c r="CJ24" s="3"/>
       <c r="CK24" s="3"/>
       <c r="CL24" s="3"/>
-      <c r="CN24" s="2" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="4" t="n">
@@ -32426,45 +32314,43 @@
       <c r="H25" s="3"/>
       <c r="I25" s="3"/>
       <c r="J25" s="3"/>
-      <c r="K25" s="3"/>
+      <c r="K25" s="35" t="n">
+        <f aca="false">-1/12</f>
+        <v>-0.0833333333333333</v>
+      </c>
       <c r="L25" s="3"/>
       <c r="M25" s="3"/>
       <c r="N25" s="3"/>
       <c r="O25" s="3"/>
       <c r="P25" s="3"/>
-      <c r="Q25" s="3"/>
-      <c r="R25" s="9" t="n">
-        <v>1</v>
+      <c r="R25" s="34" t="n">
+        <f aca="false">2/3</f>
+        <v>0.666666666666667</v>
       </c>
       <c r="S25" s="3"/>
       <c r="T25" s="3"/>
       <c r="U25" s="3"/>
       <c r="V25" s="3"/>
-      <c r="W25" s="3"/>
-      <c r="X25" s="9" t="n">
-        <v>1</v>
-      </c>
-      <c r="Y25" s="6" t="n">
-        <v>-4</v>
-      </c>
-      <c r="Z25" s="9" t="n">
-        <v>1</v>
-      </c>
-      <c r="AA25" s="3"/>
+      <c r="Y25" s="30" t="n">
+        <v>0</v>
+      </c>
       <c r="AB25" s="3"/>
       <c r="AC25" s="3"/>
       <c r="AD25" s="3"/>
       <c r="AE25" s="3"/>
-      <c r="AF25" s="9" t="n">
-        <v>1</v>
-      </c>
-      <c r="AG25" s="3"/>
+      <c r="AF25" s="33" t="n">
+        <f aca="false">-2/3</f>
+        <v>-0.666666666666667</v>
+      </c>
       <c r="AH25" s="3"/>
       <c r="AI25" s="3"/>
       <c r="AJ25" s="3"/>
       <c r="AK25" s="3"/>
       <c r="AL25" s="3"/>
-      <c r="AM25" s="3"/>
+      <c r="AM25" s="32" t="n">
+        <f aca="false">1/12</f>
+        <v>0.0833333333333333</v>
+      </c>
       <c r="AN25" s="3"/>
       <c r="AO25" s="3"/>
       <c r="AP25" s="3"/>
@@ -32516,9 +32402,6 @@
       <c r="CJ25" s="3"/>
       <c r="CK25" s="3"/>
       <c r="CL25" s="3"/>
-      <c r="CN25" s="25" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="4" t="n">
@@ -32534,45 +32417,43 @@
       <c r="I26" s="3"/>
       <c r="J26" s="3"/>
       <c r="K26" s="3"/>
-      <c r="L26" s="3"/>
+      <c r="L26" s="35" t="n">
+        <f aca="false">-1/12</f>
+        <v>-0.0833333333333333</v>
+      </c>
       <c r="M26" s="3"/>
       <c r="N26" s="3"/>
       <c r="O26" s="3"/>
       <c r="P26" s="3"/>
       <c r="Q26" s="3"/>
-      <c r="R26" s="3"/>
-      <c r="S26" s="9" t="n">
-        <v>1</v>
+      <c r="S26" s="34" t="n">
+        <f aca="false">2/3</f>
+        <v>0.666666666666667</v>
       </c>
       <c r="T26" s="3"/>
       <c r="U26" s="3"/>
       <c r="V26" s="3"/>
       <c r="W26" s="3"/>
-      <c r="X26" s="3"/>
-      <c r="Y26" s="9" t="n">
-        <v>1</v>
-      </c>
-      <c r="Z26" s="6" t="n">
-        <v>-4</v>
-      </c>
-      <c r="AA26" s="9" t="n">
-        <v>1</v>
-      </c>
-      <c r="AB26" s="3"/>
+      <c r="Z26" s="30" t="n">
+        <v>0</v>
+      </c>
       <c r="AC26" s="3"/>
       <c r="AD26" s="3"/>
       <c r="AE26" s="3"/>
       <c r="AF26" s="3"/>
-      <c r="AG26" s="9" t="n">
-        <v>1</v>
-      </c>
-      <c r="AH26" s="3"/>
+      <c r="AG26" s="33" t="n">
+        <f aca="false">-2/3</f>
+        <v>-0.666666666666667</v>
+      </c>
       <c r="AI26" s="3"/>
       <c r="AJ26" s="3"/>
       <c r="AK26" s="3"/>
       <c r="AL26" s="3"/>
       <c r="AM26" s="3"/>
-      <c r="AN26" s="3"/>
+      <c r="AN26" s="32" t="n">
+        <f aca="false">1/12</f>
+        <v>0.0833333333333333</v>
+      </c>
       <c r="AO26" s="3"/>
       <c r="AP26" s="3"/>
       <c r="AQ26" s="3"/>
@@ -32623,9 +32504,6 @@
       <c r="CJ26" s="3"/>
       <c r="CK26" s="3"/>
       <c r="CL26" s="3"/>
-      <c r="CN26" s="2" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="4" t="n">
@@ -32642,45 +32520,43 @@
       <c r="J27" s="3"/>
       <c r="K27" s="3"/>
       <c r="L27" s="3"/>
-      <c r="M27" s="3"/>
+      <c r="M27" s="35" t="n">
+        <f aca="false">-1/12</f>
+        <v>-0.0833333333333333</v>
+      </c>
       <c r="N27" s="3"/>
       <c r="O27" s="3"/>
       <c r="P27" s="3"/>
       <c r="Q27" s="3"/>
       <c r="R27" s="3"/>
-      <c r="S27" s="3"/>
-      <c r="T27" s="9" t="n">
-        <v>1</v>
+      <c r="T27" s="34" t="n">
+        <f aca="false">2/3</f>
+        <v>0.666666666666667</v>
       </c>
       <c r="U27" s="3"/>
       <c r="V27" s="3"/>
       <c r="W27" s="3"/>
       <c r="X27" s="3"/>
-      <c r="Y27" s="3"/>
-      <c r="Z27" s="9" t="n">
-        <v>1</v>
-      </c>
-      <c r="AA27" s="6" t="n">
-        <v>-4</v>
-      </c>
-      <c r="AB27" s="9" t="n">
-        <v>1</v>
-      </c>
-      <c r="AC27" s="3"/>
+      <c r="AA27" s="30" t="n">
+        <v>0</v>
+      </c>
       <c r="AD27" s="3"/>
       <c r="AE27" s="3"/>
       <c r="AF27" s="3"/>
       <c r="AG27" s="3"/>
-      <c r="AH27" s="9" t="n">
-        <v>1</v>
-      </c>
-      <c r="AI27" s="3"/>
+      <c r="AH27" s="33" t="n">
+        <f aca="false">-2/3</f>
+        <v>-0.666666666666667</v>
+      </c>
       <c r="AJ27" s="3"/>
       <c r="AK27" s="3"/>
       <c r="AL27" s="3"/>
       <c r="AM27" s="3"/>
       <c r="AN27" s="3"/>
-      <c r="AO27" s="3"/>
+      <c r="AO27" s="32" t="n">
+        <f aca="false">1/12</f>
+        <v>0.0833333333333333</v>
+      </c>
       <c r="AP27" s="3"/>
       <c r="AQ27" s="3"/>
       <c r="AR27" s="3"/>
@@ -32730,9 +32606,6 @@
       <c r="CJ27" s="3"/>
       <c r="CK27" s="3"/>
       <c r="CL27" s="3"/>
-      <c r="CN27" s="25" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="4" t="n">
@@ -32750,45 +32623,43 @@
       <c r="K28" s="3"/>
       <c r="L28" s="3"/>
       <c r="M28" s="3"/>
-      <c r="N28" s="3"/>
+      <c r="N28" s="35" t="n">
+        <f aca="false">-1/12</f>
+        <v>-0.0833333333333333</v>
+      </c>
       <c r="O28" s="3"/>
       <c r="P28" s="3"/>
       <c r="Q28" s="3"/>
       <c r="R28" s="3"/>
       <c r="S28" s="3"/>
-      <c r="T28" s="3"/>
-      <c r="U28" s="9" t="n">
-        <v>1</v>
+      <c r="U28" s="34" t="n">
+        <f aca="false">2/3</f>
+        <v>0.666666666666667</v>
       </c>
       <c r="V28" s="3"/>
       <c r="W28" s="3"/>
       <c r="X28" s="3"/>
       <c r="Y28" s="3"/>
-      <c r="Z28" s="3"/>
-      <c r="AA28" s="9" t="n">
-        <v>1</v>
-      </c>
-      <c r="AB28" s="6" t="n">
-        <v>-4</v>
-      </c>
-      <c r="AC28" s="9" t="n">
-        <v>1</v>
-      </c>
-      <c r="AD28" s="3"/>
+      <c r="AB28" s="30" t="n">
+        <v>0</v>
+      </c>
       <c r="AE28" s="3"/>
       <c r="AF28" s="3"/>
       <c r="AG28" s="3"/>
       <c r="AH28" s="3"/>
-      <c r="AI28" s="9" t="n">
-        <v>1</v>
-      </c>
-      <c r="AJ28" s="3"/>
+      <c r="AI28" s="33" t="n">
+        <f aca="false">-2/3</f>
+        <v>-0.666666666666667</v>
+      </c>
       <c r="AK28" s="3"/>
       <c r="AL28" s="3"/>
       <c r="AM28" s="3"/>
       <c r="AN28" s="3"/>
       <c r="AO28" s="3"/>
-      <c r="AP28" s="3"/>
+      <c r="AP28" s="32" t="n">
+        <f aca="false">1/12</f>
+        <v>0.0833333333333333</v>
+      </c>
       <c r="AQ28" s="3"/>
       <c r="AR28" s="3"/>
       <c r="AS28" s="3"/>
@@ -32837,9 +32708,6 @@
       <c r="CJ28" s="3"/>
       <c r="CK28" s="3"/>
       <c r="CL28" s="3"/>
-      <c r="CN28" s="2" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="4" t="n">
@@ -32858,43 +32726,43 @@
       <c r="L29" s="3"/>
       <c r="M29" s="3"/>
       <c r="N29" s="3"/>
-      <c r="O29" s="3"/>
+      <c r="O29" s="35" t="n">
+        <f aca="false">-1/12</f>
+        <v>-0.0833333333333333</v>
+      </c>
       <c r="P29" s="3"/>
       <c r="Q29" s="3"/>
       <c r="R29" s="3"/>
       <c r="S29" s="3"/>
       <c r="T29" s="3"/>
-      <c r="U29" s="3"/>
-      <c r="V29" s="9" t="n">
-        <v>1</v>
+      <c r="V29" s="34" t="n">
+        <f aca="false">2/3</f>
+        <v>0.666666666666667</v>
       </c>
       <c r="W29" s="3"/>
       <c r="X29" s="3"/>
       <c r="Y29" s="3"/>
       <c r="Z29" s="3"/>
-      <c r="AA29" s="3"/>
-      <c r="AB29" s="7" t="n">
-        <v>2</v>
-      </c>
-      <c r="AC29" s="6" t="n">
-        <v>-4</v>
-      </c>
-      <c r="AD29" s="3"/>
-      <c r="AE29" s="3"/>
+      <c r="AC29" s="30" t="n">
+        <v>0</v>
+      </c>
       <c r="AF29" s="3"/>
       <c r="AG29" s="3"/>
       <c r="AH29" s="3"/>
       <c r="AI29" s="3"/>
-      <c r="AJ29" s="9" t="n">
-        <v>1</v>
-      </c>
-      <c r="AK29" s="3"/>
+      <c r="AJ29" s="33" t="n">
+        <f aca="false">-2/3</f>
+        <v>-0.666666666666667</v>
+      </c>
       <c r="AL29" s="3"/>
       <c r="AM29" s="3"/>
       <c r="AN29" s="3"/>
       <c r="AO29" s="3"/>
       <c r="AP29" s="3"/>
-      <c r="AQ29" s="3"/>
+      <c r="AQ29" s="32" t="n">
+        <f aca="false">1/12</f>
+        <v>0.0833333333333333</v>
+      </c>
       <c r="AR29" s="3"/>
       <c r="AS29" s="3"/>
       <c r="AT29" s="3"/>
@@ -32942,9 +32810,6 @@
       <c r="CJ29" s="3"/>
       <c r="CK29" s="3"/>
       <c r="CL29" s="3"/>
-      <c r="CN29" s="25" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="4" t="n">
@@ -32964,43 +32829,43 @@
       <c r="M30" s="3"/>
       <c r="N30" s="3"/>
       <c r="O30" s="3"/>
-      <c r="P30" s="3"/>
+      <c r="P30" s="35" t="n">
+        <f aca="false">-1/12</f>
+        <v>-0.0833333333333333</v>
+      </c>
       <c r="Q30" s="3"/>
       <c r="R30" s="3"/>
       <c r="S30" s="3"/>
       <c r="T30" s="3"/>
       <c r="U30" s="3"/>
-      <c r="V30" s="3"/>
-      <c r="W30" s="9" t="n">
-        <v>0</v>
+      <c r="W30" s="34" t="n">
+        <f aca="false">2/3</f>
+        <v>0.666666666666667</v>
       </c>
       <c r="X30" s="3"/>
       <c r="Y30" s="3"/>
       <c r="Z30" s="3"/>
       <c r="AA30" s="3"/>
-      <c r="AB30" s="3"/>
-      <c r="AC30" s="3"/>
-      <c r="AD30" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="AE30" s="7" t="n">
+      <c r="AD30" s="30" t="n">
         <v>0</v>
       </c>
-      <c r="AF30" s="3"/>
       <c r="AG30" s="3"/>
       <c r="AH30" s="3"/>
       <c r="AI30" s="3"/>
       <c r="AJ30" s="3"/>
-      <c r="AK30" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL30" s="3"/>
+      <c r="AK30" s="33" t="n">
+        <f aca="false">-2/3</f>
+        <v>-0.666666666666667</v>
+      </c>
       <c r="AM30" s="3"/>
       <c r="AN30" s="3"/>
       <c r="AO30" s="3"/>
       <c r="AP30" s="3"/>
       <c r="AQ30" s="3"/>
-      <c r="AR30" s="3"/>
+      <c r="AR30" s="32" t="n">
+        <f aca="false">1/12</f>
+        <v>0.0833333333333333</v>
+      </c>
       <c r="AS30" s="3"/>
       <c r="AT30" s="3"/>
       <c r="AU30" s="3"/>
@@ -33047,9 +32912,6 @@
       <c r="CJ30" s="3"/>
       <c r="CK30" s="3"/>
       <c r="CL30" s="3"/>
-      <c r="CN30" s="2" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="4" t="n">
@@ -33070,45 +32932,43 @@
       <c r="N31" s="3"/>
       <c r="O31" s="3"/>
       <c r="P31" s="3"/>
-      <c r="Q31" s="3"/>
+      <c r="Q31" s="35" t="n">
+        <f aca="false">-1/12</f>
+        <v>-0.0833333333333333</v>
+      </c>
       <c r="R31" s="3"/>
       <c r="S31" s="3"/>
       <c r="T31" s="3"/>
       <c r="U31" s="3"/>
       <c r="V31" s="3"/>
-      <c r="W31" s="3"/>
-      <c r="X31" s="9" t="n">
-        <v>1</v>
+      <c r="X31" s="34" t="n">
+        <f aca="false">2/3</f>
+        <v>0.666666666666667</v>
       </c>
       <c r="Y31" s="3"/>
       <c r="Z31" s="3"/>
       <c r="AA31" s="3"/>
       <c r="AB31" s="3"/>
-      <c r="AC31" s="3"/>
-      <c r="AD31" s="9" t="n">
-        <v>1</v>
-      </c>
-      <c r="AE31" s="6" t="n">
-        <v>-4</v>
-      </c>
-      <c r="AF31" s="9" t="n">
-        <v>1</v>
-      </c>
-      <c r="AG31" s="3"/>
+      <c r="AE31" s="30" t="n">
+        <v>0</v>
+      </c>
       <c r="AH31" s="3"/>
       <c r="AI31" s="3"/>
       <c r="AJ31" s="3"/>
       <c r="AK31" s="3"/>
-      <c r="AL31" s="9" t="n">
-        <v>1</v>
-      </c>
-      <c r="AM31" s="3"/>
+      <c r="AL31" s="33" t="n">
+        <f aca="false">-2/3</f>
+        <v>-0.666666666666667</v>
+      </c>
       <c r="AN31" s="3"/>
       <c r="AO31" s="3"/>
       <c r="AP31" s="3"/>
       <c r="AQ31" s="3"/>
       <c r="AR31" s="3"/>
-      <c r="AS31" s="3"/>
+      <c r="AS31" s="32" t="n">
+        <f aca="false">1/12</f>
+        <v>0.0833333333333333</v>
+      </c>
       <c r="AT31" s="3"/>
       <c r="AU31" s="3"/>
       <c r="AV31" s="3"/>
@@ -33154,9 +33014,6 @@
       <c r="CJ31" s="3"/>
       <c r="CK31" s="3"/>
       <c r="CL31" s="3"/>
-      <c r="CN31" s="25" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="4" t="n">
@@ -33178,45 +33035,43 @@
       <c r="O32" s="3"/>
       <c r="P32" s="3"/>
       <c r="Q32" s="3"/>
-      <c r="R32" s="3"/>
+      <c r="R32" s="35" t="n">
+        <f aca="false">-1/12</f>
+        <v>-0.0833333333333333</v>
+      </c>
       <c r="S32" s="3"/>
       <c r="T32" s="3"/>
       <c r="U32" s="3"/>
       <c r="V32" s="3"/>
       <c r="W32" s="3"/>
-      <c r="X32" s="3"/>
-      <c r="Y32" s="9" t="n">
-        <v>1</v>
+      <c r="Y32" s="34" t="n">
+        <f aca="false">2/3</f>
+        <v>0.666666666666667</v>
       </c>
       <c r="Z32" s="3"/>
       <c r="AA32" s="3"/>
       <c r="AB32" s="3"/>
       <c r="AC32" s="3"/>
-      <c r="AD32" s="3"/>
-      <c r="AE32" s="9" t="n">
-        <v>1</v>
-      </c>
-      <c r="AF32" s="6" t="n">
-        <v>-4</v>
-      </c>
-      <c r="AG32" s="9" t="n">
-        <v>1</v>
-      </c>
-      <c r="AH32" s="3"/>
+      <c r="AF32" s="30" t="n">
+        <v>0</v>
+      </c>
       <c r="AI32" s="3"/>
       <c r="AJ32" s="3"/>
       <c r="AK32" s="3"/>
       <c r="AL32" s="3"/>
-      <c r="AM32" s="9" t="n">
-        <v>1</v>
-      </c>
-      <c r="AN32" s="3"/>
+      <c r="AM32" s="33" t="n">
+        <f aca="false">-2/3</f>
+        <v>-0.666666666666667</v>
+      </c>
       <c r="AO32" s="3"/>
       <c r="AP32" s="3"/>
       <c r="AQ32" s="3"/>
       <c r="AR32" s="3"/>
       <c r="AS32" s="3"/>
-      <c r="AT32" s="3"/>
+      <c r="AT32" s="32" t="n">
+        <f aca="false">1/12</f>
+        <v>0.0833333333333333</v>
+      </c>
       <c r="AU32" s="3"/>
       <c r="AV32" s="3"/>
       <c r="AW32" s="3"/>
@@ -33261,9 +33116,6 @@
       <c r="CJ32" s="3"/>
       <c r="CK32" s="3"/>
       <c r="CL32" s="3"/>
-      <c r="CN32" s="2" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="4" t="n">
@@ -33286,45 +33138,43 @@
       <c r="P33" s="3"/>
       <c r="Q33" s="3"/>
       <c r="R33" s="3"/>
-      <c r="S33" s="3"/>
+      <c r="S33" s="35" t="n">
+        <f aca="false">-1/12</f>
+        <v>-0.0833333333333333</v>
+      </c>
       <c r="T33" s="3"/>
       <c r="U33" s="3"/>
       <c r="V33" s="3"/>
       <c r="W33" s="3"/>
       <c r="X33" s="3"/>
-      <c r="Y33" s="3"/>
-      <c r="Z33" s="9" t="n">
-        <v>1</v>
+      <c r="Z33" s="34" t="n">
+        <f aca="false">2/3</f>
+        <v>0.666666666666667</v>
       </c>
       <c r="AA33" s="3"/>
       <c r="AB33" s="3"/>
       <c r="AC33" s="3"/>
       <c r="AD33" s="3"/>
-      <c r="AE33" s="3"/>
-      <c r="AF33" s="9" t="n">
-        <v>1</v>
-      </c>
-      <c r="AG33" s="6" t="n">
-        <v>-4</v>
-      </c>
-      <c r="AH33" s="9" t="n">
-        <v>1</v>
-      </c>
-      <c r="AI33" s="3"/>
+      <c r="AG33" s="30" t="n">
+        <v>0</v>
+      </c>
       <c r="AJ33" s="3"/>
       <c r="AK33" s="3"/>
       <c r="AL33" s="3"/>
       <c r="AM33" s="3"/>
-      <c r="AN33" s="9" t="n">
-        <v>1</v>
-      </c>
-      <c r="AO33" s="3"/>
+      <c r="AN33" s="33" t="n">
+        <f aca="false">-2/3</f>
+        <v>-0.666666666666667</v>
+      </c>
       <c r="AP33" s="3"/>
       <c r="AQ33" s="3"/>
       <c r="AR33" s="3"/>
       <c r="AS33" s="3"/>
       <c r="AT33" s="3"/>
-      <c r="AU33" s="3"/>
+      <c r="AU33" s="32" t="n">
+        <f aca="false">1/12</f>
+        <v>0.0833333333333333</v>
+      </c>
       <c r="AV33" s="3"/>
       <c r="AW33" s="3"/>
       <c r="AX33" s="3"/>
@@ -33368,9 +33218,6 @@
       <c r="CJ33" s="3"/>
       <c r="CK33" s="3"/>
       <c r="CL33" s="3"/>
-      <c r="CN33" s="25" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="4" t="n">
@@ -33394,45 +33241,43 @@
       <c r="Q34" s="3"/>
       <c r="R34" s="3"/>
       <c r="S34" s="3"/>
-      <c r="T34" s="3"/>
+      <c r="T34" s="35" t="n">
+        <f aca="false">-1/12</f>
+        <v>-0.0833333333333333</v>
+      </c>
       <c r="U34" s="3"/>
       <c r="V34" s="3"/>
       <c r="W34" s="3"/>
       <c r="X34" s="3"/>
       <c r="Y34" s="3"/>
-      <c r="Z34" s="3"/>
-      <c r="AA34" s="9" t="n">
-        <v>1</v>
+      <c r="AA34" s="34" t="n">
+        <f aca="false">2/3</f>
+        <v>0.666666666666667</v>
       </c>
       <c r="AB34" s="3"/>
       <c r="AC34" s="3"/>
       <c r="AD34" s="3"/>
       <c r="AE34" s="3"/>
-      <c r="AF34" s="3"/>
-      <c r="AG34" s="9" t="n">
-        <v>1</v>
-      </c>
-      <c r="AH34" s="6" t="n">
-        <v>-4</v>
-      </c>
-      <c r="AI34" s="9" t="n">
-        <v>1</v>
-      </c>
-      <c r="AJ34" s="3"/>
+      <c r="AH34" s="30" t="n">
+        <v>0</v>
+      </c>
       <c r="AK34" s="3"/>
       <c r="AL34" s="3"/>
       <c r="AM34" s="3"/>
       <c r="AN34" s="3"/>
-      <c r="AO34" s="9" t="n">
-        <v>1</v>
-      </c>
-      <c r="AP34" s="3"/>
+      <c r="AO34" s="33" t="n">
+        <f aca="false">-2/3</f>
+        <v>-0.666666666666667</v>
+      </c>
       <c r="AQ34" s="3"/>
       <c r="AR34" s="3"/>
       <c r="AS34" s="3"/>
       <c r="AT34" s="3"/>
       <c r="AU34" s="3"/>
-      <c r="AV34" s="3"/>
+      <c r="AV34" s="32" t="n">
+        <f aca="false">1/12</f>
+        <v>0.0833333333333333</v>
+      </c>
       <c r="AW34" s="3"/>
       <c r="AX34" s="3"/>
       <c r="AY34" s="3"/>
@@ -33475,9 +33320,6 @@
       <c r="CJ34" s="3"/>
       <c r="CK34" s="3"/>
       <c r="CL34" s="3"/>
-      <c r="CN34" s="2" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="4" t="n">
@@ -33502,45 +33344,43 @@
       <c r="R35" s="3"/>
       <c r="S35" s="3"/>
       <c r="T35" s="3"/>
-      <c r="U35" s="3"/>
+      <c r="U35" s="35" t="n">
+        <f aca="false">-1/12</f>
+        <v>-0.0833333333333333</v>
+      </c>
       <c r="V35" s="3"/>
       <c r="W35" s="3"/>
       <c r="X35" s="3"/>
       <c r="Y35" s="3"/>
       <c r="Z35" s="3"/>
-      <c r="AA35" s="3"/>
-      <c r="AB35" s="9" t="n">
-        <v>1</v>
+      <c r="AB35" s="34" t="n">
+        <f aca="false">2/3</f>
+        <v>0.666666666666667</v>
       </c>
       <c r="AC35" s="3"/>
       <c r="AD35" s="3"/>
       <c r="AE35" s="3"/>
       <c r="AF35" s="3"/>
-      <c r="AG35" s="3"/>
-      <c r="AH35" s="9" t="n">
-        <v>1</v>
-      </c>
-      <c r="AI35" s="6" t="n">
-        <v>-4</v>
-      </c>
-      <c r="AJ35" s="9" t="n">
-        <v>1</v>
-      </c>
-      <c r="AK35" s="3"/>
+      <c r="AI35" s="30" t="n">
+        <v>0</v>
+      </c>
       <c r="AL35" s="3"/>
       <c r="AM35" s="3"/>
       <c r="AN35" s="3"/>
       <c r="AO35" s="3"/>
-      <c r="AP35" s="9" t="n">
-        <v>1</v>
-      </c>
-      <c r="AQ35" s="3"/>
+      <c r="AP35" s="33" t="n">
+        <f aca="false">-2/3</f>
+        <v>-0.666666666666667</v>
+      </c>
       <c r="AR35" s="3"/>
       <c r="AS35" s="3"/>
       <c r="AT35" s="3"/>
       <c r="AU35" s="3"/>
       <c r="AV35" s="3"/>
-      <c r="AW35" s="3"/>
+      <c r="AW35" s="32" t="n">
+        <f aca="false">1/12</f>
+        <v>0.0833333333333333</v>
+      </c>
       <c r="AX35" s="3"/>
       <c r="AY35" s="3"/>
       <c r="AZ35" s="3"/>
@@ -33582,9 +33422,6 @@
       <c r="CJ35" s="3"/>
       <c r="CK35" s="3"/>
       <c r="CL35" s="3"/>
-      <c r="CN35" s="25" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="4" t="n">
@@ -33610,43 +33447,43 @@
       <c r="S36" s="3"/>
       <c r="T36" s="3"/>
       <c r="U36" s="3"/>
-      <c r="V36" s="3"/>
+      <c r="V36" s="35" t="n">
+        <f aca="false">-1/12</f>
+        <v>-0.0833333333333333</v>
+      </c>
       <c r="W36" s="3"/>
       <c r="X36" s="3"/>
       <c r="Y36" s="3"/>
       <c r="Z36" s="3"/>
       <c r="AA36" s="3"/>
-      <c r="AB36" s="3"/>
-      <c r="AC36" s="9" t="n">
-        <v>1</v>
+      <c r="AC36" s="34" t="n">
+        <f aca="false">2/3</f>
+        <v>0.666666666666667</v>
       </c>
       <c r="AD36" s="3"/>
       <c r="AE36" s="3"/>
       <c r="AF36" s="3"/>
       <c r="AG36" s="3"/>
-      <c r="AH36" s="3"/>
-      <c r="AI36" s="7" t="n">
-        <v>2</v>
-      </c>
-      <c r="AJ36" s="6" t="n">
-        <v>-4</v>
-      </c>
-      <c r="AK36" s="3"/>
-      <c r="AL36" s="3"/>
+      <c r="AJ36" s="30" t="n">
+        <v>0</v>
+      </c>
       <c r="AM36" s="3"/>
       <c r="AN36" s="3"/>
       <c r="AO36" s="3"/>
       <c r="AP36" s="3"/>
-      <c r="AQ36" s="9" t="n">
-        <v>1</v>
-      </c>
-      <c r="AR36" s="3"/>
+      <c r="AQ36" s="33" t="n">
+        <f aca="false">-2/3</f>
+        <v>-0.666666666666667</v>
+      </c>
       <c r="AS36" s="3"/>
       <c r="AT36" s="3"/>
       <c r="AU36" s="3"/>
       <c r="AV36" s="3"/>
       <c r="AW36" s="3"/>
-      <c r="AX36" s="3"/>
+      <c r="AX36" s="32" t="n">
+        <f aca="false">1/12</f>
+        <v>0.0833333333333333</v>
+      </c>
       <c r="AY36" s="3"/>
       <c r="AZ36" s="3"/>
       <c r="BA36" s="3"/>
@@ -33687,9 +33524,6 @@
       <c r="CJ36" s="3"/>
       <c r="CK36" s="3"/>
       <c r="CL36" s="3"/>
-      <c r="CN36" s="2" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="4" t="n">
@@ -33716,43 +33550,43 @@
       <c r="T37" s="3"/>
       <c r="U37" s="3"/>
       <c r="V37" s="3"/>
-      <c r="W37" s="3"/>
+      <c r="W37" s="35" t="n">
+        <f aca="false">-1/12</f>
+        <v>-0.0833333333333333</v>
+      </c>
       <c r="X37" s="3"/>
       <c r="Y37" s="3"/>
       <c r="Z37" s="3"/>
       <c r="AA37" s="3"/>
       <c r="AB37" s="3"/>
-      <c r="AC37" s="3"/>
-      <c r="AD37" s="9" t="n">
-        <v>0</v>
+      <c r="AD37" s="34" t="n">
+        <f aca="false">2/3</f>
+        <v>0.666666666666667</v>
       </c>
       <c r="AE37" s="3"/>
       <c r="AF37" s="3"/>
       <c r="AG37" s="3"/>
       <c r="AH37" s="3"/>
-      <c r="AI37" s="3"/>
-      <c r="AJ37" s="3"/>
-      <c r="AK37" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="AL37" s="7" t="n">
+      <c r="AK37" s="30" t="n">
         <v>0</v>
       </c>
-      <c r="AM37" s="3"/>
       <c r="AN37" s="3"/>
       <c r="AO37" s="3"/>
       <c r="AP37" s="3"/>
       <c r="AQ37" s="3"/>
-      <c r="AR37" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="AS37" s="3"/>
+      <c r="AR37" s="33" t="n">
+        <f aca="false">-2/3</f>
+        <v>-0.666666666666667</v>
+      </c>
       <c r="AT37" s="3"/>
       <c r="AU37" s="3"/>
       <c r="AV37" s="3"/>
       <c r="AW37" s="3"/>
       <c r="AX37" s="3"/>
-      <c r="AY37" s="3"/>
+      <c r="AY37" s="32" t="n">
+        <f aca="false">1/12</f>
+        <v>0.0833333333333333</v>
+      </c>
       <c r="AZ37" s="3"/>
       <c r="BA37" s="3"/>
       <c r="BB37" s="3"/>
@@ -33792,9 +33626,6 @@
       <c r="CJ37" s="3"/>
       <c r="CK37" s="3"/>
       <c r="CL37" s="3"/>
-      <c r="CN37" s="25" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="4" t="n">
@@ -33822,45 +33653,43 @@
       <c r="U38" s="3"/>
       <c r="V38" s="3"/>
       <c r="W38" s="3"/>
-      <c r="X38" s="3"/>
+      <c r="X38" s="35" t="n">
+        <f aca="false">-1/12</f>
+        <v>-0.0833333333333333</v>
+      </c>
       <c r="Y38" s="3"/>
       <c r="Z38" s="3"/>
       <c r="AA38" s="3"/>
       <c r="AB38" s="3"/>
       <c r="AC38" s="3"/>
-      <c r="AD38" s="3"/>
-      <c r="AE38" s="9" t="n">
-        <v>1</v>
+      <c r="AE38" s="34" t="n">
+        <f aca="false">2/3</f>
+        <v>0.666666666666667</v>
       </c>
       <c r="AF38" s="3"/>
       <c r="AG38" s="3"/>
       <c r="AH38" s="3"/>
       <c r="AI38" s="3"/>
-      <c r="AJ38" s="3"/>
-      <c r="AK38" s="9" t="n">
-        <v>1</v>
-      </c>
-      <c r="AL38" s="6" t="n">
-        <v>-4</v>
-      </c>
-      <c r="AM38" s="9" t="n">
-        <v>1</v>
-      </c>
-      <c r="AN38" s="3"/>
+      <c r="AL38" s="30" t="n">
+        <v>0</v>
+      </c>
       <c r="AO38" s="3"/>
       <c r="AP38" s="3"/>
       <c r="AQ38" s="3"/>
       <c r="AR38" s="3"/>
-      <c r="AS38" s="9" t="n">
-        <v>1</v>
-      </c>
-      <c r="AT38" s="3"/>
+      <c r="AS38" s="33" t="n">
+        <f aca="false">-2/3</f>
+        <v>-0.666666666666667</v>
+      </c>
       <c r="AU38" s="3"/>
       <c r="AV38" s="3"/>
       <c r="AW38" s="3"/>
       <c r="AX38" s="3"/>
       <c r="AY38" s="3"/>
-      <c r="AZ38" s="3"/>
+      <c r="AZ38" s="32" t="n">
+        <f aca="false">1/12</f>
+        <v>0.0833333333333333</v>
+      </c>
       <c r="BA38" s="3"/>
       <c r="BB38" s="3"/>
       <c r="BC38" s="3"/>
@@ -33899,9 +33728,6 @@
       <c r="CJ38" s="3"/>
       <c r="CK38" s="3"/>
       <c r="CL38" s="3"/>
-      <c r="CN38" s="2" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="4" t="n">
@@ -33930,45 +33756,43 @@
       <c r="V39" s="3"/>
       <c r="W39" s="3"/>
       <c r="X39" s="3"/>
-      <c r="Y39" s="3"/>
+      <c r="Y39" s="35" t="n">
+        <f aca="false">-1/12</f>
+        <v>-0.0833333333333333</v>
+      </c>
       <c r="Z39" s="3"/>
       <c r="AA39" s="3"/>
       <c r="AB39" s="3"/>
       <c r="AC39" s="3"/>
       <c r="AD39" s="3"/>
-      <c r="AE39" s="3"/>
-      <c r="AF39" s="9" t="n">
-        <v>1</v>
+      <c r="AF39" s="34" t="n">
+        <f aca="false">2/3</f>
+        <v>0.666666666666667</v>
       </c>
       <c r="AG39" s="3"/>
       <c r="AH39" s="3"/>
       <c r="AI39" s="3"/>
       <c r="AJ39" s="3"/>
-      <c r="AK39" s="3"/>
-      <c r="AL39" s="9" t="n">
-        <v>1</v>
-      </c>
-      <c r="AM39" s="6" t="n">
-        <v>-4</v>
-      </c>
-      <c r="AN39" s="9" t="n">
-        <v>1</v>
-      </c>
-      <c r="AO39" s="3"/>
+      <c r="AM39" s="30" t="n">
+        <v>0</v>
+      </c>
       <c r="AP39" s="3"/>
       <c r="AQ39" s="3"/>
       <c r="AR39" s="3"/>
       <c r="AS39" s="3"/>
-      <c r="AT39" s="9" t="n">
-        <v>1</v>
-      </c>
-      <c r="AU39" s="3"/>
+      <c r="AT39" s="33" t="n">
+        <f aca="false">-2/3</f>
+        <v>-0.666666666666667</v>
+      </c>
       <c r="AV39" s="3"/>
       <c r="AW39" s="3"/>
       <c r="AX39" s="3"/>
       <c r="AY39" s="3"/>
       <c r="AZ39" s="3"/>
-      <c r="BA39" s="3"/>
+      <c r="BA39" s="32" t="n">
+        <f aca="false">1/12</f>
+        <v>0.0833333333333333</v>
+      </c>
       <c r="BB39" s="3"/>
       <c r="BC39" s="3"/>
       <c r="BD39" s="3"/>
@@ -34006,9 +33830,6 @@
       <c r="CJ39" s="3"/>
       <c r="CK39" s="3"/>
       <c r="CL39" s="3"/>
-      <c r="CN39" s="25" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="4" t="n">
@@ -34038,45 +33859,43 @@
       <c r="W40" s="3"/>
       <c r="X40" s="3"/>
       <c r="Y40" s="3"/>
-      <c r="Z40" s="3"/>
+      <c r="Z40" s="35" t="n">
+        <f aca="false">-1/12</f>
+        <v>-0.0833333333333333</v>
+      </c>
       <c r="AA40" s="3"/>
       <c r="AB40" s="3"/>
       <c r="AC40" s="3"/>
       <c r="AD40" s="3"/>
       <c r="AE40" s="3"/>
-      <c r="AF40" s="3"/>
-      <c r="AG40" s="9" t="n">
-        <v>1</v>
+      <c r="AG40" s="34" t="n">
+        <f aca="false">2/3</f>
+        <v>0.666666666666667</v>
       </c>
       <c r="AH40" s="3"/>
       <c r="AI40" s="3"/>
       <c r="AJ40" s="3"/>
       <c r="AK40" s="3"/>
-      <c r="AL40" s="3"/>
-      <c r="AM40" s="9" t="n">
-        <v>1</v>
-      </c>
-      <c r="AN40" s="6" t="n">
-        <v>-4</v>
-      </c>
-      <c r="AO40" s="9" t="n">
-        <v>1</v>
-      </c>
-      <c r="AP40" s="3"/>
+      <c r="AN40" s="30" t="n">
+        <v>0</v>
+      </c>
       <c r="AQ40" s="3"/>
       <c r="AR40" s="3"/>
       <c r="AS40" s="3"/>
       <c r="AT40" s="3"/>
-      <c r="AU40" s="9" t="n">
-        <v>1</v>
-      </c>
-      <c r="AV40" s="3"/>
+      <c r="AU40" s="33" t="n">
+        <f aca="false">-2/3</f>
+        <v>-0.666666666666667</v>
+      </c>
       <c r="AW40" s="3"/>
       <c r="AX40" s="3"/>
       <c r="AY40" s="3"/>
       <c r="AZ40" s="3"/>
       <c r="BA40" s="3"/>
-      <c r="BB40" s="3"/>
+      <c r="BB40" s="32" t="n">
+        <f aca="false">1/12</f>
+        <v>0.0833333333333333</v>
+      </c>
       <c r="BC40" s="3"/>
       <c r="BD40" s="3"/>
       <c r="BE40" s="3"/>
@@ -34113,9 +33932,6 @@
       <c r="CJ40" s="3"/>
       <c r="CK40" s="3"/>
       <c r="CL40" s="3"/>
-      <c r="CN40" s="2" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="4" t="n">
@@ -34146,45 +33962,43 @@
       <c r="X41" s="3"/>
       <c r="Y41" s="3"/>
       <c r="Z41" s="3"/>
-      <c r="AA41" s="3"/>
+      <c r="AA41" s="35" t="n">
+        <f aca="false">-1/12</f>
+        <v>-0.0833333333333333</v>
+      </c>
       <c r="AB41" s="3"/>
       <c r="AC41" s="3"/>
       <c r="AD41" s="3"/>
       <c r="AE41" s="3"/>
       <c r="AF41" s="3"/>
-      <c r="AG41" s="3"/>
-      <c r="AH41" s="9" t="n">
-        <v>1</v>
+      <c r="AH41" s="34" t="n">
+        <f aca="false">2/3</f>
+        <v>0.666666666666667</v>
       </c>
       <c r="AI41" s="3"/>
       <c r="AJ41" s="3"/>
       <c r="AK41" s="3"/>
       <c r="AL41" s="3"/>
-      <c r="AM41" s="3"/>
-      <c r="AN41" s="9" t="n">
-        <v>1</v>
-      </c>
-      <c r="AO41" s="6" t="n">
-        <v>-4</v>
-      </c>
-      <c r="AP41" s="9" t="n">
-        <v>1</v>
-      </c>
-      <c r="AQ41" s="3"/>
+      <c r="AO41" s="30" t="n">
+        <v>0</v>
+      </c>
       <c r="AR41" s="3"/>
       <c r="AS41" s="3"/>
       <c r="AT41" s="3"/>
       <c r="AU41" s="3"/>
-      <c r="AV41" s="9" t="n">
-        <v>1</v>
-      </c>
-      <c r="AW41" s="3"/>
+      <c r="AV41" s="33" t="n">
+        <f aca="false">-2/3</f>
+        <v>-0.666666666666667</v>
+      </c>
       <c r="AX41" s="3"/>
       <c r="AY41" s="3"/>
       <c r="AZ41" s="3"/>
       <c r="BA41" s="3"/>
       <c r="BB41" s="3"/>
-      <c r="BC41" s="3"/>
+      <c r="BC41" s="32" t="n">
+        <f aca="false">1/12</f>
+        <v>0.0833333333333333</v>
+      </c>
       <c r="BD41" s="3"/>
       <c r="BE41" s="3"/>
       <c r="BF41" s="3"/>
@@ -34220,9 +34034,6 @@
       <c r="CJ41" s="3"/>
       <c r="CK41" s="3"/>
       <c r="CL41" s="3"/>
-      <c r="CN41" s="25" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="4" t="n">
@@ -34254,45 +34065,43 @@
       <c r="Y42" s="3"/>
       <c r="Z42" s="3"/>
       <c r="AA42" s="3"/>
-      <c r="AB42" s="3"/>
+      <c r="AB42" s="35" t="n">
+        <f aca="false">-1/12</f>
+        <v>-0.0833333333333333</v>
+      </c>
       <c r="AC42" s="3"/>
       <c r="AD42" s="3"/>
       <c r="AE42" s="3"/>
       <c r="AF42" s="3"/>
       <c r="AG42" s="3"/>
-      <c r="AH42" s="3"/>
-      <c r="AI42" s="9" t="n">
-        <v>1</v>
+      <c r="AI42" s="34" t="n">
+        <f aca="false">2/3</f>
+        <v>0.666666666666667</v>
       </c>
       <c r="AJ42" s="3"/>
       <c r="AK42" s="3"/>
       <c r="AL42" s="3"/>
       <c r="AM42" s="3"/>
-      <c r="AN42" s="3"/>
-      <c r="AO42" s="9" t="n">
-        <v>1</v>
-      </c>
-      <c r="AP42" s="6" t="n">
-        <v>-4</v>
-      </c>
-      <c r="AQ42" s="9" t="n">
-        <v>1</v>
-      </c>
-      <c r="AR42" s="3"/>
+      <c r="AP42" s="30" t="n">
+        <v>0</v>
+      </c>
       <c r="AS42" s="3"/>
       <c r="AT42" s="3"/>
       <c r="AU42" s="3"/>
       <c r="AV42" s="3"/>
-      <c r="AW42" s="9" t="n">
-        <v>1</v>
-      </c>
-      <c r="AX42" s="3"/>
+      <c r="AW42" s="33" t="n">
+        <f aca="false">-2/3</f>
+        <v>-0.666666666666667</v>
+      </c>
       <c r="AY42" s="3"/>
       <c r="AZ42" s="3"/>
       <c r="BA42" s="3"/>
       <c r="BB42" s="3"/>
       <c r="BC42" s="3"/>
-      <c r="BD42" s="3"/>
+      <c r="BD42" s="32" t="n">
+        <f aca="false">1/12</f>
+        <v>0.0833333333333333</v>
+      </c>
       <c r="BE42" s="3"/>
       <c r="BF42" s="3"/>
       <c r="BG42" s="3"/>
@@ -34327,9 +34136,6 @@
       <c r="CJ42" s="3"/>
       <c r="CK42" s="3"/>
       <c r="CL42" s="3"/>
-      <c r="CN42" s="2" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="4" t="n">
@@ -34362,43 +34168,43 @@
       <c r="Z43" s="3"/>
       <c r="AA43" s="3"/>
       <c r="AB43" s="3"/>
-      <c r="AC43" s="3"/>
+      <c r="AC43" s="35" t="n">
+        <f aca="false">-1/12</f>
+        <v>-0.0833333333333333</v>
+      </c>
       <c r="AD43" s="3"/>
       <c r="AE43" s="3"/>
       <c r="AF43" s="3"/>
       <c r="AG43" s="3"/>
       <c r="AH43" s="3"/>
-      <c r="AI43" s="3"/>
-      <c r="AJ43" s="9" t="n">
-        <v>1</v>
+      <c r="AJ43" s="34" t="n">
+        <f aca="false">2/3</f>
+        <v>0.666666666666667</v>
       </c>
       <c r="AK43" s="3"/>
       <c r="AL43" s="3"/>
       <c r="AM43" s="3"/>
       <c r="AN43" s="3"/>
-      <c r="AO43" s="3"/>
-      <c r="AP43" s="7" t="n">
-        <v>2</v>
-      </c>
-      <c r="AQ43" s="6" t="n">
-        <v>-4</v>
-      </c>
-      <c r="AR43" s="3"/>
-      <c r="AS43" s="3"/>
+      <c r="AQ43" s="30" t="n">
+        <v>0</v>
+      </c>
       <c r="AT43" s="3"/>
       <c r="AU43" s="3"/>
       <c r="AV43" s="3"/>
       <c r="AW43" s="3"/>
-      <c r="AX43" s="9" t="n">
-        <v>1</v>
-      </c>
-      <c r="AY43" s="3"/>
+      <c r="AX43" s="33" t="n">
+        <f aca="false">-2/3</f>
+        <v>-0.666666666666667</v>
+      </c>
       <c r="AZ43" s="3"/>
       <c r="BA43" s="3"/>
       <c r="BB43" s="3"/>
       <c r="BC43" s="3"/>
       <c r="BD43" s="3"/>
-      <c r="BE43" s="3"/>
+      <c r="BE43" s="32" t="n">
+        <f aca="false">1/12</f>
+        <v>0.0833333333333333</v>
+      </c>
       <c r="BF43" s="3"/>
       <c r="BG43" s="3"/>
       <c r="BH43" s="3"/>
@@ -34432,9 +34238,6 @@
       <c r="CJ43" s="3"/>
       <c r="CK43" s="3"/>
       <c r="CL43" s="3"/>
-      <c r="CN43" s="25" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="4" t="n">
@@ -34468,43 +34271,43 @@
       <c r="AA44" s="3"/>
       <c r="AB44" s="3"/>
       <c r="AC44" s="3"/>
-      <c r="AD44" s="3"/>
+      <c r="AD44" s="35" t="n">
+        <f aca="false">-1/12</f>
+        <v>-0.0833333333333333</v>
+      </c>
       <c r="AE44" s="3"/>
       <c r="AF44" s="3"/>
       <c r="AG44" s="3"/>
       <c r="AH44" s="3"/>
       <c r="AI44" s="3"/>
-      <c r="AJ44" s="3"/>
-      <c r="AK44" s="9" t="n">
-        <v>0</v>
+      <c r="AK44" s="34" t="n">
+        <f aca="false">2/3</f>
+        <v>0.666666666666667</v>
       </c>
       <c r="AL44" s="3"/>
       <c r="AM44" s="3"/>
       <c r="AN44" s="3"/>
       <c r="AO44" s="3"/>
-      <c r="AP44" s="3"/>
-      <c r="AQ44" s="3"/>
-      <c r="AR44" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="AS44" s="7" t="n">
+      <c r="AR44" s="30" t="n">
         <v>0</v>
       </c>
-      <c r="AT44" s="3"/>
       <c r="AU44" s="3"/>
       <c r="AV44" s="3"/>
       <c r="AW44" s="3"/>
       <c r="AX44" s="3"/>
-      <c r="AY44" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="AZ44" s="3"/>
+      <c r="AY44" s="33" t="n">
+        <f aca="false">-2/3</f>
+        <v>-0.666666666666667</v>
+      </c>
       <c r="BA44" s="3"/>
       <c r="BB44" s="3"/>
       <c r="BC44" s="3"/>
       <c r="BD44" s="3"/>
       <c r="BE44" s="3"/>
-      <c r="BF44" s="3"/>
+      <c r="BF44" s="32" t="n">
+        <f aca="false">1/12</f>
+        <v>0.0833333333333333</v>
+      </c>
       <c r="BG44" s="3"/>
       <c r="BH44" s="3"/>
       <c r="BI44" s="3"/>
@@ -34537,10 +34340,6 @@
       <c r="CJ44" s="3"/>
       <c r="CK44" s="3"/>
       <c r="CL44" s="3"/>
-      <c r="CN44" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="CP44" s="15"/>
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="4" t="n">
@@ -34575,45 +34374,43 @@
       <c r="AB45" s="3"/>
       <c r="AC45" s="3"/>
       <c r="AD45" s="3"/>
-      <c r="AE45" s="3"/>
+      <c r="AE45" s="35" t="n">
+        <f aca="false">-1/12</f>
+        <v>-0.0833333333333333</v>
+      </c>
       <c r="AF45" s="3"/>
       <c r="AG45" s="3"/>
       <c r="AH45" s="3"/>
       <c r="AI45" s="3"/>
       <c r="AJ45" s="3"/>
-      <c r="AK45" s="3"/>
-      <c r="AL45" s="9" t="n">
-        <v>1</v>
+      <c r="AL45" s="34" t="n">
+        <f aca="false">2/3</f>
+        <v>0.666666666666667</v>
       </c>
       <c r="AM45" s="3"/>
       <c r="AN45" s="3"/>
       <c r="AO45" s="3"/>
       <c r="AP45" s="3"/>
-      <c r="AQ45" s="3"/>
-      <c r="AR45" s="9" t="n">
-        <v>1</v>
-      </c>
-      <c r="AS45" s="6" t="n">
-        <v>-4</v>
-      </c>
-      <c r="AT45" s="9" t="n">
-        <v>1</v>
-      </c>
-      <c r="AU45" s="3"/>
+      <c r="AS45" s="30" t="n">
+        <v>0</v>
+      </c>
       <c r="AV45" s="3"/>
       <c r="AW45" s="3"/>
       <c r="AX45" s="3"/>
       <c r="AY45" s="3"/>
-      <c r="AZ45" s="9" t="n">
-        <v>1</v>
-      </c>
-      <c r="BA45" s="3"/>
+      <c r="AZ45" s="33" t="n">
+        <f aca="false">-2/3</f>
+        <v>-0.666666666666667</v>
+      </c>
       <c r="BB45" s="3"/>
       <c r="BC45" s="3"/>
       <c r="BD45" s="3"/>
       <c r="BE45" s="3"/>
       <c r="BF45" s="3"/>
-      <c r="BG45" s="3"/>
+      <c r="BG45" s="32" t="n">
+        <f aca="false">1/12</f>
+        <v>0.0833333333333333</v>
+      </c>
       <c r="BH45" s="3"/>
       <c r="BI45" s="3"/>
       <c r="BJ45" s="3"/>
@@ -34645,9 +34442,6 @@
       <c r="CJ45" s="3"/>
       <c r="CK45" s="3"/>
       <c r="CL45" s="3"/>
-      <c r="CN45" s="25" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="4" t="n">
@@ -34683,45 +34477,43 @@
       <c r="AC46" s="3"/>
       <c r="AD46" s="3"/>
       <c r="AE46" s="3"/>
-      <c r="AF46" s="3"/>
+      <c r="AF46" s="35" t="n">
+        <f aca="false">-1/12</f>
+        <v>-0.0833333333333333</v>
+      </c>
       <c r="AG46" s="3"/>
       <c r="AH46" s="3"/>
       <c r="AI46" s="3"/>
       <c r="AJ46" s="3"/>
       <c r="AK46" s="3"/>
-      <c r="AL46" s="3"/>
-      <c r="AM46" s="9" t="n">
-        <v>1</v>
+      <c r="AM46" s="34" t="n">
+        <f aca="false">2/3</f>
+        <v>0.666666666666667</v>
       </c>
       <c r="AN46" s="3"/>
       <c r="AO46" s="3"/>
       <c r="AP46" s="3"/>
       <c r="AQ46" s="3"/>
-      <c r="AR46" s="3"/>
-      <c r="AS46" s="9" t="n">
-        <v>1</v>
-      </c>
-      <c r="AT46" s="6" t="n">
-        <v>-4</v>
-      </c>
-      <c r="AU46" s="9" t="n">
-        <v>1</v>
-      </c>
-      <c r="AV46" s="3"/>
+      <c r="AT46" s="30" t="n">
+        <v>0</v>
+      </c>
       <c r="AW46" s="3"/>
       <c r="AX46" s="3"/>
       <c r="AY46" s="3"/>
       <c r="AZ46" s="3"/>
-      <c r="BA46" s="9" t="n">
-        <v>1</v>
-      </c>
-      <c r="BB46" s="3"/>
+      <c r="BA46" s="33" t="n">
+        <f aca="false">-2/3</f>
+        <v>-0.666666666666667</v>
+      </c>
       <c r="BC46" s="3"/>
       <c r="BD46" s="3"/>
       <c r="BE46" s="3"/>
       <c r="BF46" s="3"/>
       <c r="BG46" s="3"/>
-      <c r="BH46" s="3"/>
+      <c r="BH46" s="32" t="n">
+        <f aca="false">1/12</f>
+        <v>0.0833333333333333</v>
+      </c>
       <c r="BI46" s="3"/>
       <c r="BJ46" s="3"/>
       <c r="BK46" s="3"/>
@@ -34752,9 +34544,6 @@
       <c r="CJ46" s="3"/>
       <c r="CK46" s="3"/>
       <c r="CL46" s="3"/>
-      <c r="CN46" s="2" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="4" t="n">
@@ -34791,45 +34580,43 @@
       <c r="AD47" s="3"/>
       <c r="AE47" s="3"/>
       <c r="AF47" s="3"/>
-      <c r="AG47" s="3"/>
+      <c r="AG47" s="35" t="n">
+        <f aca="false">-1/12</f>
+        <v>-0.0833333333333333</v>
+      </c>
       <c r="AH47" s="3"/>
       <c r="AI47" s="3"/>
       <c r="AJ47" s="3"/>
       <c r="AK47" s="3"/>
       <c r="AL47" s="3"/>
-      <c r="AM47" s="3"/>
-      <c r="AN47" s="9" t="n">
-        <v>1</v>
+      <c r="AN47" s="34" t="n">
+        <f aca="false">2/3</f>
+        <v>0.666666666666667</v>
       </c>
       <c r="AO47" s="3"/>
       <c r="AP47" s="3"/>
       <c r="AQ47" s="3"/>
       <c r="AR47" s="3"/>
-      <c r="AS47" s="3"/>
-      <c r="AT47" s="9" t="n">
-        <v>1</v>
-      </c>
-      <c r="AU47" s="6" t="n">
-        <v>-4</v>
-      </c>
-      <c r="AV47" s="9" t="n">
-        <v>1</v>
-      </c>
-      <c r="AW47" s="3"/>
+      <c r="AU47" s="30" t="n">
+        <v>0</v>
+      </c>
       <c r="AX47" s="3"/>
       <c r="AY47" s="3"/>
       <c r="AZ47" s="3"/>
       <c r="BA47" s="3"/>
-      <c r="BB47" s="9" t="n">
-        <v>1</v>
-      </c>
-      <c r="BC47" s="3"/>
+      <c r="BB47" s="33" t="n">
+        <f aca="false">-2/3</f>
+        <v>-0.666666666666667</v>
+      </c>
       <c r="BD47" s="3"/>
       <c r="BE47" s="3"/>
       <c r="BF47" s="3"/>
       <c r="BG47" s="3"/>
       <c r="BH47" s="3"/>
-      <c r="BI47" s="3"/>
+      <c r="BI47" s="32" t="n">
+        <f aca="false">1/12</f>
+        <v>0.0833333333333333</v>
+      </c>
       <c r="BJ47" s="3"/>
       <c r="BK47" s="3"/>
       <c r="BL47" s="3"/>
@@ -34859,9 +34646,6 @@
       <c r="CJ47" s="3"/>
       <c r="CK47" s="3"/>
       <c r="CL47" s="3"/>
-      <c r="CN47" s="25" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="4" t="n">
@@ -34899,45 +34683,43 @@
       <c r="AE48" s="3"/>
       <c r="AF48" s="3"/>
       <c r="AG48" s="3"/>
-      <c r="AH48" s="3"/>
+      <c r="AH48" s="35" t="n">
+        <f aca="false">-1/12</f>
+        <v>-0.0833333333333333</v>
+      </c>
       <c r="AI48" s="3"/>
       <c r="AJ48" s="3"/>
       <c r="AK48" s="3"/>
       <c r="AL48" s="3"/>
       <c r="AM48" s="3"/>
-      <c r="AN48" s="3"/>
-      <c r="AO48" s="9" t="n">
-        <v>1</v>
+      <c r="AO48" s="34" t="n">
+        <f aca="false">2/3</f>
+        <v>0.666666666666667</v>
       </c>
       <c r="AP48" s="3"/>
       <c r="AQ48" s="3"/>
       <c r="AR48" s="3"/>
       <c r="AS48" s="3"/>
-      <c r="AT48" s="3"/>
-      <c r="AU48" s="9" t="n">
-        <v>1</v>
-      </c>
-      <c r="AV48" s="6" t="n">
-        <v>-4</v>
-      </c>
-      <c r="AW48" s="9" t="n">
-        <v>1</v>
-      </c>
-      <c r="AX48" s="3"/>
+      <c r="AV48" s="30" t="n">
+        <v>0</v>
+      </c>
       <c r="AY48" s="3"/>
       <c r="AZ48" s="3"/>
       <c r="BA48" s="3"/>
       <c r="BB48" s="3"/>
-      <c r="BC48" s="9" t="n">
-        <v>1</v>
-      </c>
-      <c r="BD48" s="3"/>
+      <c r="BC48" s="33" t="n">
+        <f aca="false">-2/3</f>
+        <v>-0.666666666666667</v>
+      </c>
       <c r="BE48" s="3"/>
       <c r="BF48" s="3"/>
       <c r="BG48" s="3"/>
       <c r="BH48" s="3"/>
       <c r="BI48" s="3"/>
-      <c r="BJ48" s="3"/>
+      <c r="BJ48" s="32" t="n">
+        <f aca="false">1/12</f>
+        <v>0.0833333333333333</v>
+      </c>
       <c r="BK48" s="3"/>
       <c r="BL48" s="3"/>
       <c r="BM48" s="3"/>
@@ -34966,9 +34748,6 @@
       <c r="CJ48" s="3"/>
       <c r="CK48" s="3"/>
       <c r="CL48" s="3"/>
-      <c r="CN48" s="2" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="4" t="n">
@@ -35007,45 +34786,43 @@
       <c r="AF49" s="3"/>
       <c r="AG49" s="3"/>
       <c r="AH49" s="3"/>
-      <c r="AI49" s="3"/>
+      <c r="AI49" s="35" t="n">
+        <f aca="false">-1/12</f>
+        <v>-0.0833333333333333</v>
+      </c>
       <c r="AJ49" s="3"/>
       <c r="AK49" s="3"/>
       <c r="AL49" s="3"/>
       <c r="AM49" s="3"/>
       <c r="AN49" s="3"/>
-      <c r="AO49" s="3"/>
-      <c r="AP49" s="9" t="n">
-        <v>1</v>
+      <c r="AP49" s="34" t="n">
+        <f aca="false">2/3</f>
+        <v>0.666666666666667</v>
       </c>
       <c r="AQ49" s="3"/>
       <c r="AR49" s="3"/>
       <c r="AS49" s="3"/>
       <c r="AT49" s="3"/>
-      <c r="AU49" s="3"/>
-      <c r="AV49" s="9" t="n">
-        <v>1</v>
-      </c>
-      <c r="AW49" s="6" t="n">
-        <v>-4</v>
-      </c>
-      <c r="AX49" s="9" t="n">
-        <v>1</v>
-      </c>
-      <c r="AY49" s="3"/>
+      <c r="AW49" s="30" t="n">
+        <v>0</v>
+      </c>
       <c r="AZ49" s="3"/>
       <c r="BA49" s="3"/>
       <c r="BB49" s="3"/>
       <c r="BC49" s="3"/>
-      <c r="BD49" s="9" t="n">
-        <v>1</v>
-      </c>
-      <c r="BE49" s="3"/>
+      <c r="BD49" s="33" t="n">
+        <f aca="false">-2/3</f>
+        <v>-0.666666666666667</v>
+      </c>
       <c r="BF49" s="3"/>
       <c r="BG49" s="3"/>
       <c r="BH49" s="3"/>
       <c r="BI49" s="3"/>
       <c r="BJ49" s="3"/>
-      <c r="BK49" s="3"/>
+      <c r="BK49" s="32" t="n">
+        <f aca="false">1/12</f>
+        <v>0.0833333333333333</v>
+      </c>
       <c r="BL49" s="3"/>
       <c r="BM49" s="3"/>
       <c r="BN49" s="3"/>
@@ -35073,9 +34850,6 @@
       <c r="CJ49" s="3"/>
       <c r="CK49" s="3"/>
       <c r="CL49" s="3"/>
-      <c r="CN49" s="25" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="4" t="n">
@@ -35115,43 +34889,43 @@
       <c r="AG50" s="3"/>
       <c r="AH50" s="3"/>
       <c r="AI50" s="3"/>
-      <c r="AJ50" s="3"/>
+      <c r="AJ50" s="35" t="n">
+        <f aca="false">-1/12</f>
+        <v>-0.0833333333333333</v>
+      </c>
       <c r="AK50" s="3"/>
       <c r="AL50" s="3"/>
       <c r="AM50" s="3"/>
       <c r="AN50" s="3"/>
       <c r="AO50" s="3"/>
-      <c r="AP50" s="3"/>
-      <c r="AQ50" s="9" t="n">
-        <v>1</v>
+      <c r="AQ50" s="34" t="n">
+        <f aca="false">2/3</f>
+        <v>0.666666666666667</v>
       </c>
       <c r="AR50" s="3"/>
       <c r="AS50" s="3"/>
       <c r="AT50" s="3"/>
       <c r="AU50" s="3"/>
-      <c r="AV50" s="3"/>
-      <c r="AW50" s="7" t="n">
-        <v>2</v>
-      </c>
-      <c r="AX50" s="6" t="n">
-        <v>-4</v>
-      </c>
-      <c r="AY50" s="3"/>
-      <c r="AZ50" s="3"/>
+      <c r="AX50" s="30" t="n">
+        <v>0</v>
+      </c>
       <c r="BA50" s="3"/>
       <c r="BB50" s="3"/>
       <c r="BC50" s="3"/>
       <c r="BD50" s="3"/>
-      <c r="BE50" s="9" t="n">
-        <v>1</v>
-      </c>
-      <c r="BF50" s="3"/>
+      <c r="BE50" s="33" t="n">
+        <f aca="false">-2/3</f>
+        <v>-0.666666666666667</v>
+      </c>
       <c r="BG50" s="3"/>
       <c r="BH50" s="3"/>
       <c r="BI50" s="3"/>
       <c r="BJ50" s="3"/>
       <c r="BK50" s="3"/>
-      <c r="BL50" s="3"/>
+      <c r="BL50" s="32" t="n">
+        <f aca="false">1/12</f>
+        <v>0.0833333333333333</v>
+      </c>
       <c r="BM50" s="3"/>
       <c r="BN50" s="3"/>
       <c r="BO50" s="3"/>
@@ -35178,9 +34952,6 @@
       <c r="CJ50" s="3"/>
       <c r="CK50" s="3"/>
       <c r="CL50" s="3"/>
-      <c r="CN50" s="2" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="4" t="n">
@@ -35221,43 +34992,43 @@
       <c r="AH51" s="3"/>
       <c r="AI51" s="3"/>
       <c r="AJ51" s="3"/>
-      <c r="AK51" s="3"/>
+      <c r="AK51" s="35" t="n">
+        <f aca="false">-1/12</f>
+        <v>-0.0833333333333333</v>
+      </c>
       <c r="AL51" s="3"/>
       <c r="AM51" s="3"/>
       <c r="AN51" s="3"/>
       <c r="AO51" s="3"/>
       <c r="AP51" s="3"/>
-      <c r="AQ51" s="3"/>
-      <c r="AR51" s="9" t="n">
-        <v>1</v>
+      <c r="AR51" s="34" t="n">
+        <f aca="false">2/3</f>
+        <v>0.666666666666667</v>
       </c>
       <c r="AS51" s="3"/>
       <c r="AT51" s="3"/>
       <c r="AU51" s="3"/>
       <c r="AV51" s="3"/>
-      <c r="AW51" s="3"/>
-      <c r="AX51" s="3"/>
-      <c r="AY51" s="13" t="n">
-        <v>-4</v>
-      </c>
-      <c r="AZ51" s="7" t="n">
-        <v>2</v>
-      </c>
-      <c r="BA51" s="3"/>
+      <c r="AY51" s="30" t="n">
+        <v>0</v>
+      </c>
       <c r="BB51" s="3"/>
       <c r="BC51" s="3"/>
       <c r="BD51" s="3"/>
       <c r="BE51" s="3"/>
-      <c r="BF51" s="9" t="n">
-        <v>1</v>
-      </c>
-      <c r="BG51" s="3"/>
+      <c r="BF51" s="33" t="n">
+        <f aca="false">-2/3</f>
+        <v>-0.666666666666667</v>
+      </c>
       <c r="BH51" s="3"/>
       <c r="BI51" s="3"/>
       <c r="BJ51" s="3"/>
       <c r="BK51" s="3"/>
       <c r="BL51" s="3"/>
-      <c r="BM51" s="3"/>
+      <c r="BM51" s="32" t="n">
+        <f aca="false">1/12</f>
+        <v>0.0833333333333333</v>
+      </c>
       <c r="BN51" s="3"/>
       <c r="BO51" s="3"/>
       <c r="BP51" s="3"/>
@@ -35283,10 +35054,6 @@
       <c r="CJ51" s="3"/>
       <c r="CK51" s="3"/>
       <c r="CL51" s="3"/>
-      <c r="CN51" s="25" t="n">
-        <v>0</v>
-      </c>
-      <c r="CP51" s="17"/>
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="4" t="n">
@@ -35328,45 +35095,43 @@
       <c r="AI52" s="3"/>
       <c r="AJ52" s="3"/>
       <c r="AK52" s="3"/>
-      <c r="AL52" s="3"/>
+      <c r="AL52" s="35" t="n">
+        <f aca="false">-1/12</f>
+        <v>-0.0833333333333333</v>
+      </c>
       <c r="AM52" s="3"/>
       <c r="AN52" s="3"/>
       <c r="AO52" s="3"/>
       <c r="AP52" s="3"/>
       <c r="AQ52" s="3"/>
-      <c r="AR52" s="3"/>
-      <c r="AS52" s="9" t="n">
-        <v>1</v>
+      <c r="AS52" s="34" t="n">
+        <f aca="false">2/3</f>
+        <v>0.666666666666667</v>
       </c>
       <c r="AT52" s="3"/>
       <c r="AU52" s="3"/>
       <c r="AV52" s="3"/>
       <c r="AW52" s="3"/>
-      <c r="AX52" s="3"/>
-      <c r="AY52" s="9" t="n">
-        <v>1</v>
-      </c>
-      <c r="AZ52" s="6" t="n">
-        <v>-4</v>
-      </c>
-      <c r="BA52" s="9" t="n">
-        <v>1</v>
-      </c>
-      <c r="BB52" s="3"/>
+      <c r="AZ52" s="30" t="n">
+        <v>0</v>
+      </c>
       <c r="BC52" s="3"/>
       <c r="BD52" s="3"/>
       <c r="BE52" s="3"/>
       <c r="BF52" s="3"/>
-      <c r="BG52" s="9" t="n">
-        <v>1</v>
-      </c>
-      <c r="BH52" s="3"/>
+      <c r="BG52" s="33" t="n">
+        <f aca="false">-2/3</f>
+        <v>-0.666666666666667</v>
+      </c>
       <c r="BI52" s="3"/>
       <c r="BJ52" s="3"/>
       <c r="BK52" s="3"/>
       <c r="BL52" s="3"/>
       <c r="BM52" s="3"/>
-      <c r="BN52" s="3"/>
+      <c r="BN52" s="32" t="n">
+        <f aca="false">1/12</f>
+        <v>0.0833333333333333</v>
+      </c>
       <c r="BO52" s="3"/>
       <c r="BP52" s="3"/>
       <c r="BQ52" s="3"/>
@@ -35391,9 +35156,6 @@
       <c r="CJ52" s="3"/>
       <c r="CK52" s="3"/>
       <c r="CL52" s="3"/>
-      <c r="CN52" s="2" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="4" t="n">
@@ -35436,45 +35198,43 @@
       <c r="AJ53" s="3"/>
       <c r="AK53" s="3"/>
       <c r="AL53" s="3"/>
-      <c r="AM53" s="3"/>
+      <c r="AM53" s="35" t="n">
+        <f aca="false">-1/12</f>
+        <v>-0.0833333333333333</v>
+      </c>
       <c r="AN53" s="3"/>
       <c r="AO53" s="3"/>
       <c r="AP53" s="3"/>
       <c r="AQ53" s="3"/>
       <c r="AR53" s="3"/>
-      <c r="AS53" s="3"/>
-      <c r="AT53" s="9" t="n">
-        <v>1</v>
+      <c r="AT53" s="34" t="n">
+        <f aca="false">2/3</f>
+        <v>0.666666666666667</v>
       </c>
       <c r="AU53" s="3"/>
       <c r="AV53" s="3"/>
       <c r="AW53" s="3"/>
       <c r="AX53" s="3"/>
-      <c r="AY53" s="3"/>
-      <c r="AZ53" s="9" t="n">
-        <v>1</v>
-      </c>
-      <c r="BA53" s="6" t="n">
-        <v>-4</v>
-      </c>
-      <c r="BB53" s="9" t="n">
-        <v>1</v>
-      </c>
-      <c r="BC53" s="3"/>
+      <c r="BA53" s="30" t="n">
+        <v>0</v>
+      </c>
       <c r="BD53" s="3"/>
       <c r="BE53" s="3"/>
       <c r="BF53" s="3"/>
       <c r="BG53" s="3"/>
-      <c r="BH53" s="9" t="n">
-        <v>1</v>
-      </c>
-      <c r="BI53" s="3"/>
+      <c r="BH53" s="33" t="n">
+        <f aca="false">-2/3</f>
+        <v>-0.666666666666667</v>
+      </c>
       <c r="BJ53" s="3"/>
       <c r="BK53" s="3"/>
       <c r="BL53" s="3"/>
       <c r="BM53" s="3"/>
       <c r="BN53" s="3"/>
-      <c r="BO53" s="3"/>
+      <c r="BO53" s="32" t="n">
+        <f aca="false">1/12</f>
+        <v>0.0833333333333333</v>
+      </c>
       <c r="BP53" s="3"/>
       <c r="BQ53" s="3"/>
       <c r="BR53" s="3"/>
@@ -35498,9 +35258,6 @@
       <c r="CJ53" s="3"/>
       <c r="CK53" s="3"/>
       <c r="CL53" s="3"/>
-      <c r="CN53" s="25" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="4" t="n">
@@ -35544,45 +35301,43 @@
       <c r="AK54" s="3"/>
       <c r="AL54" s="3"/>
       <c r="AM54" s="3"/>
-      <c r="AN54" s="3"/>
+      <c r="AN54" s="35" t="n">
+        <f aca="false">-1/12</f>
+        <v>-0.0833333333333333</v>
+      </c>
       <c r="AO54" s="3"/>
       <c r="AP54" s="3"/>
       <c r="AQ54" s="3"/>
       <c r="AR54" s="3"/>
       <c r="AS54" s="3"/>
-      <c r="AT54" s="3"/>
-      <c r="AU54" s="9" t="n">
-        <v>1</v>
+      <c r="AU54" s="34" t="n">
+        <f aca="false">2/3</f>
+        <v>0.666666666666667</v>
       </c>
       <c r="AV54" s="3"/>
       <c r="AW54" s="3"/>
       <c r="AX54" s="3"/>
       <c r="AY54" s="3"/>
-      <c r="AZ54" s="3"/>
-      <c r="BA54" s="9" t="n">
-        <v>1</v>
-      </c>
-      <c r="BB54" s="6" t="n">
-        <v>-4</v>
-      </c>
-      <c r="BC54" s="9" t="n">
-        <v>1</v>
-      </c>
-      <c r="BD54" s="3"/>
+      <c r="BB54" s="30" t="n">
+        <v>0</v>
+      </c>
       <c r="BE54" s="3"/>
       <c r="BF54" s="3"/>
       <c r="BG54" s="3"/>
       <c r="BH54" s="3"/>
-      <c r="BI54" s="9" t="n">
-        <v>1</v>
-      </c>
-      <c r="BJ54" s="3"/>
+      <c r="BI54" s="33" t="n">
+        <f aca="false">-2/3</f>
+        <v>-0.666666666666667</v>
+      </c>
       <c r="BK54" s="3"/>
       <c r="BL54" s="3"/>
       <c r="BM54" s="3"/>
       <c r="BN54" s="3"/>
       <c r="BO54" s="3"/>
-      <c r="BP54" s="3"/>
+      <c r="BP54" s="32" t="n">
+        <f aca="false">1/12</f>
+        <v>0.0833333333333333</v>
+      </c>
       <c r="BQ54" s="3"/>
       <c r="BR54" s="3"/>
       <c r="BS54" s="3"/>
@@ -35605,9 +35360,6 @@
       <c r="CJ54" s="3"/>
       <c r="CK54" s="3"/>
       <c r="CL54" s="3"/>
-      <c r="CN54" s="2" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="4" t="n">
@@ -35652,45 +35404,43 @@
       <c r="AL55" s="3"/>
       <c r="AM55" s="3"/>
       <c r="AN55" s="3"/>
-      <c r="AO55" s="3"/>
+      <c r="AO55" s="35" t="n">
+        <f aca="false">-1/12</f>
+        <v>-0.0833333333333333</v>
+      </c>
       <c r="AP55" s="3"/>
       <c r="AQ55" s="3"/>
       <c r="AR55" s="3"/>
       <c r="AS55" s="3"/>
       <c r="AT55" s="3"/>
-      <c r="AU55" s="3"/>
-      <c r="AV55" s="9" t="n">
-        <v>1</v>
+      <c r="AV55" s="34" t="n">
+        <f aca="false">2/3</f>
+        <v>0.666666666666667</v>
       </c>
       <c r="AW55" s="3"/>
       <c r="AX55" s="3"/>
       <c r="AY55" s="3"/>
       <c r="AZ55" s="3"/>
-      <c r="BA55" s="3"/>
-      <c r="BB55" s="9" t="n">
-        <v>1</v>
-      </c>
-      <c r="BC55" s="6" t="n">
-        <v>-4</v>
-      </c>
-      <c r="BD55" s="9" t="n">
-        <v>1</v>
-      </c>
-      <c r="BE55" s="3"/>
+      <c r="BC55" s="30" t="n">
+        <v>0</v>
+      </c>
       <c r="BF55" s="3"/>
       <c r="BG55" s="3"/>
       <c r="BH55" s="3"/>
       <c r="BI55" s="3"/>
-      <c r="BJ55" s="9" t="n">
-        <v>1</v>
-      </c>
-      <c r="BK55" s="3"/>
+      <c r="BJ55" s="33" t="n">
+        <f aca="false">-2/3</f>
+        <v>-0.666666666666667</v>
+      </c>
       <c r="BL55" s="3"/>
       <c r="BM55" s="3"/>
       <c r="BN55" s="3"/>
       <c r="BO55" s="3"/>
       <c r="BP55" s="3"/>
-      <c r="BQ55" s="3"/>
+      <c r="BQ55" s="32" t="n">
+        <f aca="false">1/12</f>
+        <v>0.0833333333333333</v>
+      </c>
       <c r="BR55" s="3"/>
       <c r="BS55" s="3"/>
       <c r="BT55" s="3"/>
@@ -35712,9 +35462,6 @@
       <c r="CJ55" s="3"/>
       <c r="CK55" s="3"/>
       <c r="CL55" s="3"/>
-      <c r="CN55" s="25" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="4" t="n">
@@ -35760,45 +35507,43 @@
       <c r="AM56" s="3"/>
       <c r="AN56" s="3"/>
       <c r="AO56" s="3"/>
-      <c r="AP56" s="3"/>
+      <c r="AP56" s="35" t="n">
+        <f aca="false">-1/12</f>
+        <v>-0.0833333333333333</v>
+      </c>
       <c r="AQ56" s="3"/>
       <c r="AR56" s="3"/>
       <c r="AS56" s="3"/>
       <c r="AT56" s="3"/>
       <c r="AU56" s="3"/>
-      <c r="AV56" s="3"/>
-      <c r="AW56" s="9" t="n">
-        <v>1</v>
+      <c r="AW56" s="34" t="n">
+        <f aca="false">2/3</f>
+        <v>0.666666666666667</v>
       </c>
       <c r="AX56" s="3"/>
       <c r="AY56" s="3"/>
       <c r="AZ56" s="3"/>
       <c r="BA56" s="3"/>
-      <c r="BB56" s="3"/>
-      <c r="BC56" s="9" t="n">
-        <v>1</v>
-      </c>
-      <c r="BD56" s="6" t="n">
-        <v>-4</v>
-      </c>
-      <c r="BE56" s="9" t="n">
-        <v>1</v>
-      </c>
-      <c r="BF56" s="3"/>
+      <c r="BD56" s="30" t="n">
+        <v>0</v>
+      </c>
       <c r="BG56" s="3"/>
       <c r="BH56" s="3"/>
       <c r="BI56" s="3"/>
       <c r="BJ56" s="3"/>
-      <c r="BK56" s="9" t="n">
-        <v>1</v>
-      </c>
-      <c r="BL56" s="3"/>
+      <c r="BK56" s="33" t="n">
+        <f aca="false">-2/3</f>
+        <v>-0.666666666666667</v>
+      </c>
       <c r="BM56" s="3"/>
       <c r="BN56" s="3"/>
       <c r="BO56" s="3"/>
       <c r="BP56" s="3"/>
       <c r="BQ56" s="3"/>
-      <c r="BR56" s="3"/>
+      <c r="BR56" s="32" t="n">
+        <f aca="false">1/12</f>
+        <v>0.0833333333333333</v>
+      </c>
       <c r="BS56" s="3"/>
       <c r="BT56" s="3"/>
       <c r="BU56" s="3"/>
@@ -35819,9 +35564,6 @@
       <c r="CJ56" s="3"/>
       <c r="CK56" s="3"/>
       <c r="CL56" s="3"/>
-      <c r="CN56" s="2" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="4" t="n">
@@ -35868,43 +35610,43 @@
       <c r="AN57" s="3"/>
       <c r="AO57" s="3"/>
       <c r="AP57" s="3"/>
-      <c r="AQ57" s="3"/>
+      <c r="AQ57" s="35" t="n">
+        <f aca="false">-1/12</f>
+        <v>-0.0833333333333333</v>
+      </c>
       <c r="AR57" s="3"/>
       <c r="AS57" s="3"/>
       <c r="AT57" s="3"/>
       <c r="AU57" s="3"/>
       <c r="AV57" s="3"/>
-      <c r="AW57" s="3"/>
-      <c r="AX57" s="9" t="n">
-        <v>1</v>
+      <c r="AX57" s="34" t="n">
+        <f aca="false">2/3</f>
+        <v>0.666666666666667</v>
       </c>
       <c r="AY57" s="3"/>
       <c r="AZ57" s="3"/>
       <c r="BA57" s="3"/>
       <c r="BB57" s="3"/>
-      <c r="BC57" s="3"/>
-      <c r="BD57" s="7" t="n">
-        <v>2</v>
-      </c>
-      <c r="BE57" s="6" t="n">
-        <v>-4</v>
-      </c>
-      <c r="BF57" s="3"/>
-      <c r="BG57" s="3"/>
+      <c r="BE57" s="30" t="n">
+        <v>0</v>
+      </c>
       <c r="BH57" s="3"/>
       <c r="BI57" s="3"/>
       <c r="BJ57" s="3"/>
       <c r="BK57" s="3"/>
-      <c r="BL57" s="9" t="n">
-        <v>1</v>
-      </c>
-      <c r="BM57" s="3"/>
+      <c r="BL57" s="33" t="n">
+        <f aca="false">-2/3</f>
+        <v>-0.666666666666667</v>
+      </c>
       <c r="BN57" s="3"/>
       <c r="BO57" s="3"/>
       <c r="BP57" s="3"/>
       <c r="BQ57" s="3"/>
       <c r="BR57" s="3"/>
-      <c r="BS57" s="3"/>
+      <c r="BS57" s="32" t="n">
+        <f aca="false">1/12</f>
+        <v>0.0833333333333333</v>
+      </c>
       <c r="BT57" s="3"/>
       <c r="BU57" s="3"/>
       <c r="BV57" s="3"/>
@@ -35924,9 +35666,6 @@
       <c r="CJ57" s="3"/>
       <c r="CK57" s="3"/>
       <c r="CL57" s="3"/>
-      <c r="CN57" s="25" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="4" t="n">
@@ -35974,43 +35713,43 @@
       <c r="AO58" s="3"/>
       <c r="AP58" s="3"/>
       <c r="AQ58" s="3"/>
-      <c r="AR58" s="3"/>
+      <c r="AR58" s="35" t="n">
+        <f aca="false">-1/12</f>
+        <v>-0.0833333333333333</v>
+      </c>
       <c r="AS58" s="3"/>
       <c r="AT58" s="3"/>
       <c r="AU58" s="3"/>
       <c r="AV58" s="3"/>
       <c r="AW58" s="3"/>
-      <c r="AX58" s="3"/>
-      <c r="AY58" s="9" t="n">
-        <v>1</v>
+      <c r="AY58" s="34" t="n">
+        <f aca="false">2/3</f>
+        <v>0.666666666666667</v>
       </c>
       <c r="AZ58" s="3"/>
       <c r="BA58" s="3"/>
       <c r="BB58" s="3"/>
       <c r="BC58" s="3"/>
-      <c r="BD58" s="3"/>
-      <c r="BE58" s="3"/>
-      <c r="BF58" s="13" t="n">
-        <v>-4</v>
-      </c>
-      <c r="BG58" s="7" t="n">
-        <v>2</v>
-      </c>
-      <c r="BH58" s="3"/>
+      <c r="BF58" s="30" t="n">
+        <v>0</v>
+      </c>
       <c r="BI58" s="3"/>
       <c r="BJ58" s="3"/>
       <c r="BK58" s="3"/>
       <c r="BL58" s="3"/>
-      <c r="BM58" s="9" t="n">
-        <v>1</v>
-      </c>
-      <c r="BN58" s="3"/>
+      <c r="BM58" s="33" t="n">
+        <f aca="false">-2/3</f>
+        <v>-0.666666666666667</v>
+      </c>
       <c r="BO58" s="3"/>
       <c r="BP58" s="3"/>
       <c r="BQ58" s="3"/>
       <c r="BR58" s="3"/>
       <c r="BS58" s="3"/>
-      <c r="BT58" s="3"/>
+      <c r="BT58" s="32" t="n">
+        <f aca="false">1/12</f>
+        <v>0.0833333333333333</v>
+      </c>
       <c r="BU58" s="3"/>
       <c r="BV58" s="3"/>
       <c r="BW58" s="3"/>
@@ -36029,9 +35768,6 @@
       <c r="CJ58" s="3"/>
       <c r="CK58" s="3"/>
       <c r="CL58" s="3"/>
-      <c r="CN58" s="2" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="4" t="n">
@@ -36080,45 +35816,43 @@
       <c r="AP59" s="3"/>
       <c r="AQ59" s="3"/>
       <c r="AR59" s="3"/>
-      <c r="AS59" s="3"/>
+      <c r="AS59" s="35" t="n">
+        <f aca="false">-1/12</f>
+        <v>-0.0833333333333333</v>
+      </c>
       <c r="AT59" s="3"/>
       <c r="AU59" s="3"/>
       <c r="AV59" s="3"/>
       <c r="AW59" s="3"/>
       <c r="AX59" s="3"/>
-      <c r="AY59" s="3"/>
-      <c r="AZ59" s="9" t="n">
-        <v>1</v>
+      <c r="AZ59" s="34" t="n">
+        <f aca="false">2/3</f>
+        <v>0.666666666666667</v>
       </c>
       <c r="BA59" s="3"/>
       <c r="BB59" s="3"/>
       <c r="BC59" s="3"/>
       <c r="BD59" s="3"/>
-      <c r="BE59" s="3"/>
-      <c r="BF59" s="9" t="n">
-        <v>1</v>
-      </c>
-      <c r="BG59" s="6" t="n">
-        <v>-4</v>
-      </c>
-      <c r="BH59" s="9" t="n">
-        <v>1</v>
-      </c>
-      <c r="BI59" s="3"/>
+      <c r="BG59" s="30" t="n">
+        <v>0</v>
+      </c>
       <c r="BJ59" s="3"/>
       <c r="BK59" s="3"/>
       <c r="BL59" s="3"/>
       <c r="BM59" s="3"/>
-      <c r="BN59" s="9" t="n">
-        <v>1</v>
-      </c>
-      <c r="BO59" s="3"/>
+      <c r="BN59" s="33" t="n">
+        <f aca="false">-2/3</f>
+        <v>-0.666666666666667</v>
+      </c>
       <c r="BP59" s="3"/>
       <c r="BQ59" s="3"/>
       <c r="BR59" s="3"/>
       <c r="BS59" s="3"/>
       <c r="BT59" s="3"/>
-      <c r="BU59" s="3"/>
+      <c r="BU59" s="32" t="n">
+        <f aca="false">1/12</f>
+        <v>0.0833333333333333</v>
+      </c>
       <c r="BV59" s="3"/>
       <c r="BW59" s="3"/>
       <c r="BX59" s="3"/>
@@ -36136,9 +35870,6 @@
       <c r="CJ59" s="3"/>
       <c r="CK59" s="3"/>
       <c r="CL59" s="3"/>
-      <c r="CN59" s="25" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="4" t="n">
@@ -36188,45 +35919,43 @@
       <c r="AQ60" s="3"/>
       <c r="AR60" s="3"/>
       <c r="AS60" s="3"/>
-      <c r="AT60" s="3"/>
+      <c r="AT60" s="35" t="n">
+        <f aca="false">-1/12</f>
+        <v>-0.0833333333333333</v>
+      </c>
       <c r="AU60" s="3"/>
       <c r="AV60" s="3"/>
       <c r="AW60" s="3"/>
       <c r="AX60" s="3"/>
       <c r="AY60" s="3"/>
-      <c r="AZ60" s="3"/>
-      <c r="BA60" s="9" t="n">
-        <v>1</v>
+      <c r="BA60" s="34" t="n">
+        <f aca="false">2/3</f>
+        <v>0.666666666666667</v>
       </c>
       <c r="BB60" s="3"/>
       <c r="BC60" s="3"/>
       <c r="BD60" s="3"/>
       <c r="BE60" s="3"/>
-      <c r="BF60" s="3"/>
-      <c r="BG60" s="9" t="n">
-        <v>1</v>
-      </c>
-      <c r="BH60" s="6" t="n">
-        <v>-4</v>
-      </c>
-      <c r="BI60" s="9" t="n">
-        <v>1</v>
-      </c>
-      <c r="BJ60" s="3"/>
+      <c r="BH60" s="30" t="n">
+        <v>0</v>
+      </c>
       <c r="BK60" s="3"/>
       <c r="BL60" s="3"/>
       <c r="BM60" s="3"/>
       <c r="BN60" s="3"/>
-      <c r="BO60" s="9" t="n">
-        <v>1</v>
-      </c>
-      <c r="BP60" s="3"/>
+      <c r="BO60" s="33" t="n">
+        <f aca="false">-2/3</f>
+        <v>-0.666666666666667</v>
+      </c>
       <c r="BQ60" s="3"/>
       <c r="BR60" s="3"/>
       <c r="BS60" s="3"/>
       <c r="BT60" s="3"/>
       <c r="BU60" s="3"/>
-      <c r="BV60" s="3"/>
+      <c r="BV60" s="32" t="n">
+        <f aca="false">1/12</f>
+        <v>0.0833333333333333</v>
+      </c>
       <c r="BW60" s="3"/>
       <c r="BX60" s="3"/>
       <c r="BY60" s="3"/>
@@ -36243,9 +35972,6 @@
       <c r="CJ60" s="3"/>
       <c r="CK60" s="3"/>
       <c r="CL60" s="3"/>
-      <c r="CN60" s="2" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="4" t="n">
@@ -36296,45 +36022,43 @@
       <c r="AR61" s="3"/>
       <c r="AS61" s="3"/>
       <c r="AT61" s="3"/>
-      <c r="AU61" s="3"/>
+      <c r="AU61" s="35" t="n">
+        <f aca="false">-1/12</f>
+        <v>-0.0833333333333333</v>
+      </c>
       <c r="AV61" s="3"/>
       <c r="AW61" s="3"/>
       <c r="AX61" s="3"/>
       <c r="AY61" s="3"/>
       <c r="AZ61" s="3"/>
-      <c r="BA61" s="3"/>
-      <c r="BB61" s="9" t="n">
-        <v>1</v>
+      <c r="BB61" s="34" t="n">
+        <f aca="false">2/3</f>
+        <v>0.666666666666667</v>
       </c>
       <c r="BC61" s="3"/>
       <c r="BD61" s="3"/>
       <c r="BE61" s="3"/>
       <c r="BF61" s="3"/>
-      <c r="BG61" s="3"/>
-      <c r="BH61" s="9" t="n">
-        <v>1</v>
-      </c>
-      <c r="BI61" s="6" t="n">
-        <v>-4</v>
-      </c>
-      <c r="BJ61" s="9" t="n">
-        <v>1</v>
-      </c>
-      <c r="BK61" s="3"/>
+      <c r="BI61" s="30" t="n">
+        <v>0</v>
+      </c>
       <c r="BL61" s="3"/>
       <c r="BM61" s="3"/>
       <c r="BN61" s="3"/>
       <c r="BO61" s="3"/>
-      <c r="BP61" s="9" t="n">
-        <v>1</v>
-      </c>
-      <c r="BQ61" s="3"/>
+      <c r="BP61" s="33" t="n">
+        <f aca="false">-2/3</f>
+        <v>-0.666666666666667</v>
+      </c>
       <c r="BR61" s="3"/>
       <c r="BS61" s="3"/>
       <c r="BT61" s="3"/>
       <c r="BU61" s="3"/>
       <c r="BV61" s="3"/>
-      <c r="BW61" s="3"/>
+      <c r="BW61" s="32" t="n">
+        <f aca="false">1/12</f>
+        <v>0.0833333333333333</v>
+      </c>
       <c r="BX61" s="3"/>
       <c r="BY61" s="3"/>
       <c r="BZ61" s="3"/>
@@ -36350,9 +36074,6 @@
       <c r="CJ61" s="3"/>
       <c r="CK61" s="3"/>
       <c r="CL61" s="3"/>
-      <c r="CN61" s="25" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="4" t="n">
@@ -36404,45 +36125,43 @@
       <c r="AS62" s="3"/>
       <c r="AT62" s="3"/>
       <c r="AU62" s="3"/>
-      <c r="AV62" s="3"/>
+      <c r="AV62" s="35" t="n">
+        <f aca="false">-1/12</f>
+        <v>-0.0833333333333333</v>
+      </c>
       <c r="AW62" s="3"/>
       <c r="AX62" s="3"/>
       <c r="AY62" s="3"/>
       <c r="AZ62" s="3"/>
       <c r="BA62" s="3"/>
-      <c r="BB62" s="3"/>
-      <c r="BC62" s="9" t="n">
-        <v>1</v>
+      <c r="BC62" s="34" t="n">
+        <f aca="false">2/3</f>
+        <v>0.666666666666667</v>
       </c>
       <c r="BD62" s="3"/>
       <c r="BE62" s="3"/>
       <c r="BF62" s="3"/>
       <c r="BG62" s="3"/>
-      <c r="BH62" s="3"/>
-      <c r="BI62" s="9" t="n">
-        <v>1</v>
-      </c>
-      <c r="BJ62" s="6" t="n">
-        <v>-4</v>
-      </c>
-      <c r="BK62" s="9" t="n">
-        <v>1</v>
-      </c>
-      <c r="BL62" s="3"/>
+      <c r="BJ62" s="30" t="n">
+        <v>0</v>
+      </c>
       <c r="BM62" s="3"/>
       <c r="BN62" s="3"/>
       <c r="BO62" s="3"/>
       <c r="BP62" s="3"/>
-      <c r="BQ62" s="9" t="n">
-        <v>1</v>
-      </c>
-      <c r="BR62" s="3"/>
+      <c r="BQ62" s="33" t="n">
+        <f aca="false">-2/3</f>
+        <v>-0.666666666666667</v>
+      </c>
       <c r="BS62" s="3"/>
       <c r="BT62" s="3"/>
       <c r="BU62" s="3"/>
       <c r="BV62" s="3"/>
       <c r="BW62" s="3"/>
-      <c r="BX62" s="3"/>
+      <c r="BX62" s="32" t="n">
+        <f aca="false">1/12</f>
+        <v>0.0833333333333333</v>
+      </c>
       <c r="BY62" s="3"/>
       <c r="BZ62" s="3"/>
       <c r="CA62" s="3"/>
@@ -36457,9 +36176,6 @@
       <c r="CJ62" s="3"/>
       <c r="CK62" s="3"/>
       <c r="CL62" s="3"/>
-      <c r="CN62" s="2" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="4" t="n">
@@ -36512,45 +36228,43 @@
       <c r="AT63" s="3"/>
       <c r="AU63" s="3"/>
       <c r="AV63" s="3"/>
-      <c r="AW63" s="3"/>
+      <c r="AW63" s="35" t="n">
+        <f aca="false">-1/12</f>
+        <v>-0.0833333333333333</v>
+      </c>
       <c r="AX63" s="3"/>
       <c r="AY63" s="3"/>
       <c r="AZ63" s="3"/>
       <c r="BA63" s="3"/>
       <c r="BB63" s="3"/>
-      <c r="BC63" s="3"/>
-      <c r="BD63" s="9" t="n">
-        <v>1</v>
+      <c r="BD63" s="34" t="n">
+        <f aca="false">2/3</f>
+        <v>0.666666666666667</v>
       </c>
       <c r="BE63" s="3"/>
       <c r="BF63" s="3"/>
       <c r="BG63" s="3"/>
       <c r="BH63" s="3"/>
-      <c r="BI63" s="3"/>
-      <c r="BJ63" s="9" t="n">
-        <v>1</v>
-      </c>
-      <c r="BK63" s="6" t="n">
-        <v>-4</v>
-      </c>
-      <c r="BL63" s="9" t="n">
-        <v>1</v>
-      </c>
-      <c r="BM63" s="3"/>
+      <c r="BK63" s="30" t="n">
+        <v>0</v>
+      </c>
       <c r="BN63" s="3"/>
       <c r="BO63" s="3"/>
       <c r="BP63" s="3"/>
       <c r="BQ63" s="3"/>
-      <c r="BR63" s="9" t="n">
-        <v>1</v>
-      </c>
-      <c r="BS63" s="3"/>
+      <c r="BR63" s="33" t="n">
+        <f aca="false">-2/3</f>
+        <v>-0.666666666666667</v>
+      </c>
       <c r="BT63" s="3"/>
       <c r="BU63" s="3"/>
       <c r="BV63" s="3"/>
       <c r="BW63" s="3"/>
       <c r="BX63" s="3"/>
-      <c r="BY63" s="3"/>
+      <c r="BY63" s="32" t="n">
+        <f aca="false">1/12</f>
+        <v>0.0833333333333333</v>
+      </c>
       <c r="BZ63" s="3"/>
       <c r="CA63" s="3"/>
       <c r="CB63" s="3"/>
@@ -36564,9 +36278,6 @@
       <c r="CJ63" s="3"/>
       <c r="CK63" s="3"/>
       <c r="CL63" s="3"/>
-      <c r="CN63" s="25" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="4" t="n">
@@ -36620,43 +36331,43 @@
       <c r="AU64" s="3"/>
       <c r="AV64" s="3"/>
       <c r="AW64" s="3"/>
-      <c r="AX64" s="3"/>
+      <c r="AX64" s="35" t="n">
+        <f aca="false">-1/12</f>
+        <v>-0.0833333333333333</v>
+      </c>
       <c r="AY64" s="3"/>
       <c r="AZ64" s="3"/>
       <c r="BA64" s="3"/>
       <c r="BB64" s="3"/>
       <c r="BC64" s="3"/>
-      <c r="BD64" s="3"/>
-      <c r="BE64" s="9" t="n">
-        <v>1</v>
+      <c r="BE64" s="34" t="n">
+        <f aca="false">2/3</f>
+        <v>0.666666666666667</v>
       </c>
       <c r="BF64" s="3"/>
       <c r="BG64" s="3"/>
       <c r="BH64" s="3"/>
       <c r="BI64" s="3"/>
-      <c r="BJ64" s="3"/>
-      <c r="BK64" s="7" t="n">
-        <v>2</v>
-      </c>
-      <c r="BL64" s="6" t="n">
-        <v>-4</v>
-      </c>
-      <c r="BM64" s="3"/>
-      <c r="BN64" s="3"/>
+      <c r="BL64" s="30" t="n">
+        <v>0</v>
+      </c>
       <c r="BO64" s="3"/>
       <c r="BP64" s="3"/>
       <c r="BQ64" s="3"/>
       <c r="BR64" s="3"/>
-      <c r="BS64" s="9" t="n">
-        <v>1</v>
-      </c>
-      <c r="BT64" s="3"/>
+      <c r="BS64" s="33" t="n">
+        <f aca="false">-2/3</f>
+        <v>-0.666666666666667</v>
+      </c>
       <c r="BU64" s="3"/>
       <c r="BV64" s="3"/>
       <c r="BW64" s="3"/>
       <c r="BX64" s="3"/>
       <c r="BY64" s="3"/>
-      <c r="BZ64" s="3"/>
+      <c r="BZ64" s="32" t="n">
+        <f aca="false">1/12</f>
+        <v>0.0833333333333333</v>
+      </c>
       <c r="CA64" s="3"/>
       <c r="CB64" s="3"/>
       <c r="CC64" s="3"/>
@@ -36669,9 +36380,6 @@
       <c r="CJ64" s="3"/>
       <c r="CK64" s="3"/>
       <c r="CL64" s="3"/>
-      <c r="CN64" s="2" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="4" t="n">
@@ -36726,35 +36434,23 @@
       <c r="AV65" s="3"/>
       <c r="AW65" s="3"/>
       <c r="AX65" s="3"/>
-      <c r="AY65" s="3"/>
-      <c r="AZ65" s="3"/>
-      <c r="BA65" s="3"/>
-      <c r="BB65" s="3"/>
-      <c r="BC65" s="3"/>
-      <c r="BD65" s="3"/>
-      <c r="BE65" s="3"/>
-      <c r="BF65" s="9" t="n">
-        <v>1</v>
+      <c r="BF65" s="31" t="n">
+        <f aca="false">1/2</f>
+        <v>0.5</v>
       </c>
       <c r="BG65" s="3"/>
       <c r="BH65" s="3"/>
       <c r="BI65" s="3"/>
       <c r="BJ65" s="3"/>
-      <c r="BK65" s="3"/>
-      <c r="BL65" s="3"/>
-      <c r="BM65" s="13" t="n">
-        <v>-4</v>
-      </c>
-      <c r="BN65" s="7" t="n">
-        <v>2</v>
-      </c>
-      <c r="BO65" s="3"/>
-      <c r="BP65" s="3"/>
+      <c r="BM65" s="30" t="n">
+        <v>0</v>
+      </c>
       <c r="BQ65" s="3"/>
       <c r="BR65" s="3"/>
       <c r="BS65" s="3"/>
-      <c r="BT65" s="9" t="n">
-        <v>1</v>
+      <c r="BT65" s="28" t="n">
+        <f aca="false">-1/2</f>
+        <v>-0.5</v>
       </c>
       <c r="BU65" s="3"/>
       <c r="BV65" s="3"/>
@@ -36774,9 +36470,6 @@
       <c r="CJ65" s="3"/>
       <c r="CK65" s="3"/>
       <c r="CL65" s="3"/>
-      <c r="CN65" s="25" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="4" t="n">
@@ -36839,30 +36532,23 @@
       <c r="BD66" s="3"/>
       <c r="BE66" s="3"/>
       <c r="BF66" s="3"/>
-      <c r="BG66" s="9" t="n">
-        <v>1</v>
+      <c r="BG66" s="31" t="n">
+        <f aca="false">1/2</f>
+        <v>0.5</v>
       </c>
       <c r="BH66" s="3"/>
       <c r="BI66" s="3"/>
       <c r="BJ66" s="3"/>
       <c r="BK66" s="3"/>
-      <c r="BL66" s="3"/>
-      <c r="BM66" s="9" t="n">
-        <v>1</v>
-      </c>
-      <c r="BN66" s="6" t="n">
-        <v>-4</v>
-      </c>
-      <c r="BO66" s="9" t="n">
-        <v>1</v>
-      </c>
-      <c r="BP66" s="3"/>
-      <c r="BQ66" s="3"/>
+      <c r="BN66" s="30" t="n">
+        <v>0</v>
+      </c>
       <c r="BR66" s="3"/>
       <c r="BS66" s="3"/>
       <c r="BT66" s="3"/>
-      <c r="BU66" s="9" t="n">
-        <v>1</v>
+      <c r="BU66" s="28" t="n">
+        <f aca="false">-1/2</f>
+        <v>-0.5</v>
       </c>
       <c r="BV66" s="3"/>
       <c r="BW66" s="3"/>
@@ -36881,9 +36567,6 @@
       <c r="CJ66" s="3"/>
       <c r="CK66" s="3"/>
       <c r="CL66" s="3"/>
-      <c r="CN66" s="2" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="4" t="n">
@@ -36947,30 +36630,23 @@
       <c r="BE67" s="3"/>
       <c r="BF67" s="3"/>
       <c r="BG67" s="3"/>
-      <c r="BH67" s="9" t="n">
-        <v>1</v>
+      <c r="BH67" s="31" t="n">
+        <f aca="false">1/2</f>
+        <v>0.5</v>
       </c>
       <c r="BI67" s="3"/>
       <c r="BJ67" s="3"/>
       <c r="BK67" s="3"/>
       <c r="BL67" s="3"/>
-      <c r="BM67" s="3"/>
-      <c r="BN67" s="9" t="n">
-        <v>1</v>
-      </c>
-      <c r="BO67" s="6" t="n">
-        <v>-4</v>
-      </c>
-      <c r="BP67" s="9" t="n">
-        <v>1</v>
-      </c>
-      <c r="BQ67" s="3"/>
-      <c r="BR67" s="3"/>
+      <c r="BO67" s="30" t="n">
+        <v>0</v>
+      </c>
       <c r="BS67" s="3"/>
       <c r="BT67" s="3"/>
       <c r="BU67" s="3"/>
-      <c r="BV67" s="9" t="n">
-        <v>1</v>
+      <c r="BV67" s="28" t="n">
+        <f aca="false">-1/2</f>
+        <v>-0.5</v>
       </c>
       <c r="BW67" s="3"/>
       <c r="BX67" s="3"/>
@@ -36988,9 +36664,6 @@
       <c r="CJ67" s="3"/>
       <c r="CK67" s="3"/>
       <c r="CL67" s="3"/>
-      <c r="CN67" s="25" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="4" t="n">
@@ -37055,30 +36728,23 @@
       <c r="BF68" s="3"/>
       <c r="BG68" s="3"/>
       <c r="BH68" s="3"/>
-      <c r="BI68" s="9" t="n">
-        <v>1</v>
+      <c r="BI68" s="31" t="n">
+        <f aca="false">1/2</f>
+        <v>0.5</v>
       </c>
       <c r="BJ68" s="3"/>
       <c r="BK68" s="3"/>
       <c r="BL68" s="3"/>
       <c r="BM68" s="3"/>
-      <c r="BN68" s="3"/>
-      <c r="BO68" s="9" t="n">
-        <v>1</v>
-      </c>
-      <c r="BP68" s="6" t="n">
-        <v>-4</v>
-      </c>
-      <c r="BQ68" s="9" t="n">
-        <v>1</v>
-      </c>
-      <c r="BR68" s="3"/>
-      <c r="BS68" s="3"/>
+      <c r="BP68" s="30" t="n">
+        <v>0</v>
+      </c>
       <c r="BT68" s="3"/>
       <c r="BU68" s="3"/>
       <c r="BV68" s="3"/>
-      <c r="BW68" s="9" t="n">
-        <v>1</v>
+      <c r="BW68" s="28" t="n">
+        <f aca="false">-1/2</f>
+        <v>-0.5</v>
       </c>
       <c r="BX68" s="3"/>
       <c r="BY68" s="3"/>
@@ -37095,9 +36761,6 @@
       <c r="CJ68" s="3"/>
       <c r="CK68" s="3"/>
       <c r="CL68" s="3"/>
-      <c r="CN68" s="2" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="4" t="n">
@@ -37163,30 +36826,23 @@
       <c r="BG69" s="3"/>
       <c r="BH69" s="3"/>
       <c r="BI69" s="3"/>
-      <c r="BJ69" s="9" t="n">
-        <v>1</v>
+      <c r="BJ69" s="31" t="n">
+        <f aca="false">1/2</f>
+        <v>0.5</v>
       </c>
       <c r="BK69" s="3"/>
       <c r="BL69" s="3"/>
       <c r="BM69" s="3"/>
       <c r="BN69" s="3"/>
-      <c r="BO69" s="3"/>
-      <c r="BP69" s="9" t="n">
-        <v>1</v>
-      </c>
-      <c r="BQ69" s="6" t="n">
-        <v>-4</v>
-      </c>
-      <c r="BR69" s="9" t="n">
-        <v>1</v>
-      </c>
-      <c r="BS69" s="3"/>
-      <c r="BT69" s="3"/>
+      <c r="BQ69" s="30" t="n">
+        <v>0</v>
+      </c>
       <c r="BU69" s="3"/>
       <c r="BV69" s="3"/>
       <c r="BW69" s="3"/>
-      <c r="BX69" s="9" t="n">
-        <v>1</v>
+      <c r="BX69" s="28" t="n">
+        <f aca="false">-1/2</f>
+        <v>-0.5</v>
       </c>
       <c r="BY69" s="3"/>
       <c r="BZ69" s="3"/>
@@ -37202,9 +36858,6 @@
       <c r="CJ69" s="3"/>
       <c r="CK69" s="3"/>
       <c r="CL69" s="3"/>
-      <c r="CN69" s="25" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="4" t="n">
@@ -37271,30 +36924,23 @@
       <c r="BH70" s="3"/>
       <c r="BI70" s="3"/>
       <c r="BJ70" s="3"/>
-      <c r="BK70" s="9" t="n">
-        <v>1</v>
+      <c r="BK70" s="31" t="n">
+        <f aca="false">1/2</f>
+        <v>0.5</v>
       </c>
       <c r="BL70" s="3"/>
       <c r="BM70" s="3"/>
       <c r="BN70" s="3"/>
       <c r="BO70" s="3"/>
-      <c r="BP70" s="3"/>
-      <c r="BQ70" s="9" t="n">
-        <v>1</v>
-      </c>
-      <c r="BR70" s="6" t="n">
-        <v>-4</v>
-      </c>
-      <c r="BS70" s="9" t="n">
-        <v>1</v>
-      </c>
-      <c r="BT70" s="3"/>
-      <c r="BU70" s="3"/>
+      <c r="BR70" s="30" t="n">
+        <v>0</v>
+      </c>
       <c r="BV70" s="3"/>
       <c r="BW70" s="3"/>
       <c r="BX70" s="3"/>
-      <c r="BY70" s="9" t="n">
-        <v>1</v>
+      <c r="BY70" s="28" t="n">
+        <f aca="false">-1/2</f>
+        <v>-0.5</v>
       </c>
       <c r="BZ70" s="3"/>
       <c r="CA70" s="3"/>
@@ -37309,9 +36955,6 @@
       <c r="CJ70" s="3"/>
       <c r="CK70" s="3"/>
       <c r="CL70" s="3"/>
-      <c r="CN70" s="2" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="4" t="n">
@@ -37379,28 +37022,23 @@
       <c r="BI71" s="3"/>
       <c r="BJ71" s="3"/>
       <c r="BK71" s="3"/>
-      <c r="BL71" s="9" t="n">
-        <v>1</v>
+      <c r="BL71" s="31" t="n">
+        <f aca="false">1/2</f>
+        <v>0.5</v>
       </c>
       <c r="BM71" s="3"/>
       <c r="BN71" s="3"/>
       <c r="BO71" s="3"/>
       <c r="BP71" s="3"/>
-      <c r="BQ71" s="3"/>
-      <c r="BR71" s="7" t="n">
-        <v>2</v>
-      </c>
-      <c r="BS71" s="6" t="n">
-        <v>-4</v>
-      </c>
-      <c r="BT71" s="3"/>
-      <c r="BU71" s="3"/>
-      <c r="BV71" s="3"/>
+      <c r="BS71" s="30" t="n">
+        <v>0</v>
+      </c>
       <c r="BW71" s="3"/>
       <c r="BX71" s="3"/>
       <c r="BY71" s="3"/>
-      <c r="BZ71" s="9" t="n">
-        <v>1</v>
+      <c r="BZ71" s="28" t="n">
+        <f aca="false">-1/2</f>
+        <v>-0.5</v>
       </c>
       <c r="CA71" s="3"/>
       <c r="CB71" s="3"/>
@@ -37414,9 +37052,6 @@
       <c r="CJ71" s="3"/>
       <c r="CK71" s="3"/>
       <c r="CL71" s="3"/>
-      <c r="CN71" s="25" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="4" t="n">
@@ -37471,43 +37106,48 @@
       <c r="AV72" s="3"/>
       <c r="AW72" s="3"/>
       <c r="AX72" s="3"/>
-      <c r="AY72" s="3"/>
+      <c r="AY72" s="3" t="n">
+        <f aca="false">1/3</f>
+        <v>0.333333333333333</v>
+      </c>
       <c r="AZ72" s="3"/>
       <c r="BA72" s="3"/>
       <c r="BB72" s="3"/>
       <c r="BC72" s="3"/>
       <c r="BD72" s="3"/>
       <c r="BE72" s="3"/>
-      <c r="BF72" s="3"/>
+      <c r="BF72" s="3" t="n">
+        <f aca="false">-3/2</f>
+        <v>-1.5</v>
+      </c>
       <c r="BG72" s="3"/>
       <c r="BH72" s="3"/>
       <c r="BI72" s="3"/>
       <c r="BJ72" s="3"/>
       <c r="BK72" s="3"/>
-      <c r="BL72" s="8"/>
-      <c r="BM72" s="7" t="n">
-        <v>2</v>
-      </c>
-      <c r="BN72" s="8"/>
-      <c r="BO72" s="8"/>
-      <c r="BP72" s="8"/>
-      <c r="BQ72" s="8"/>
-      <c r="BR72" s="8"/>
-      <c r="BS72" s="8"/>
-      <c r="BT72" s="18" t="n">
-        <v>-4</v>
-      </c>
-      <c r="BU72" s="7" t="n">
-        <v>2</v>
-      </c>
-      <c r="BV72" s="8"/>
-      <c r="BW72" s="8"/>
-      <c r="BX72" s="8"/>
-      <c r="BY72" s="8"/>
-      <c r="BZ72" s="8"/>
-      <c r="CA72" s="8"/>
-      <c r="CB72" s="8"/>
-      <c r="CC72" s="8"/>
+      <c r="BL72" s="3"/>
+      <c r="BM72" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="BN72" s="3"/>
+      <c r="BO72" s="3"/>
+      <c r="BP72" s="3"/>
+      <c r="BQ72" s="3"/>
+      <c r="BR72" s="3"/>
+      <c r="BS72" s="3"/>
+      <c r="BT72" s="3" t="n">
+        <f aca="false">-11/6</f>
+        <v>-1.83333333333333</v>
+      </c>
+      <c r="BU72" s="3"/>
+      <c r="BV72" s="3"/>
+      <c r="BW72" s="3"/>
+      <c r="BX72" s="3"/>
+      <c r="BY72" s="3"/>
+      <c r="BZ72" s="3"/>
+      <c r="CA72" s="3"/>
+      <c r="CB72" s="3"/>
+      <c r="CC72" s="3"/>
       <c r="CD72" s="3"/>
       <c r="CE72" s="3"/>
       <c r="CF72" s="3"/>
@@ -37517,10 +37157,6 @@
       <c r="CJ72" s="3"/>
       <c r="CK72" s="3"/>
       <c r="CL72" s="3"/>
-      <c r="CN72" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="CP72" s="15"/>
     </row>
     <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="4" t="n">
@@ -37583,52 +37219,44 @@
       <c r="BD73" s="3"/>
       <c r="BE73" s="3"/>
       <c r="BF73" s="3"/>
-      <c r="BG73" s="3"/>
+      <c r="BG73" s="35" t="n">
+        <f aca="false">-1/12</f>
+        <v>-0.0833333333333333</v>
+      </c>
       <c r="BH73" s="3"/>
       <c r="BI73" s="3"/>
       <c r="BJ73" s="3"/>
       <c r="BK73" s="3"/>
-      <c r="BL73" s="8"/>
-      <c r="BM73" s="8"/>
-      <c r="BN73" s="8" t="n">
-        <v>2</v>
-      </c>
-      <c r="BO73" s="8"/>
-      <c r="BP73" s="8"/>
-      <c r="BQ73" s="8"/>
-      <c r="BR73" s="8"/>
-      <c r="BS73" s="8"/>
-      <c r="BT73" s="8" t="n">
-        <v>1</v>
-      </c>
-      <c r="BU73" s="8" t="n">
-        <v>-6</v>
-      </c>
-      <c r="BV73" s="8" t="n">
-        <v>2</v>
-      </c>
-      <c r="BW73" s="8"/>
-      <c r="BX73" s="8"/>
-      <c r="BY73" s="8"/>
-      <c r="BZ73" s="8"/>
-      <c r="CA73" s="8" t="n">
-        <v>1</v>
-      </c>
-      <c r="CB73" s="8"/>
-      <c r="CC73" s="8"/>
+      <c r="BL73" s="3"/>
+      <c r="BN73" s="34" t="n">
+        <f aca="false">2/3</f>
+        <v>0.666666666666667</v>
+      </c>
+      <c r="BO73" s="3"/>
+      <c r="BP73" s="3"/>
+      <c r="BQ73" s="3"/>
+      <c r="BR73" s="3"/>
+      <c r="BU73" s="30" t="n">
+        <v>0</v>
+      </c>
+      <c r="BX73" s="3"/>
+      <c r="BY73" s="3"/>
+      <c r="BZ73" s="3"/>
+      <c r="CA73" s="33" t="n">
+        <f aca="false">-2/3</f>
+        <v>-0.666666666666667</v>
+      </c>
+      <c r="CC73" s="3"/>
       <c r="CD73" s="3"/>
       <c r="CE73" s="3"/>
       <c r="CF73" s="3"/>
-      <c r="CG73" s="3"/>
-      <c r="CH73" s="3"/>
-      <c r="CI73" s="3"/>
+      <c r="CG73" s="32" t="n">
+        <f aca="false">1/12</f>
+        <v>0.0833333333333333</v>
+      </c>
       <c r="CJ73" s="3"/>
       <c r="CK73" s="3"/>
       <c r="CL73" s="3"/>
-      <c r="CN73" s="25" t="n">
-        <v>0</v>
-      </c>
-      <c r="CP73" s="20"/>
     </row>
     <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="4" t="n">
@@ -37692,50 +37320,45 @@
       <c r="BE74" s="3"/>
       <c r="BF74" s="3"/>
       <c r="BG74" s="3"/>
-      <c r="BH74" s="3"/>
+      <c r="BH74" s="35" t="n">
+        <f aca="false">-1/12</f>
+        <v>-0.0833333333333333</v>
+      </c>
       <c r="BI74" s="3"/>
       <c r="BJ74" s="3"/>
       <c r="BK74" s="3"/>
       <c r="BL74" s="3"/>
       <c r="BM74" s="3"/>
-      <c r="BN74" s="3"/>
-      <c r="BO74" s="9" t="n">
-        <v>1</v>
+      <c r="BO74" s="34" t="n">
+        <f aca="false">2/3</f>
+        <v>0.666666666666667</v>
       </c>
       <c r="BP74" s="3"/>
       <c r="BQ74" s="3"/>
       <c r="BR74" s="3"/>
       <c r="BS74" s="3"/>
-      <c r="BT74" s="3"/>
-      <c r="BU74" s="9" t="n">
-        <v>1</v>
-      </c>
-      <c r="BV74" s="6" t="n">
-        <v>-4</v>
-      </c>
-      <c r="BW74" s="9" t="n">
-        <v>1</v>
-      </c>
-      <c r="BX74" s="3"/>
+      <c r="BV74" s="30" t="n">
+        <v>0</v>
+      </c>
       <c r="BY74" s="3"/>
       <c r="BZ74" s="3"/>
       <c r="CA74" s="3"/>
-      <c r="CB74" s="9" t="n">
-        <v>1</v>
-      </c>
-      <c r="CC74" s="3"/>
+      <c r="CB74" s="33" t="n">
+        <f aca="false">-2/3</f>
+        <v>-0.666666666666667</v>
+      </c>
       <c r="CD74" s="3"/>
       <c r="CE74" s="3"/>
       <c r="CF74" s="3"/>
       <c r="CG74" s="3"/>
-      <c r="CH74" s="3"/>
+      <c r="CH74" s="32" t="n">
+        <f aca="false">1/12</f>
+        <v>0.0833333333333333</v>
+      </c>
       <c r="CI74" s="3"/>
       <c r="CJ74" s="3"/>
       <c r="CK74" s="3"/>
       <c r="CL74" s="3"/>
-      <c r="CN74" s="2" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="4" t="n">
@@ -37800,49 +37423,44 @@
       <c r="BF75" s="3"/>
       <c r="BG75" s="3"/>
       <c r="BH75" s="3"/>
-      <c r="BI75" s="3"/>
+      <c r="BI75" s="35" t="n">
+        <f aca="false">-1/12</f>
+        <v>-0.0833333333333333</v>
+      </c>
       <c r="BJ75" s="3"/>
       <c r="BK75" s="3"/>
       <c r="BL75" s="3"/>
       <c r="BM75" s="3"/>
       <c r="BN75" s="3"/>
-      <c r="BO75" s="3"/>
-      <c r="BP75" s="9" t="n">
-        <v>1</v>
+      <c r="BP75" s="34" t="n">
+        <f aca="false">2/3</f>
+        <v>0.666666666666667</v>
       </c>
       <c r="BQ75" s="3"/>
       <c r="BR75" s="3"/>
       <c r="BS75" s="3"/>
       <c r="BT75" s="3"/>
-      <c r="BU75" s="3"/>
-      <c r="BV75" s="9" t="n">
-        <v>1</v>
-      </c>
-      <c r="BW75" s="6" t="n">
-        <v>-4</v>
-      </c>
-      <c r="BX75" s="9" t="n">
-        <v>1</v>
-      </c>
-      <c r="BY75" s="3"/>
+      <c r="BW75" s="30" t="n">
+        <v>0</v>
+      </c>
       <c r="BZ75" s="3"/>
       <c r="CA75" s="3"/>
       <c r="CB75" s="3"/>
-      <c r="CC75" s="9" t="n">
-        <v>1</v>
-      </c>
-      <c r="CD75" s="3"/>
+      <c r="CC75" s="33" t="n">
+        <f aca="false">-2/3</f>
+        <v>-0.666666666666667</v>
+      </c>
       <c r="CE75" s="3"/>
       <c r="CF75" s="3"/>
       <c r="CG75" s="3"/>
       <c r="CH75" s="3"/>
-      <c r="CI75" s="3"/>
+      <c r="CI75" s="32" t="n">
+        <f aca="false">1/12</f>
+        <v>0.0833333333333333</v>
+      </c>
       <c r="CJ75" s="3"/>
       <c r="CK75" s="3"/>
       <c r="CL75" s="3"/>
-      <c r="CN75" s="25" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="4" t="n">
@@ -37908,48 +37526,43 @@
       <c r="BG76" s="3"/>
       <c r="BH76" s="3"/>
       <c r="BI76" s="3"/>
-      <c r="BJ76" s="3"/>
+      <c r="BJ76" s="35" t="n">
+        <f aca="false">-1/12</f>
+        <v>-0.0833333333333333</v>
+      </c>
       <c r="BK76" s="3"/>
       <c r="BL76" s="3"/>
       <c r="BM76" s="3"/>
       <c r="BN76" s="3"/>
       <c r="BO76" s="3"/>
-      <c r="BP76" s="3"/>
-      <c r="BQ76" s="9" t="n">
-        <v>1</v>
+      <c r="BQ76" s="34" t="n">
+        <f aca="false">2/3</f>
+        <v>0.666666666666667</v>
       </c>
       <c r="BR76" s="3"/>
       <c r="BS76" s="3"/>
       <c r="BT76" s="3"/>
       <c r="BU76" s="3"/>
-      <c r="BV76" s="3"/>
-      <c r="BW76" s="9" t="n">
-        <v>1</v>
-      </c>
-      <c r="BX76" s="6" t="n">
-        <v>-4</v>
-      </c>
-      <c r="BY76" s="9" t="n">
-        <v>1</v>
-      </c>
-      <c r="BZ76" s="3"/>
+      <c r="BX76" s="30" t="n">
+        <v>0</v>
+      </c>
       <c r="CA76" s="3"/>
       <c r="CB76" s="3"/>
       <c r="CC76" s="3"/>
-      <c r="CD76" s="9" t="n">
-        <v>1</v>
-      </c>
-      <c r="CE76" s="3"/>
+      <c r="CD76" s="33" t="n">
+        <f aca="false">-2/3</f>
+        <v>-0.666666666666667</v>
+      </c>
       <c r="CF76" s="3"/>
       <c r="CG76" s="3"/>
       <c r="CH76" s="3"/>
       <c r="CI76" s="3"/>
-      <c r="CJ76" s="3"/>
+      <c r="CJ76" s="32" t="n">
+        <f aca="false">1/12</f>
+        <v>0.0833333333333333</v>
+      </c>
       <c r="CK76" s="3"/>
       <c r="CL76" s="3"/>
-      <c r="CN76" s="2" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="4" t="n">
@@ -38016,47 +37629,42 @@
       <c r="BH77" s="3"/>
       <c r="BI77" s="3"/>
       <c r="BJ77" s="3"/>
-      <c r="BK77" s="3"/>
+      <c r="BK77" s="35" t="n">
+        <f aca="false">-1/12</f>
+        <v>-0.0833333333333333</v>
+      </c>
       <c r="BL77" s="3"/>
       <c r="BM77" s="3"/>
       <c r="BN77" s="3"/>
       <c r="BO77" s="3"/>
       <c r="BP77" s="3"/>
-      <c r="BQ77" s="3"/>
-      <c r="BR77" s="9" t="n">
-        <v>1</v>
+      <c r="BR77" s="34" t="n">
+        <f aca="false">2/3</f>
+        <v>0.666666666666667</v>
       </c>
       <c r="BS77" s="3"/>
       <c r="BT77" s="3"/>
       <c r="BU77" s="3"/>
       <c r="BV77" s="3"/>
-      <c r="BW77" s="3"/>
-      <c r="BX77" s="9" t="n">
-        <v>1</v>
-      </c>
-      <c r="BY77" s="6" t="n">
-        <v>-4</v>
-      </c>
-      <c r="BZ77" s="9" t="n">
-        <v>1</v>
-      </c>
-      <c r="CA77" s="3"/>
+      <c r="BY77" s="30" t="n">
+        <v>0</v>
+      </c>
       <c r="CB77" s="3"/>
       <c r="CC77" s="3"/>
       <c r="CD77" s="3"/>
-      <c r="CE77" s="9" t="n">
-        <v>1</v>
-      </c>
-      <c r="CF77" s="3"/>
+      <c r="CE77" s="33" t="n">
+        <f aca="false">-2/3</f>
+        <v>-0.666666666666667</v>
+      </c>
       <c r="CG77" s="3"/>
       <c r="CH77" s="3"/>
       <c r="CI77" s="3"/>
       <c r="CJ77" s="3"/>
-      <c r="CK77" s="3"/>
+      <c r="CK77" s="32" t="n">
+        <f aca="false">1/12</f>
+        <v>0.0833333333333333</v>
+      </c>
       <c r="CL77" s="3"/>
-      <c r="CN77" s="25" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="78" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="4" t="n">
@@ -38124,42 +37732,40 @@
       <c r="BI78" s="3"/>
       <c r="BJ78" s="3"/>
       <c r="BK78" s="3"/>
-      <c r="BL78" s="3"/>
+      <c r="BL78" s="35" t="n">
+        <f aca="false">-1/12</f>
+        <v>-0.0833333333333333</v>
+      </c>
       <c r="BM78" s="3"/>
       <c r="BN78" s="3"/>
       <c r="BO78" s="3"/>
       <c r="BP78" s="3"/>
       <c r="BQ78" s="3"/>
-      <c r="BR78" s="3"/>
-      <c r="BS78" s="9" t="n">
-        <v>1</v>
+      <c r="BS78" s="34" t="n">
+        <f aca="false">2/3</f>
+        <v>0.666666666666667</v>
       </c>
       <c r="BT78" s="3"/>
       <c r="BU78" s="3"/>
       <c r="BV78" s="3"/>
       <c r="BW78" s="3"/>
-      <c r="BX78" s="3"/>
-      <c r="BY78" s="7" t="n">
-        <v>2</v>
-      </c>
-      <c r="BZ78" s="6" t="n">
-        <v>-4</v>
-      </c>
-      <c r="CA78" s="3"/>
-      <c r="CB78" s="3"/>
+      <c r="BZ78" s="30" t="n">
+        <v>0</v>
+      </c>
       <c r="CC78" s="3"/>
       <c r="CD78" s="3"/>
       <c r="CE78" s="3"/>
-      <c r="CF78" s="9" t="n">
-        <v>1</v>
+      <c r="CF78" s="33" t="n">
+        <f aca="false">-2/3</f>
+        <v>-0.666666666666667</v>
       </c>
       <c r="CH78" s="3"/>
       <c r="CI78" s="3"/>
       <c r="CJ78" s="3"/>
       <c r="CK78" s="3"/>
-      <c r="CL78" s="3"/>
-      <c r="CN78" s="2" t="n">
-        <v>0</v>
+      <c r="CL78" s="32" t="n">
+        <f aca="false">1/12</f>
+        <v>0.0833333333333333</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -38236,34 +37842,29 @@
       <c r="BQ79" s="3"/>
       <c r="BR79" s="3"/>
       <c r="BS79" s="3"/>
-      <c r="BU79" s="9" t="n">
-        <v>1</v>
+      <c r="BT79" s="0"/>
+      <c r="BU79" s="31" t="n">
+        <f aca="false">1/2</f>
+        <v>0.5</v>
       </c>
       <c r="BV79" s="3"/>
       <c r="BW79" s="3"/>
       <c r="BX79" s="3"/>
       <c r="BY79" s="3"/>
-      <c r="BZ79" s="3"/>
-      <c r="CA79" s="13" t="n">
-        <v>-4</v>
-      </c>
-      <c r="CB79" s="7" t="n">
-        <v>2</v>
-      </c>
-      <c r="CC79" s="3"/>
-      <c r="CD79" s="3"/>
+      <c r="CA79" s="30" t="n">
+        <v>0</v>
+      </c>
       <c r="CE79" s="3"/>
       <c r="CF79" s="3"/>
-      <c r="CG79" s="9" t="n">
-        <v>1</v>
-      </c>
+      <c r="CG79" s="28" t="n">
+        <f aca="false">-1/2</f>
+        <v>-0.5</v>
+      </c>
+      <c r="CH79" s="0"/>
       <c r="CI79" s="3"/>
       <c r="CJ79" s="3"/>
       <c r="CK79" s="3"/>
       <c r="CL79" s="3"/>
-      <c r="CN79" s="25" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="80" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="4" t="n">
@@ -38337,39 +37938,32 @@
       <c r="BO80" s="3"/>
       <c r="BP80" s="3"/>
       <c r="BQ80" s="3"/>
-      <c r="BR80" s="3"/>
-      <c r="BS80" s="3"/>
-      <c r="BU80" s="3"/>
-      <c r="BV80" s="9" t="n">
-        <v>1</v>
+      <c r="BR80" s="0"/>
+      <c r="BS80" s="0"/>
+      <c r="BT80" s="0"/>
+      <c r="BU80" s="0"/>
+      <c r="BV80" s="31" t="n">
+        <f aca="false">1/2</f>
+        <v>0.5</v>
       </c>
       <c r="BW80" s="3"/>
       <c r="BX80" s="3"/>
       <c r="BY80" s="3"/>
       <c r="BZ80" s="3"/>
-      <c r="CA80" s="9" t="n">
-        <v>1</v>
-      </c>
-      <c r="CB80" s="6" t="n">
-        <v>-4</v>
-      </c>
-      <c r="CC80" s="9" t="n">
-        <v>1</v>
-      </c>
-      <c r="CD80" s="3"/>
-      <c r="CE80" s="3"/>
+      <c r="CB80" s="30" t="n">
+        <v>0</v>
+      </c>
       <c r="CF80" s="3"/>
       <c r="CG80" s="3"/>
-      <c r="CH80" s="9" t="n">
-        <v>1</v>
-      </c>
-      <c r="CI80" s="3"/>
-      <c r="CJ80" s="3"/>
-      <c r="CK80" s="3"/>
-      <c r="CL80" s="3"/>
-      <c r="CN80" s="2" t="n">
-        <v>0</v>
-      </c>
+      <c r="CH80" s="28" t="n">
+        <f aca="false">-1/2</f>
+        <v>-0.5</v>
+      </c>
+      <c r="CI80" s="0"/>
+      <c r="CJ80" s="0"/>
+      <c r="CK80" s="0"/>
+      <c r="CL80" s="0"/>
+      <c r="CO80" s="0"/>
     </row>
     <row r="81" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="4" t="n">
@@ -38443,39 +38037,31 @@
       <c r="BO81" s="3"/>
       <c r="BP81" s="3"/>
       <c r="BQ81" s="3"/>
-      <c r="BR81" s="3"/>
-      <c r="BS81" s="3"/>
-      <c r="BU81" s="3"/>
-      <c r="BV81" s="3"/>
-      <c r="BW81" s="9" t="n">
-        <v>1</v>
+      <c r="BR81" s="0"/>
+      <c r="BS81" s="0"/>
+      <c r="BT81" s="0"/>
+      <c r="BU81" s="0"/>
+      <c r="BV81" s="0"/>
+      <c r="BW81" s="31" t="n">
+        <f aca="false">1/2</f>
+        <v>0.5</v>
       </c>
       <c r="BX81" s="3"/>
       <c r="BY81" s="3"/>
       <c r="BZ81" s="3"/>
-      <c r="CA81" s="3"/>
-      <c r="CB81" s="9" t="n">
-        <v>1</v>
-      </c>
-      <c r="CC81" s="6" t="n">
-        <v>-4</v>
-      </c>
-      <c r="CD81" s="9" t="n">
-        <v>1</v>
-      </c>
-      <c r="CE81" s="3"/>
-      <c r="CF81" s="3"/>
+      <c r="CC81" s="30" t="n">
+        <v>0</v>
+      </c>
       <c r="CG81" s="3"/>
       <c r="CH81" s="3"/>
-      <c r="CI81" s="9" t="n">
-        <v>1</v>
-      </c>
-      <c r="CJ81" s="3"/>
-      <c r="CK81" s="3"/>
-      <c r="CL81" s="3"/>
-      <c r="CN81" s="25" t="n">
-        <v>0</v>
-      </c>
+      <c r="CI81" s="28" t="n">
+        <f aca="false">-1/2</f>
+        <v>-0.5</v>
+      </c>
+      <c r="CJ81" s="0"/>
+      <c r="CK81" s="0"/>
+      <c r="CL81" s="0"/>
+      <c r="CO81" s="0"/>
     </row>
     <row r="82" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A82" s="4" t="n">
@@ -38549,39 +38135,31 @@
       <c r="BO82" s="3"/>
       <c r="BP82" s="3"/>
       <c r="BQ82" s="3"/>
-      <c r="BR82" s="3"/>
-      <c r="BS82" s="3"/>
-      <c r="BU82" s="3"/>
-      <c r="BV82" s="3"/>
-      <c r="BW82" s="3"/>
-      <c r="BX82" s="9" t="n">
-        <v>1</v>
+      <c r="BR82" s="0"/>
+      <c r="BS82" s="0"/>
+      <c r="BT82" s="0"/>
+      <c r="BU82" s="0"/>
+      <c r="BV82" s="0"/>
+      <c r="BW82" s="0"/>
+      <c r="BX82" s="31" t="n">
+        <f aca="false">1/2</f>
+        <v>0.5</v>
       </c>
       <c r="BY82" s="3"/>
       <c r="BZ82" s="3"/>
       <c r="CA82" s="3"/>
-      <c r="CB82" s="3"/>
-      <c r="CC82" s="9" t="n">
-        <v>1</v>
-      </c>
-      <c r="CD82" s="6" t="n">
-        <v>-4</v>
-      </c>
-      <c r="CE82" s="9" t="n">
-        <v>1</v>
-      </c>
-      <c r="CF82" s="3"/>
-      <c r="CG82" s="3"/>
+      <c r="CD82" s="30" t="n">
+        <v>0</v>
+      </c>
       <c r="CH82" s="3"/>
       <c r="CI82" s="3"/>
-      <c r="CJ82" s="9" t="n">
-        <v>1</v>
-      </c>
-      <c r="CK82" s="3"/>
-      <c r="CL82" s="3"/>
-      <c r="CN82" s="2" t="n">
-        <v>0</v>
-      </c>
+      <c r="CJ82" s="28" t="n">
+        <f aca="false">-1/2</f>
+        <v>-0.5</v>
+      </c>
+      <c r="CK82" s="0"/>
+      <c r="CL82" s="0"/>
+      <c r="CO82" s="0"/>
     </row>
     <row r="83" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="4" t="n">
@@ -38655,39 +38233,31 @@
       <c r="BO83" s="3"/>
       <c r="BP83" s="3"/>
       <c r="BQ83" s="3"/>
-      <c r="BR83" s="3"/>
-      <c r="BS83" s="3"/>
-      <c r="BU83" s="3"/>
-      <c r="BV83" s="3"/>
-      <c r="BW83" s="3"/>
-      <c r="BX83" s="3"/>
-      <c r="BY83" s="9" t="n">
-        <v>1</v>
+      <c r="BR83" s="0"/>
+      <c r="BS83" s="0"/>
+      <c r="BT83" s="0"/>
+      <c r="BU83" s="0"/>
+      <c r="BV83" s="0"/>
+      <c r="BW83" s="0"/>
+      <c r="BX83" s="0"/>
+      <c r="BY83" s="31" t="n">
+        <f aca="false">1/2</f>
+        <v>0.5</v>
       </c>
       <c r="BZ83" s="3"/>
       <c r="CA83" s="3"/>
       <c r="CB83" s="3"/>
-      <c r="CC83" s="3"/>
-      <c r="CD83" s="9" t="n">
-        <v>1</v>
-      </c>
-      <c r="CE83" s="6" t="n">
-        <v>-4</v>
-      </c>
-      <c r="CF83" s="9" t="n">
-        <v>1</v>
-      </c>
-      <c r="CG83" s="3"/>
-      <c r="CH83" s="3"/>
+      <c r="CE83" s="30" t="n">
+        <v>0</v>
+      </c>
       <c r="CI83" s="3"/>
       <c r="CJ83" s="3"/>
-      <c r="CK83" s="9" t="n">
-        <v>1</v>
-      </c>
-      <c r="CL83" s="3"/>
-      <c r="CN83" s="25" t="n">
-        <v>0</v>
-      </c>
+      <c r="CK83" s="28" t="n">
+        <f aca="false">-1/2</f>
+        <v>-0.5</v>
+      </c>
+      <c r="CL83" s="0"/>
+      <c r="CO83" s="0"/>
     </row>
     <row r="84" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A84" s="4" t="n">
@@ -38761,37 +38331,31 @@
       <c r="BO84" s="3"/>
       <c r="BP84" s="3"/>
       <c r="BQ84" s="3"/>
-      <c r="BR84" s="3"/>
-      <c r="BS84" s="3"/>
-      <c r="BT84" s="3"/>
-      <c r="BU84" s="3"/>
-      <c r="BV84" s="3"/>
-      <c r="BW84" s="3"/>
-      <c r="BX84" s="3"/>
-      <c r="BY84" s="3"/>
-      <c r="BZ84" s="9" t="n">
-        <v>1</v>
+      <c r="BR84" s="0"/>
+      <c r="BS84" s="0"/>
+      <c r="BT84" s="0"/>
+      <c r="BU84" s="0"/>
+      <c r="BV84" s="0"/>
+      <c r="BW84" s="0"/>
+      <c r="BX84" s="0"/>
+      <c r="BY84" s="0"/>
+      <c r="BZ84" s="31" t="n">
+        <f aca="false">1/2</f>
+        <v>0.5</v>
       </c>
       <c r="CA84" s="3"/>
       <c r="CB84" s="3"/>
       <c r="CC84" s="3"/>
-      <c r="CD84" s="3"/>
-      <c r="CE84" s="7" t="n">
-        <v>2</v>
-      </c>
-      <c r="CF84" s="6" t="n">
-        <v>-4</v>
-      </c>
-      <c r="CG84" s="3"/>
-      <c r="CH84" s="3"/>
-      <c r="CI84" s="3"/>
+      <c r="CF84" s="30" t="n">
+        <v>0</v>
+      </c>
       <c r="CJ84" s="3"/>
-      <c r="CL84" s="9" t="n">
-        <v>1</v>
-      </c>
-      <c r="CN84" s="2" t="n">
-        <v>0</v>
-      </c>
+      <c r="CK84" s="3"/>
+      <c r="CL84" s="28" t="n">
+        <f aca="false">-1/2</f>
+        <v>-0.5</v>
+      </c>
+      <c r="CO84" s="0"/>
     </row>
     <row r="85" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A85" s="4" t="n">
@@ -38859,30 +38423,45 @@
       <c r="BI85" s="3"/>
       <c r="BJ85" s="3"/>
       <c r="BK85" s="3"/>
-      <c r="BL85" s="3"/>
+      <c r="BL85" s="0"/>
       <c r="BM85" s="3"/>
-      <c r="BN85" s="3"/>
+      <c r="BN85" s="3" t="n">
+        <f aca="false">1/3</f>
+        <v>0.333333333333333</v>
+      </c>
       <c r="BO85" s="3"/>
       <c r="BP85" s="3"/>
       <c r="BQ85" s="3"/>
       <c r="BR85" s="3"/>
-      <c r="BS85" s="3"/>
+      <c r="BS85" s="0"/>
       <c r="BT85" s="3"/>
-      <c r="BU85" s="3"/>
+      <c r="BU85" s="3" t="n">
+        <f aca="false">-3/2</f>
+        <v>-1.5</v>
+      </c>
       <c r="BV85" s="3"/>
-      <c r="CA85" s="7" t="n">
-        <v>2</v>
-      </c>
-      <c r="CG85" s="13" t="n">
-        <v>-4</v>
-      </c>
-      <c r="CH85" s="7" t="n">
-        <v>2</v>
-      </c>
-      <c r="CN85" s="23" t="s">
-        <v>29</v>
-      </c>
-      <c r="CP85" s="22"/>
+      <c r="BW85" s="3"/>
+      <c r="BX85" s="3"/>
+      <c r="BY85" s="3"/>
+      <c r="BZ85" s="0"/>
+      <c r="CA85" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="CB85" s="3"/>
+      <c r="CC85" s="3"/>
+      <c r="CD85" s="3"/>
+      <c r="CE85" s="3"/>
+      <c r="CF85" s="3"/>
+      <c r="CG85" s="3" t="n">
+        <f aca="false">-11/6</f>
+        <v>-1.83333333333333</v>
+      </c>
+      <c r="CH85" s="0"/>
+      <c r="CI85" s="0"/>
+      <c r="CJ85" s="0"/>
+      <c r="CK85" s="0"/>
+      <c r="CL85" s="0"/>
+      <c r="CO85" s="0"/>
     </row>
     <row r="86" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A86" s="4" t="n">
@@ -38952,41 +38531,43 @@
       <c r="BK86" s="3"/>
       <c r="BL86" s="3"/>
       <c r="BM86" s="3"/>
-      <c r="BN86" s="3"/>
-      <c r="BO86" s="3"/>
+      <c r="BN86" s="0"/>
+      <c r="BO86" s="3" t="n">
+        <f aca="false">1/3</f>
+        <v>0.333333333333333</v>
+      </c>
       <c r="BP86" s="3"/>
       <c r="BQ86" s="3"/>
       <c r="BR86" s="3"/>
       <c r="BS86" s="3"/>
-      <c r="BT86" s="3"/>
+      <c r="BT86" s="0"/>
       <c r="BU86" s="3"/>
-      <c r="BV86" s="3"/>
-      <c r="CA86" s="3"/>
-      <c r="CB86" s="7" t="n">
-        <v>2</v>
+      <c r="BV86" s="3" t="n">
+        <f aca="false">-3/2</f>
+        <v>-1.5</v>
+      </c>
+      <c r="BW86" s="3"/>
+      <c r="BX86" s="3"/>
+      <c r="BY86" s="3"/>
+      <c r="BZ86" s="3"/>
+      <c r="CA86" s="0"/>
+      <c r="CB86" s="3" t="n">
+        <v>3</v>
       </c>
       <c r="CC86" s="3"/>
       <c r="CD86" s="3"/>
       <c r="CE86" s="3"/>
       <c r="CF86" s="3"/>
-      <c r="CG86" s="9" t="n">
-        <v>1</v>
-      </c>
-      <c r="CH86" s="6" t="n">
-        <v>-4</v>
-      </c>
-      <c r="CI86" s="9" t="n">
-        <v>1</v>
-      </c>
-      <c r="CJ86" s="3"/>
-      <c r="CK86" s="3"/>
-      <c r="CL86" s="3"/>
-      <c r="CN86" s="23" t="s">
-        <v>29</v>
-      </c>
-      <c r="CP86" s="24" t="s">
-        <v>30</v>
-      </c>
+      <c r="CG86" s="3"/>
+      <c r="CH86" s="3" t="n">
+        <f aca="false">-11/6</f>
+        <v>-1.83333333333333</v>
+      </c>
+      <c r="CI86" s="0"/>
+      <c r="CJ86" s="0"/>
+      <c r="CK86" s="0"/>
+      <c r="CL86" s="0"/>
+      <c r="CO86" s="0"/>
     </row>
     <row r="87" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A87" s="4" t="n">
@@ -39058,36 +38639,41 @@
       <c r="BM87" s="3"/>
       <c r="BN87" s="3"/>
       <c r="BO87" s="3"/>
-      <c r="BP87" s="3"/>
+      <c r="BP87" s="3" t="n">
+        <f aca="false">1/3</f>
+        <v>0.333333333333333</v>
+      </c>
       <c r="BQ87" s="3"/>
       <c r="BR87" s="3"/>
       <c r="BS87" s="3"/>
       <c r="BT87" s="3"/>
-      <c r="BU87" s="3"/>
+      <c r="BU87" s="0"/>
       <c r="BV87" s="3"/>
+      <c r="BW87" s="3" t="n">
+        <f aca="false">-3/2</f>
+        <v>-1.5</v>
+      </c>
+      <c r="BX87" s="3"/>
+      <c r="BY87" s="3"/>
+      <c r="BZ87" s="3"/>
       <c r="CA87" s="3"/>
-      <c r="CB87" s="3"/>
-      <c r="CC87" s="7" t="n">
-        <v>2</v>
+      <c r="CB87" s="0"/>
+      <c r="CC87" s="3" t="n">
+        <v>3</v>
       </c>
       <c r="CD87" s="3"/>
       <c r="CE87" s="3"/>
       <c r="CF87" s="3"/>
       <c r="CG87" s="3"/>
-      <c r="CH87" s="9" t="n">
-        <v>1</v>
-      </c>
-      <c r="CI87" s="6" t="n">
-        <v>-4</v>
-      </c>
-      <c r="CJ87" s="9" t="n">
-        <v>1</v>
-      </c>
-      <c r="CK87" s="3"/>
-      <c r="CL87" s="3"/>
-      <c r="CN87" s="23" t="s">
-        <v>29</v>
-      </c>
+      <c r="CH87" s="3"/>
+      <c r="CI87" s="3" t="n">
+        <f aca="false">-11/6</f>
+        <v>-1.83333333333333</v>
+      </c>
+      <c r="CJ87" s="0"/>
+      <c r="CK87" s="0"/>
+      <c r="CL87" s="0"/>
+      <c r="CO87" s="0"/>
     </row>
     <row r="88" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A88" s="4" t="n">
@@ -39160,35 +38746,40 @@
       <c r="BN88" s="3"/>
       <c r="BO88" s="3"/>
       <c r="BP88" s="3"/>
-      <c r="BQ88" s="3"/>
+      <c r="BQ88" s="3" t="n">
+        <f aca="false">1/3</f>
+        <v>0.333333333333333</v>
+      </c>
       <c r="BR88" s="3"/>
       <c r="BS88" s="3"/>
       <c r="BT88" s="3"/>
       <c r="BU88" s="3"/>
-      <c r="BV88" s="3"/>
+      <c r="BV88" s="0"/>
+      <c r="BW88" s="3"/>
+      <c r="BX88" s="3" t="n">
+        <f aca="false">-3/2</f>
+        <v>-1.5</v>
+      </c>
+      <c r="BY88" s="3"/>
+      <c r="BZ88" s="3"/>
       <c r="CA88" s="3"/>
       <c r="CB88" s="3"/>
-      <c r="CC88" s="3"/>
-      <c r="CD88" s="7" t="n">
-        <v>2</v>
+      <c r="CC88" s="0"/>
+      <c r="CD88" s="3" t="n">
+        <v>3</v>
       </c>
       <c r="CE88" s="3"/>
       <c r="CF88" s="3"/>
       <c r="CG88" s="3"/>
       <c r="CH88" s="3"/>
-      <c r="CI88" s="9" t="n">
-        <v>1</v>
-      </c>
-      <c r="CJ88" s="6" t="n">
-        <v>-4</v>
-      </c>
-      <c r="CK88" s="9" t="n">
-        <v>1</v>
-      </c>
-      <c r="CL88" s="3"/>
-      <c r="CN88" s="23" t="s">
-        <v>29</v>
-      </c>
+      <c r="CI88" s="3"/>
+      <c r="CJ88" s="3" t="n">
+        <f aca="false">-11/6</f>
+        <v>-1.83333333333333</v>
+      </c>
+      <c r="CK88" s="0"/>
+      <c r="CL88" s="0"/>
+      <c r="CO88" s="0"/>
     </row>
     <row r="89" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A89" s="4" t="n">
@@ -39262,34 +38853,38 @@
       <c r="BO89" s="3"/>
       <c r="BP89" s="3"/>
       <c r="BQ89" s="3"/>
-      <c r="BR89" s="3"/>
+      <c r="BR89" s="3" t="n">
+        <f aca="false">1/3</f>
+        <v>0.333333333333333</v>
+      </c>
       <c r="BS89" s="3"/>
       <c r="BT89" s="3"/>
       <c r="BU89" s="3"/>
       <c r="BV89" s="3"/>
+      <c r="BW89" s="0"/>
+      <c r="BX89" s="3"/>
+      <c r="BY89" s="3" t="n">
+        <f aca="false">-3/2</f>
+        <v>-1.5</v>
+      </c>
+      <c r="BZ89" s="3"/>
       <c r="CA89" s="3"/>
       <c r="CB89" s="3"/>
       <c r="CC89" s="3"/>
-      <c r="CD89" s="3"/>
-      <c r="CE89" s="7" t="n">
-        <v>2</v>
+      <c r="CD89" s="0"/>
+      <c r="CE89" s="3" t="n">
+        <v>3</v>
       </c>
       <c r="CF89" s="3"/>
       <c r="CG89" s="3"/>
       <c r="CH89" s="3"/>
       <c r="CI89" s="3"/>
-      <c r="CJ89" s="9" t="n">
-        <v>1</v>
-      </c>
-      <c r="CK89" s="6" t="n">
-        <v>-4</v>
-      </c>
-      <c r="CL89" s="9" t="n">
-        <v>1</v>
-      </c>
-      <c r="CN89" s="23" t="s">
-        <v>29</v>
-      </c>
+      <c r="CJ89" s="3"/>
+      <c r="CK89" s="3" t="n">
+        <f aca="false">-11/6</f>
+        <v>-1.83333333333333</v>
+      </c>
+      <c r="CL89" s="3"/>
     </row>
     <row r="90" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A90" s="4" t="n">
@@ -39364,30 +38959,36 @@
       <c r="BP90" s="3"/>
       <c r="BQ90" s="3"/>
       <c r="BR90" s="3"/>
-      <c r="BS90" s="3"/>
+      <c r="BS90" s="3" t="n">
+        <f aca="false">1/3</f>
+        <v>0.333333333333333</v>
+      </c>
       <c r="BT90" s="3"/>
       <c r="BU90" s="3"/>
       <c r="BV90" s="3"/>
+      <c r="BW90" s="3"/>
+      <c r="BX90" s="0"/>
+      <c r="BY90" s="3"/>
+      <c r="BZ90" s="3" t="n">
+        <f aca="false">-3/2</f>
+        <v>-1.5</v>
+      </c>
       <c r="CA90" s="3"/>
       <c r="CB90" s="3"/>
       <c r="CC90" s="3"/>
       <c r="CD90" s="3"/>
-      <c r="CE90" s="3"/>
-      <c r="CF90" s="7" t="n">
-        <v>2</v>
+      <c r="CE90" s="0"/>
+      <c r="CF90" s="3" t="n">
+        <v>3</v>
       </c>
       <c r="CG90" s="3"/>
       <c r="CH90" s="3"/>
       <c r="CI90" s="3"/>
       <c r="CJ90" s="3"/>
-      <c r="CK90" s="7" t="n">
-        <v>2</v>
-      </c>
-      <c r="CL90" s="6" t="n">
-        <v>-4</v>
-      </c>
-      <c r="CN90" s="23" t="s">
-        <v>29</v>
+      <c r="CK90" s="3"/>
+      <c r="CL90" s="3" t="n">
+        <f aca="false">-11/6</f>
+        <v>-1.83333333333333</v>
       </c>
     </row>
   </sheetData>
